--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weipe\Documents\GitHub\About_Money\采购单规范v0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$948</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5430" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="1324">
   <si>
     <t>编号</t>
   </si>
@@ -5271,15 +5266,30 @@
     <t>套</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>杨秉文</t>
+  </si>
+  <si>
+    <t>5604下载器</t>
+  </si>
+  <si>
+    <t>5604核心板</t>
+  </si>
+  <si>
+    <t>贴片钽电容 47uf 10V A3216</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5649,6 +5659,16 @@
   </cellStyles>
   <dxfs count="46">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
@@ -5687,16 +5707,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6335,31 +6345,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S986"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S989"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A954" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R983" sqref="R983"/>
+      <pane ySplit="1" topLeftCell="A969" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C993" sqref="C993"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="49.625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="13" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6415,7 +6425,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6462,10 +6472,10 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>86004.184000000008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>86825.184000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6504,7 +6514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6546,7 +6556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6589,7 +6599,7 @@
       </c>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6631,7 +6641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6673,7 +6683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6715,7 +6725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6757,7 +6767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6801,7 +6811,7 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6845,7 +6855,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6887,7 +6897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6929,7 +6939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6971,7 +6981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7013,7 +7023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7055,7 +7065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7097,7 +7107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7139,7 +7149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7181,7 +7191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7223,7 +7233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="1" customFormat="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7268,7 +7278,7 @@
       <c r="O21" s="3"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7312,7 +7322,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7354,7 +7364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7397,7 +7407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7440,7 +7450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7483,7 +7493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7526,7 +7536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7568,7 +7578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7610,7 +7620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7652,7 +7662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7694,7 +7704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7736,7 +7746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7778,7 +7788,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7820,7 +7830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7862,7 +7872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7904,7 +7914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7946,7 +7956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7988,7 +7998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8030,7 +8040,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8072,7 +8082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8114,7 +8124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8156,7 +8166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8198,7 +8208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8240,7 +8250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8282,7 +8292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8327,7 +8337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8372,7 +8382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8417,7 +8427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8462,7 +8472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8507,7 +8517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8552,7 +8562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8597,7 +8607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8642,7 +8652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8687,7 +8697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8732,7 +8742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8777,7 +8787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8822,7 +8832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8867,7 +8877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8912,7 +8922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8957,7 +8967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -9002,7 +9012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9047,7 +9057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9089,7 +9099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -9134,7 +9144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9179,7 +9189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9224,7 +9234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9269,7 +9279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9314,7 +9324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9359,7 +9369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9402,7 +9412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9445,7 +9455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9488,7 +9498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9531,7 +9541,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9574,7 +9584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9617,7 +9627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9660,7 +9670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9703,7 +9713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9746,7 +9756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -9789,7 +9799,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -9834,7 +9844,7 @@
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -9879,7 +9889,7 @@
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -9922,7 +9932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -9965,7 +9975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10008,7 +10018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10051,7 +10061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10094,7 +10104,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10137,7 +10147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10180,7 +10190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10223,7 +10233,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10266,7 +10276,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -10309,7 +10319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -10351,7 +10361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -10393,7 +10403,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -10435,7 +10445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -10477,7 +10487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -10519,7 +10529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10561,7 +10571,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -10603,7 +10613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10648,7 +10658,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10693,7 +10703,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10738,7 +10748,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10783,7 +10793,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10828,7 +10838,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10873,7 +10883,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10915,7 +10925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10957,7 +10967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10999,7 +11009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -11041,7 +11051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -11086,7 +11096,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11131,7 +11141,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11176,7 +11186,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11221,7 +11231,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11266,7 +11276,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11311,7 +11321,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11356,7 +11366,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11401,7 +11411,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11446,7 +11456,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11491,7 +11501,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11536,7 +11546,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11581,7 +11591,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11626,7 +11636,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11671,7 +11681,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11716,7 +11726,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11761,7 +11771,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11806,7 +11816,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11851,7 +11861,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -11896,7 +11906,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -11941,7 +11951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -11986,7 +11996,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12031,7 +12041,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12076,7 +12086,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12112,7 +12122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12157,7 +12167,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12202,7 +12212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12247,7 +12257,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12292,7 +12302,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12337,7 +12347,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12382,7 +12392,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12427,7 +12437,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -12472,7 +12482,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -12517,7 +12527,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -12562,7 +12572,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -12607,7 +12617,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -12652,7 +12662,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -12697,7 +12707,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -12742,7 +12752,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -12787,7 +12797,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -12832,7 +12842,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -12877,7 +12887,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -12922,7 +12932,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -12967,7 +12977,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13012,7 +13022,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -13057,7 +13067,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -13102,7 +13112,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="155" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" s="29" customFormat="1">
       <c r="A155" s="29">
         <v>154</v>
       </c>
@@ -13148,7 +13158,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -13193,7 +13203,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -13238,7 +13248,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -13283,7 +13293,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -13328,7 +13338,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -13373,7 +13383,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -13418,7 +13428,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -13463,7 +13473,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -13508,7 +13518,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -13553,7 +13563,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -13598,7 +13608,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -13640,7 +13650,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -13682,7 +13692,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -13724,7 +13734,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -13766,7 +13776,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -13808,7 +13818,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -13850,7 +13860,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -13892,7 +13902,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -13934,7 +13944,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -13976,7 +13986,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -14018,7 +14028,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -14060,7 +14070,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -14102,7 +14112,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -14144,7 +14154,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -14186,7 +14196,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -14228,7 +14238,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -14274,7 +14284,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -14316,7 +14326,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -14359,7 +14369,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -14402,7 +14412,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -14445,7 +14455,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -14488,7 +14498,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -14531,7 +14541,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -14574,7 +14584,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -14618,7 +14628,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -14662,7 +14672,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="191" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" s="29" customFormat="1">
       <c r="A191" s="29">
         <v>190</v>
       </c>
@@ -14705,7 +14715,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -14749,7 +14759,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -14793,7 +14803,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -14839,7 +14849,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -14885,7 +14895,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -14931,7 +14941,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -14977,7 +14987,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -15023,7 +15033,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -15069,7 +15079,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -15115,7 +15125,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -15161,7 +15171,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -15207,7 +15217,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -15253,7 +15263,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -15299,7 +15309,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -15345,7 +15355,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -15391,7 +15401,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -15437,7 +15447,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -15483,7 +15493,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -15529,7 +15539,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -15575,7 +15585,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -15621,7 +15631,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -15667,7 +15677,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -15713,7 +15723,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -15759,7 +15769,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -15807,7 +15817,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -15853,7 +15863,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -15899,7 +15909,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -15945,7 +15955,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -15991,7 +16001,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -16037,7 +16047,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -16083,7 +16093,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -16129,7 +16139,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -16175,7 +16185,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -16221,7 +16231,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -16267,7 +16277,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -16313,7 +16323,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -16359,7 +16369,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -16404,7 +16414,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -16446,7 +16456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -16488,7 +16498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -16530,7 +16540,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -16572,7 +16582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -16612,7 +16622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -16654,7 +16664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -16698,7 +16708,7 @@
       </c>
       <c r="O235" s="11"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -16741,7 +16751,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -16786,7 +16796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -16828,7 +16838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -16870,7 +16880,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -16912,7 +16922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -16954,7 +16964,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -16996,7 +17006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -17038,7 +17048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -17080,7 +17090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -17122,7 +17132,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -17164,7 +17174,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -17206,7 +17216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -17248,7 +17258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -17290,7 +17300,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -17332,7 +17342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -17374,7 +17384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -17416,7 +17426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -17458,7 +17468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -17500,7 +17510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -17542,7 +17552,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -17584,7 +17594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -17626,7 +17636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -17670,7 +17680,7 @@
       </c>
       <c r="O258" s="11"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -17712,7 +17722,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -17754,7 +17764,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -17796,7 +17806,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -17838,7 +17848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -17880,7 +17890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -17922,7 +17932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -17964,7 +17974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -18006,7 +18016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -18048,7 +18058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -18093,7 +18103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -18136,7 +18146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -18178,7 +18188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -18221,7 +18231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -18264,7 +18274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -18307,7 +18317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -18350,7 +18360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -18393,7 +18403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -18436,7 +18446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -18479,7 +18489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -18523,7 +18533,7 @@
       </c>
       <c r="O278" s="24"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -18566,7 +18576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -18609,7 +18619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -18652,7 +18662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -18695,7 +18705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -18738,7 +18748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -18781,7 +18791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -18824,7 +18834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -18867,7 +18877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -18910,7 +18920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -18954,7 +18964,7 @@
       </c>
       <c r="O288" s="15"/>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -18998,7 +19008,7 @@
       </c>
       <c r="O289" s="15"/>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -19042,7 +19052,7 @@
       </c>
       <c r="O290" s="15"/>
     </row>
-    <row r="291" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" s="29" customFormat="1">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -19090,7 +19100,7 @@
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
     </row>
-    <row r="292" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" s="29" customFormat="1">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -19138,7 +19148,7 @@
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -19182,7 +19192,7 @@
       </c>
       <c r="O293" s="24"/>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -19230,7 +19240,7 @@
       <c r="R294" s="29"/>
       <c r="S294" s="29"/>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -19278,7 +19288,7 @@
       <c r="R295" s="29"/>
       <c r="S295" s="29"/>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -19322,7 +19332,7 @@
       </c>
       <c r="O296" s="15"/>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -19365,7 +19375,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -19408,7 +19418,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -19451,7 +19461,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -19494,7 +19504,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -19537,7 +19547,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -19580,7 +19590,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -19623,7 +19633,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -19666,7 +19676,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -19709,7 +19719,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -19752,7 +19762,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -19795,7 +19805,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -19838,7 +19848,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -19881,7 +19891,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -19924,7 +19934,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -19967,7 +19977,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -20010,7 +20020,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -20053,7 +20063,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -20096,7 +20106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -20139,7 +20149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -20182,7 +20192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -20225,7 +20235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -20268,7 +20278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -20311,7 +20321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -20354,7 +20364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -20397,7 +20407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -20440,7 +20450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -20483,7 +20493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -20526,7 +20536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -20569,7 +20579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -20612,7 +20622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -20655,7 +20665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -20698,7 +20708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -20741,7 +20751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -20784,7 +20794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -20827,7 +20837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -20870,7 +20880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -20914,7 +20924,7 @@
       </c>
       <c r="O333" s="15"/>
     </row>
-    <row r="334" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" s="29" customFormat="1">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -20962,7 +20972,7 @@
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -21005,7 +21015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -21048,7 +21058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -21091,7 +21101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -21135,7 +21145,7 @@
       </c>
       <c r="O338" s="24"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -21178,7 +21188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -21221,7 +21231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -21264,7 +21274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" s="29" customFormat="1">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -21308,7 +21318,7 @@
       </c>
       <c r="O342" s="26"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -21351,7 +21361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -21396,7 +21406,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -21441,7 +21451,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -21486,7 +21496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -21531,7 +21541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -21574,7 +21584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -21617,7 +21627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -21660,7 +21670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -21703,7 +21713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -21746,7 +21756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -21794,7 +21804,7 @@
       <c r="R353" s="29"/>
       <c r="S353" s="29"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -21839,7 +21849,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -21884,7 +21894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -21929,7 +21939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -21974,7 +21984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -22011,7 +22021,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -22048,7 +22058,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -22093,7 +22103,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -22138,7 +22148,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -22182,7 +22192,7 @@
       </c>
       <c r="O362" s="24"/>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -22226,7 +22236,7 @@
       </c>
       <c r="O363" s="24"/>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -22270,7 +22280,7 @@
       </c>
       <c r="O364" s="24"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -22314,7 +22324,7 @@
       </c>
       <c r="O365" s="24"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -22358,7 +22368,7 @@
       </c>
       <c r="O366" s="24"/>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -22403,7 +22413,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -22440,7 +22450,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="369" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" s="1" customFormat="1">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -22482,7 +22492,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="370" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" s="1" customFormat="1">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -22524,7 +22534,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="371" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" s="1" customFormat="1">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -22566,7 +22576,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="372" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" s="1" customFormat="1">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -22608,7 +22618,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="373" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" s="1" customFormat="1">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -22650,7 +22660,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="374" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" s="1" customFormat="1">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -22692,7 +22702,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="375" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" s="1" customFormat="1">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -22734,7 +22744,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="376" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" s="1" customFormat="1">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -22776,7 +22786,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -22820,7 +22830,7 @@
       </c>
       <c r="O377" s="24"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -22863,7 +22873,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -22907,7 +22917,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -22950,7 +22960,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -22993,7 +23003,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -23036,7 +23046,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -23079,7 +23089,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -23122,7 +23132,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -23165,7 +23175,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -23208,7 +23218,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -23251,7 +23261,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -23294,7 +23304,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -23336,7 +23346,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -23373,7 +23383,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -23410,7 +23420,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -23455,7 +23465,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -23497,7 +23507,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -23539,7 +23549,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -23581,7 +23591,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -23623,7 +23633,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -23665,7 +23675,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -23710,7 +23720,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -23754,7 +23764,7 @@
       </c>
       <c r="O399" s="24"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -23796,7 +23806,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -23839,7 +23849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -23881,7 +23891,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -23918,7 +23928,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -23955,7 +23965,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -23992,7 +24002,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -24035,7 +24045,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -24078,7 +24088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -24122,7 +24132,7 @@
       </c>
       <c r="O408" s="24"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -24166,7 +24176,7 @@
       </c>
       <c r="O409" s="24"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -24210,7 +24220,7 @@
       </c>
       <c r="O410" s="24"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -24255,7 +24265,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -24300,7 +24310,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -24345,7 +24355,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -24390,7 +24400,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -24434,7 +24444,7 @@
       </c>
       <c r="O415" s="24"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -24478,7 +24488,7 @@
       </c>
       <c r="O416" s="24"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -24522,7 +24532,7 @@
       </c>
       <c r="O417" s="24"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -24566,7 +24576,7 @@
       </c>
       <c r="O418" s="24"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -24610,7 +24620,7 @@
       </c>
       <c r="O419" s="24"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -24654,7 +24664,7 @@
       </c>
       <c r="O420" s="24"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -24698,7 +24708,7 @@
       </c>
       <c r="O421" s="24"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -24742,7 +24752,7 @@
       </c>
       <c r="O422" s="24"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -24786,7 +24796,7 @@
       </c>
       <c r="O423" s="24"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -24831,7 +24841,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -24874,7 +24884,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -24917,7 +24927,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -24960,7 +24970,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -25004,7 +25014,7 @@
       </c>
       <c r="O428" s="24"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -25047,7 +25057,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -25090,7 +25100,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -25135,7 +25145,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -25178,7 +25188,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -25221,7 +25231,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -25264,7 +25274,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -25307,7 +25317,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -25350,7 +25360,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -25393,7 +25403,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -25436,7 +25446,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -25479,7 +25489,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -25522,7 +25532,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -25565,7 +25575,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -25609,7 +25619,7 @@
       </c>
       <c r="O442" s="24"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -25653,7 +25663,7 @@
       </c>
       <c r="O443" s="24"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -25695,7 +25705,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -25738,7 +25748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -25780,7 +25790,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -25822,7 +25832,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -25864,7 +25874,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -25906,7 +25916,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -25948,7 +25958,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -25990,7 +26000,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -26032,7 +26042,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -26074,7 +26084,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -26119,7 +26129,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -26164,7 +26174,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -26206,7 +26216,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -26248,7 +26258,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -26290,7 +26300,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -26332,7 +26342,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -26374,7 +26384,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -26416,7 +26426,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -26458,7 +26468,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -26503,7 +26513,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -26548,7 +26558,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -26590,7 +26600,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -26632,7 +26642,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -26674,7 +26684,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -26716,7 +26726,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -26758,7 +26768,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -26800,7 +26810,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -26842,7 +26852,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -26884,7 +26894,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -26927,7 +26937,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -26972,7 +26982,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -27017,7 +27027,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -27062,7 +27072,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -27107,7 +27117,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -27149,7 +27159,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -27191,7 +27201,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -27233,7 +27243,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -27278,7 +27288,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -27323,7 +27333,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -27368,7 +27378,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -27411,7 +27421,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -27454,7 +27464,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -27497,7 +27507,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -27540,7 +27550,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -27583,7 +27593,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -27626,7 +27636,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -27667,7 +27677,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -27712,7 +27722,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -27757,7 +27767,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -27802,7 +27812,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -27847,7 +27857,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -27892,7 +27902,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -27937,7 +27947,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -27980,7 +27990,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -28023,7 +28033,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -28066,7 +28076,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -28109,7 +28119,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -28152,7 +28162,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -28195,7 +28205,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -28238,7 +28248,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -28281,7 +28291,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -28324,7 +28334,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -28367,7 +28377,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -28410,7 +28420,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -28453,7 +28463,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -28496,7 +28506,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -28539,7 +28549,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -28582,7 +28592,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -28625,7 +28635,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -28668,7 +28678,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -28711,7 +28721,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -28754,7 +28764,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -28797,7 +28807,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -28840,7 +28850,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -28883,7 +28893,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:14">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -28926,7 +28936,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:14">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -28969,7 +28979,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:14">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -29012,7 +29022,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -29055,7 +29065,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -29096,7 +29106,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:14">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -29139,7 +29149,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:14">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -29182,7 +29192,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:14">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -29223,7 +29233,7 @@
       </c>
       <c r="N526" s="1"/>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:14">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -29265,7 +29275,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:14">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -29310,7 +29320,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -29355,7 +29365,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -29400,7 +29410,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -29442,7 +29452,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -29484,7 +29494,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -29526,7 +29536,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -29566,7 +29576,7 @@
       </c>
       <c r="N534" s="1"/>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -29608,7 +29618,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -29650,7 +29660,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -29695,7 +29705,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -29736,7 +29746,7 @@
       </c>
       <c r="N538" s="1"/>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -29777,7 +29787,7 @@
       </c>
       <c r="N539" s="1"/>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -29820,7 +29830,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -29863,7 +29873,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -29906,7 +29916,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -29949,7 +29959,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -29992,7 +30002,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:14">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -30035,7 +30045,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:14">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -30078,7 +30088,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:14">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -30121,7 +30131,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:14">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -30164,7 +30174,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:14">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -30207,7 +30217,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:14">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -30250,7 +30260,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:14">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -30293,7 +30303,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:14">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -30336,7 +30346,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:14">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -30381,7 +30391,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:14">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -30426,7 +30436,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:14">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -30471,7 +30481,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:14">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -30516,7 +30526,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:14">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -30561,7 +30571,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:14">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -30606,7 +30616,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:14">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -30651,7 +30661,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:14">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -30696,7 +30706,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -30747,7 +30757,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -30798,7 +30808,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -30849,7 +30859,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -30900,7 +30910,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="565" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" s="1" customFormat="1">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -30940,7 +30950,7 @@
       </c>
       <c r="S565" s="43"/>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -30991,7 +31001,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -31042,7 +31052,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -31087,7 +31097,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -31132,7 +31142,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -31177,7 +31187,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -31222,7 +31232,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -31267,7 +31277,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -31312,7 +31322,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -31357,7 +31367,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:19">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -31402,7 +31412,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -31447,7 +31457,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -31492,7 +31502,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:14">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -31537,7 +31547,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:14">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -31582,7 +31592,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:14">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -31627,7 +31637,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:14">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -31672,7 +31682,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:14">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -31717,7 +31727,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:14">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -31762,7 +31772,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:14">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -31807,7 +31817,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:14">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -31852,7 +31862,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:14">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -31897,7 +31907,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:14">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -31942,7 +31952,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:14">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -31987,7 +31997,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:14">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -32032,7 +32042,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:14">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -32077,7 +32087,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:14">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -32122,7 +32132,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:14">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -32167,7 +32177,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:14">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -32212,7 +32222,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:14">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -32257,7 +32267,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:14">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -32302,7 +32312,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:14">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -32347,7 +32357,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:14">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -32392,7 +32402,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:14">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -32437,7 +32447,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:14">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -32482,7 +32492,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:14">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -32527,7 +32537,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:14">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -32572,7 +32582,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:14">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -32617,7 +32627,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:14">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -32662,7 +32672,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:14">
       <c r="A604" s="1">
         <v>603</v>
       </c>
@@ -32707,7 +32717,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:14">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -32752,7 +32762,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:14">
       <c r="A606" s="1">
         <v>605</v>
       </c>
@@ -32797,7 +32807,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:14">
       <c r="A607" s="1">
         <v>606</v>
       </c>
@@ -32842,7 +32852,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:14">
       <c r="A608" s="1">
         <v>607</v>
       </c>
@@ -32887,7 +32897,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:14">
       <c r="A609" s="1">
         <v>608</v>
       </c>
@@ -32932,7 +32942,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:14">
       <c r="A610" s="1">
         <v>609</v>
       </c>
@@ -32977,7 +32987,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:14">
       <c r="A611" s="1">
         <v>610</v>
       </c>
@@ -33022,7 +33032,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:14">
       <c r="A612" s="1">
         <v>611</v>
       </c>
@@ -33067,7 +33077,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:14">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -33112,7 +33122,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:14">
       <c r="A614" s="1">
         <v>613</v>
       </c>
@@ -33157,7 +33167,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:14">
       <c r="A615" s="1">
         <v>614</v>
       </c>
@@ -33202,7 +33212,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:14">
       <c r="A616" s="1">
         <v>615</v>
       </c>
@@ -33247,7 +33257,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:14">
       <c r="A617" s="1">
         <v>616</v>
       </c>
@@ -33292,7 +33302,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:14">
       <c r="A618" s="1">
         <v>617</v>
       </c>
@@ -33337,7 +33347,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:14">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -33382,7 +33392,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:14">
       <c r="A620" s="1">
         <v>619</v>
       </c>
@@ -33427,7 +33437,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:14">
       <c r="A621" s="1">
         <v>620</v>
       </c>
@@ -33472,7 +33482,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:14">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -33517,7 +33527,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:14">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -33562,7 +33572,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:14">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -33607,7 +33617,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:14">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -33652,7 +33662,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:14">
       <c r="A626" s="1">
         <v>625</v>
       </c>
@@ -33697,7 +33707,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:14">
       <c r="A627" s="1">
         <v>626</v>
       </c>
@@ -33742,7 +33752,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:14">
       <c r="A628" s="1">
         <v>627</v>
       </c>
@@ -33787,7 +33797,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:14">
       <c r="A629" s="1">
         <v>628</v>
       </c>
@@ -33832,7 +33842,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:14">
       <c r="A630" s="1">
         <v>629</v>
       </c>
@@ -33877,7 +33887,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:14">
       <c r="A631" s="1">
         <v>630</v>
       </c>
@@ -33922,7 +33932,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:14">
       <c r="A632" s="1">
         <v>631</v>
       </c>
@@ -33967,7 +33977,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:14">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -34012,7 +34022,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:14">
       <c r="A634" s="1">
         <v>633</v>
       </c>
@@ -34057,7 +34067,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:14">
       <c r="A635" s="1">
         <v>634</v>
       </c>
@@ -34102,7 +34112,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:14">
       <c r="A636" s="1">
         <v>635</v>
       </c>
@@ -34147,7 +34157,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:14">
       <c r="A637" s="1">
         <v>636</v>
       </c>
@@ -34192,7 +34202,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:14">
       <c r="A638" s="1">
         <v>637</v>
       </c>
@@ -34237,7 +34247,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:14">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -34282,7 +34292,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:14">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -34327,7 +34337,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:14">
       <c r="A641" s="1">
         <v>640</v>
       </c>
@@ -34372,7 +34382,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:14">
       <c r="A642" s="1">
         <v>641</v>
       </c>
@@ -34417,7 +34427,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:14">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -34462,7 +34472,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:14">
       <c r="A644" s="1">
         <v>643</v>
       </c>
@@ -34507,7 +34517,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:14">
       <c r="A645" s="1">
         <v>644</v>
       </c>
@@ -34552,7 +34562,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:14">
       <c r="A646" s="1">
         <v>645</v>
       </c>
@@ -34597,7 +34607,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:14">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -34642,7 +34652,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:14">
       <c r="A648" s="1">
         <v>647</v>
       </c>
@@ -34687,7 +34697,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:14">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -34732,7 +34742,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:14">
       <c r="A650" s="1">
         <v>649</v>
       </c>
@@ -34777,7 +34787,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:14">
       <c r="A651" s="1">
         <v>650</v>
       </c>
@@ -34822,7 +34832,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:14">
       <c r="A652" s="1">
         <v>651</v>
       </c>
@@ -34867,7 +34877,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:14">
       <c r="A653" s="1">
         <v>652</v>
       </c>
@@ -34912,7 +34922,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:14">
       <c r="A654" s="1">
         <v>653</v>
       </c>
@@ -34957,7 +34967,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:14">
       <c r="A655" s="1">
         <v>654</v>
       </c>
@@ -35002,7 +35012,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:14">
       <c r="A656" s="1">
         <v>655</v>
       </c>
@@ -35047,7 +35057,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:14">
       <c r="A657" s="1">
         <v>656</v>
       </c>
@@ -35092,7 +35102,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:14">
       <c r="A658" s="1">
         <v>657</v>
       </c>
@@ -35137,7 +35147,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:14">
       <c r="A659" s="1">
         <v>658</v>
       </c>
@@ -35182,7 +35192,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:14">
       <c r="A660" s="1">
         <v>659</v>
       </c>
@@ -35227,7 +35237,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:14">
       <c r="A661" s="1">
         <v>660</v>
       </c>
@@ -35272,7 +35282,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:14">
       <c r="A662" s="1">
         <v>661</v>
       </c>
@@ -35317,7 +35327,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:14">
       <c r="A663" s="1">
         <v>662</v>
       </c>
@@ -35362,7 +35372,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:14">
       <c r="A664" s="1">
         <v>663</v>
       </c>
@@ -35407,7 +35417,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:14">
       <c r="A665" s="1">
         <v>664</v>
       </c>
@@ -35452,7 +35462,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:14">
       <c r="A666" s="1">
         <v>665</v>
       </c>
@@ -35497,7 +35507,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:14">
       <c r="A667" s="1">
         <v>666</v>
       </c>
@@ -35542,7 +35552,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:14">
       <c r="A668" s="1">
         <v>667</v>
       </c>
@@ -35586,7 +35596,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:14">
       <c r="A669" s="1">
         <v>668</v>
       </c>
@@ -35630,7 +35640,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:14">
       <c r="A670" s="1">
         <v>669</v>
       </c>
@@ -35674,7 +35684,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:14">
       <c r="A671" s="1">
         <v>670</v>
       </c>
@@ -35718,7 +35728,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:14">
       <c r="A672" s="1">
         <v>671</v>
       </c>
@@ -35762,7 +35772,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:14">
       <c r="A673" s="1">
         <v>672</v>
       </c>
@@ -35806,7 +35816,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:14">
       <c r="A674" s="1">
         <v>673</v>
       </c>
@@ -35850,7 +35860,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:14">
       <c r="A675" s="1">
         <v>674</v>
       </c>
@@ -35894,7 +35904,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:14">
       <c r="A676" s="1">
         <v>675</v>
       </c>
@@ -35938,7 +35948,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:14">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -35982,7 +35992,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:14">
       <c r="A678" s="1">
         <v>677</v>
       </c>
@@ -36026,7 +36036,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:14">
       <c r="A679" s="1">
         <v>678</v>
       </c>
@@ -36070,7 +36080,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:14">
       <c r="A680" s="1">
         <v>679</v>
       </c>
@@ -36114,7 +36124,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:14">
       <c r="A681" s="1">
         <v>680</v>
       </c>
@@ -36158,7 +36168,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:14">
       <c r="A682" s="1">
         <v>681</v>
       </c>
@@ -36202,7 +36212,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:14">
       <c r="A683" s="1">
         <v>682</v>
       </c>
@@ -36246,7 +36256,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:14">
       <c r="A684" s="1">
         <v>683</v>
       </c>
@@ -36290,7 +36300,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:14">
       <c r="A685" s="1">
         <v>684</v>
       </c>
@@ -36334,7 +36344,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="686" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:14">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -36378,7 +36388,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="687" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:14">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -36422,7 +36432,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:14">
       <c r="A688" s="1">
         <v>687</v>
       </c>
@@ -36466,7 +36476,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="689" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:14">
       <c r="A689" s="1">
         <v>688</v>
       </c>
@@ -36510,7 +36520,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="690" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:14">
       <c r="A690" s="1">
         <v>689</v>
       </c>
@@ -36554,7 +36564,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="691" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:14">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -36598,7 +36608,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="692" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:14">
       <c r="A692" s="1">
         <v>691</v>
       </c>
@@ -36642,7 +36652,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="693" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:14">
       <c r="A693" s="1">
         <v>692</v>
       </c>
@@ -36686,7 +36696,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="694" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:14">
       <c r="A694" s="1">
         <v>693</v>
       </c>
@@ -36730,7 +36740,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="695" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:14">
       <c r="A695" s="1">
         <v>694</v>
       </c>
@@ -36774,7 +36784,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="696" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:14">
       <c r="A696" s="1">
         <v>695</v>
       </c>
@@ -36818,7 +36828,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="697" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:14">
       <c r="A697" s="1">
         <v>696</v>
       </c>
@@ -36862,7 +36872,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="698" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:14">
       <c r="A698" s="1">
         <v>697</v>
       </c>
@@ -36906,7 +36916,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="699" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:14">
       <c r="A699" s="1">
         <v>698</v>
       </c>
@@ -36950,7 +36960,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="700" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:14">
       <c r="A700" s="1">
         <v>699</v>
       </c>
@@ -36994,7 +37004,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="701" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:14">
       <c r="A701" s="1">
         <v>700</v>
       </c>
@@ -37038,7 +37048,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="702" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:14">
       <c r="A702" s="1">
         <v>701</v>
       </c>
@@ -37082,7 +37092,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="703" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:14">
       <c r="A703" s="1">
         <v>702</v>
       </c>
@@ -37126,7 +37136,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="704" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:14">
       <c r="A704" s="1">
         <v>703</v>
       </c>
@@ -37170,7 +37180,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="705" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:14">
       <c r="A705" s="1">
         <v>704</v>
       </c>
@@ -37214,7 +37224,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="706" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:14">
       <c r="A706" s="1">
         <v>705</v>
       </c>
@@ -37258,7 +37268,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="707" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:14">
       <c r="A707" s="1">
         <v>706</v>
       </c>
@@ -37302,7 +37312,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:14">
       <c r="A708" s="1">
         <v>707</v>
       </c>
@@ -37346,7 +37356,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="709" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:14">
       <c r="A709" s="1">
         <v>708</v>
       </c>
@@ -37390,7 +37400,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="710" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:14">
       <c r="A710" s="1">
         <v>709</v>
       </c>
@@ -37434,7 +37444,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="711" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:14">
       <c r="A711" s="1">
         <v>710</v>
       </c>
@@ -37478,7 +37488,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="712" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:14">
       <c r="A712" s="1">
         <v>711</v>
       </c>
@@ -37522,7 +37532,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="713" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:14">
       <c r="A713" s="1">
         <v>712</v>
       </c>
@@ -37566,7 +37576,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="714" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:14">
       <c r="A714" s="1">
         <v>713</v>
       </c>
@@ -37610,7 +37620,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="715" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:14">
       <c r="A715" s="1">
         <v>714</v>
       </c>
@@ -37654,7 +37664,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="716" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:14">
       <c r="A716" s="1">
         <v>715</v>
       </c>
@@ -37698,7 +37708,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="717" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:14">
       <c r="A717" s="1">
         <v>716</v>
       </c>
@@ -37742,7 +37752,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="718" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:14">
       <c r="A718" s="1">
         <v>717</v>
       </c>
@@ -37786,7 +37796,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="719" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:14">
       <c r="A719" s="1">
         <v>718</v>
       </c>
@@ -37830,7 +37840,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="720" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:14">
       <c r="A720" s="1">
         <v>719</v>
       </c>
@@ -37872,7 +37882,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="721" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:14">
       <c r="A721" s="1">
         <v>720</v>
       </c>
@@ -37914,7 +37924,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="722" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:14">
       <c r="A722" s="1">
         <v>721</v>
       </c>
@@ -37953,7 +37963,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="723" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:14">
       <c r="A723" s="1">
         <v>722</v>
       </c>
@@ -37995,7 +38005,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="724" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:14">
       <c r="A724" s="1">
         <v>723</v>
       </c>
@@ -38039,7 +38049,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="725" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:14">
       <c r="A725" s="1">
         <v>724</v>
       </c>
@@ -38083,7 +38093,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="726" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:14">
       <c r="A726" s="1">
         <v>725</v>
       </c>
@@ -38127,7 +38137,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="727" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:14">
       <c r="A727" s="1">
         <v>726</v>
       </c>
@@ -38171,7 +38181,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="728" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:14">
       <c r="A728" s="1">
         <v>727</v>
       </c>
@@ -38215,7 +38225,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="729" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:14">
       <c r="A729" s="1">
         <v>728</v>
       </c>
@@ -38259,7 +38269,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="730" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:14">
       <c r="A730" s="1">
         <v>729</v>
       </c>
@@ -38303,7 +38313,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="731" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:14">
       <c r="A731" s="1">
         <v>730</v>
       </c>
@@ -38347,7 +38357,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="732" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:14">
       <c r="A732" s="1">
         <v>731</v>
       </c>
@@ -38391,7 +38401,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="733" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:14">
       <c r="A733" s="1">
         <v>732</v>
       </c>
@@ -38435,7 +38445,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="734" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:14">
       <c r="A734" s="1">
         <v>733</v>
       </c>
@@ -38479,7 +38489,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="735" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:14">
       <c r="A735" s="1">
         <v>734</v>
       </c>
@@ -38523,7 +38533,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="736" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:14">
       <c r="A736" s="1">
         <v>735</v>
       </c>
@@ -38567,7 +38577,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="737" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:14">
       <c r="A737" s="1">
         <v>736</v>
       </c>
@@ -38612,7 +38622,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="738" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:14">
       <c r="A738" s="1">
         <v>737</v>
       </c>
@@ -38657,7 +38667,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="739" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:14">
       <c r="A739" s="1">
         <v>738</v>
       </c>
@@ -38702,7 +38712,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="740" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:14">
       <c r="A740" s="1">
         <v>739</v>
       </c>
@@ -38747,7 +38757,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="741" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:14">
       <c r="A741" s="1">
         <v>740</v>
       </c>
@@ -38792,7 +38802,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="742" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:14">
       <c r="A742" s="1">
         <v>741</v>
       </c>
@@ -38837,7 +38847,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="743" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:14">
       <c r="A743" s="1">
         <v>742</v>
       </c>
@@ -38882,7 +38892,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="744" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:14">
       <c r="A744" s="1">
         <v>743</v>
       </c>
@@ -38927,7 +38937,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="745" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:14">
       <c r="A745" s="1">
         <v>744</v>
       </c>
@@ -38972,7 +38982,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="746" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:14">
       <c r="A746" s="1">
         <v>745</v>
       </c>
@@ -39017,7 +39027,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="747" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:14">
       <c r="A747" s="1">
         <v>746</v>
       </c>
@@ -39062,7 +39072,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="748" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:14">
       <c r="A748" s="1">
         <v>747</v>
       </c>
@@ -39107,7 +39117,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="749" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:14">
       <c r="A749" s="1">
         <v>748</v>
       </c>
@@ -39152,7 +39162,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="750" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:14">
       <c r="A750" s="1">
         <v>749</v>
       </c>
@@ -39197,7 +39207,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="751" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:14">
       <c r="A751" s="1">
         <v>750</v>
       </c>
@@ -39242,7 +39252,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="752" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:14">
       <c r="A752" s="1">
         <v>751</v>
       </c>
@@ -39287,7 +39297,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="753" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:14">
       <c r="A753" s="1">
         <v>752</v>
       </c>
@@ -39332,7 +39342,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="754" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:14">
       <c r="A754" s="1">
         <v>753</v>
       </c>
@@ -39377,7 +39387,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="755" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:14">
       <c r="A755" s="1">
         <v>754</v>
       </c>
@@ -39422,7 +39432,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="756" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:14">
       <c r="A756" s="1">
         <v>755</v>
       </c>
@@ -39467,7 +39477,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="757" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:14">
       <c r="A757" s="1">
         <v>756</v>
       </c>
@@ -39512,7 +39522,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="758" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:14">
       <c r="A758" s="1">
         <v>757</v>
       </c>
@@ -39557,7 +39567,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="759" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:14">
       <c r="A759" s="1">
         <v>758</v>
       </c>
@@ -39602,7 +39612,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="760" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:14">
       <c r="A760" s="1">
         <v>759</v>
       </c>
@@ -39647,7 +39657,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="761" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:14">
       <c r="A761" s="1">
         <v>760</v>
       </c>
@@ -39692,7 +39702,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="762" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:14">
       <c r="A762" s="1">
         <v>761</v>
       </c>
@@ -39737,7 +39747,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="763" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:14">
       <c r="A763" s="1">
         <v>762</v>
       </c>
@@ -39782,7 +39792,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="764" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:14">
       <c r="A764" s="1">
         <v>763</v>
       </c>
@@ -39827,7 +39837,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="765" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:14">
       <c r="A765" s="1">
         <v>764</v>
       </c>
@@ -39872,7 +39882,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="766" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:14">
       <c r="A766" s="1">
         <v>765</v>
       </c>
@@ -39917,7 +39927,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="767" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:14">
       <c r="A767" s="1">
         <v>766</v>
       </c>
@@ -39962,7 +39972,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="768" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:14">
       <c r="A768" s="1">
         <v>767</v>
       </c>
@@ -40007,7 +40017,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="769" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:14">
       <c r="A769" s="1">
         <v>768</v>
       </c>
@@ -40052,7 +40062,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:14">
       <c r="A770" s="1">
         <v>769</v>
       </c>
@@ -40097,7 +40107,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:14">
       <c r="A771" s="1">
         <v>770</v>
       </c>
@@ -40142,7 +40152,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:14">
       <c r="A772" s="1">
         <v>771</v>
       </c>
@@ -40187,7 +40197,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:14">
       <c r="A773" s="1">
         <v>772</v>
       </c>
@@ -40232,7 +40242,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="774" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:14">
       <c r="A774" s="1">
         <v>773</v>
       </c>
@@ -40277,7 +40287,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:14">
       <c r="A775" s="1">
         <v>774</v>
       </c>
@@ -40322,7 +40332,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:14">
       <c r="A776" s="1">
         <v>775</v>
       </c>
@@ -40367,7 +40377,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:14">
       <c r="A777" s="1">
         <v>776</v>
       </c>
@@ -40412,7 +40422,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:14">
       <c r="A778" s="1">
         <v>777</v>
       </c>
@@ -40457,7 +40467,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:14">
       <c r="A779" s="1">
         <v>778</v>
       </c>
@@ -40502,7 +40512,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:14">
       <c r="A780" s="1">
         <v>779</v>
       </c>
@@ -40547,7 +40557,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="781" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:14">
       <c r="A781" s="1">
         <v>780</v>
       </c>
@@ -40592,7 +40602,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="782" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:14">
       <c r="A782" s="1">
         <v>781</v>
       </c>
@@ -40637,7 +40647,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="783" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:14">
       <c r="A783" s="1">
         <v>782</v>
       </c>
@@ -40682,7 +40692,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="784" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:14">
       <c r="A784" s="1">
         <v>783</v>
       </c>
@@ -40727,7 +40737,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:14">
       <c r="A785" s="1">
         <v>784</v>
       </c>
@@ -40772,7 +40782,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="786" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:14">
       <c r="A786" s="1">
         <v>785</v>
       </c>
@@ -40817,7 +40827,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="787" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:14">
       <c r="A787" s="1">
         <v>786</v>
       </c>
@@ -40862,7 +40872,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="788" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:14">
       <c r="A788" s="1">
         <v>787</v>
       </c>
@@ -40907,7 +40917,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="789" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:14">
       <c r="A789" s="1">
         <v>788</v>
       </c>
@@ -40952,7 +40962,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="790" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:14">
       <c r="A790" s="1">
         <v>789</v>
       </c>
@@ -40997,7 +41007,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="791" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:14">
       <c r="A791" s="1">
         <v>790</v>
       </c>
@@ -41042,7 +41052,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="792" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:14">
       <c r="A792" s="1">
         <v>791</v>
       </c>
@@ -41087,7 +41097,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="793" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:14">
       <c r="A793" s="1">
         <v>792</v>
       </c>
@@ -41132,7 +41142,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="794" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:14">
       <c r="A794" s="1">
         <v>793</v>
       </c>
@@ -41177,7 +41187,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="795" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:14">
       <c r="A795" s="1">
         <v>794</v>
       </c>
@@ -41222,7 +41232,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:14">
       <c r="A796" s="1">
         <v>795</v>
       </c>
@@ -41267,7 +41277,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:14">
       <c r="A797" s="1">
         <v>796</v>
       </c>
@@ -41312,7 +41322,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="798" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:14">
       <c r="A798" s="1">
         <v>797</v>
       </c>
@@ -41357,7 +41367,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="799" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:14">
       <c r="A799" s="1">
         <v>798</v>
       </c>
@@ -41402,7 +41412,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="800" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:14">
       <c r="A800" s="1">
         <v>799</v>
       </c>
@@ -41447,7 +41457,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="801" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:14">
       <c r="A801" s="1">
         <v>800</v>
       </c>
@@ -41491,7 +41501,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="802" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:14">
       <c r="A802" s="1">
         <v>801</v>
       </c>
@@ -41535,7 +41545,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="803" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:14">
       <c r="A803" s="1">
         <v>802</v>
       </c>
@@ -41579,7 +41589,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="804" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:14">
       <c r="A804" s="1">
         <v>803</v>
       </c>
@@ -41623,7 +41633,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="805" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:14">
       <c r="A805" s="1">
         <v>804</v>
       </c>
@@ -41667,7 +41677,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="806" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:14">
       <c r="A806" s="1">
         <v>805</v>
       </c>
@@ -41711,7 +41721,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="807" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:14">
       <c r="A807" s="1">
         <v>806</v>
       </c>
@@ -41755,7 +41765,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="808" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:14">
       <c r="A808" s="1">
         <v>807</v>
       </c>
@@ -41799,7 +41809,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="809" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:14">
       <c r="A809" s="1">
         <v>808</v>
       </c>
@@ -41843,7 +41853,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="810" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:14">
       <c r="A810" s="1">
         <v>809</v>
       </c>
@@ -41887,7 +41897,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="811" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:14">
       <c r="A811" s="1">
         <v>810</v>
       </c>
@@ -41931,7 +41941,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="812" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:14">
       <c r="A812" s="1">
         <v>811</v>
       </c>
@@ -41975,7 +41985,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="813" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:14">
       <c r="A813" s="1">
         <v>812</v>
       </c>
@@ -42019,7 +42029,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="814" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:14">
       <c r="A814" s="1">
         <v>813</v>
       </c>
@@ -42063,7 +42073,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="815" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:14">
       <c r="A815" s="1">
         <v>814</v>
       </c>
@@ -42107,7 +42117,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="816" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:14">
       <c r="A816" s="1">
         <v>815</v>
       </c>
@@ -42151,7 +42161,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="817" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:14">
       <c r="A817" s="1">
         <v>816</v>
       </c>
@@ -42195,7 +42205,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="818" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:14">
       <c r="A818" s="1">
         <v>817</v>
       </c>
@@ -42239,7 +42249,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="819" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:14">
       <c r="A819" s="1">
         <v>818</v>
       </c>
@@ -42283,7 +42293,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="820" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:14">
       <c r="A820" s="1">
         <v>819</v>
       </c>
@@ -42327,7 +42337,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="821" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:14">
       <c r="A821" s="1">
         <v>820</v>
       </c>
@@ -42371,7 +42381,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="822" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:14">
       <c r="A822" s="1">
         <v>821</v>
       </c>
@@ -42415,7 +42425,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="823" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:14">
       <c r="A823" s="1">
         <v>822</v>
       </c>
@@ -42459,7 +42469,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="824" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:14">
       <c r="A824" s="1">
         <v>823</v>
       </c>
@@ -42503,7 +42513,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="825" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:14">
       <c r="A825" s="1">
         <v>824</v>
       </c>
@@ -42547,7 +42557,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="826" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:14">
       <c r="A826" s="1">
         <v>825</v>
       </c>
@@ -42591,7 +42601,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="827" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:14">
       <c r="A827" s="1">
         <v>826</v>
       </c>
@@ -42635,7 +42645,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="828" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:14">
       <c r="A828" s="1">
         <v>827</v>
       </c>
@@ -42679,7 +42689,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="829" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:14">
       <c r="A829" s="1">
         <v>828</v>
       </c>
@@ -42723,7 +42733,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="830" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:14">
       <c r="A830" s="1">
         <v>829</v>
       </c>
@@ -42767,7 +42777,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="831" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:14">
       <c r="A831" s="1">
         <v>830</v>
       </c>
@@ -42811,7 +42821,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="832" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:14">
       <c r="A832" s="1">
         <v>831</v>
       </c>
@@ -42855,7 +42865,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="833" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:14">
       <c r="A833" s="1">
         <v>832</v>
       </c>
@@ -42899,7 +42909,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="834" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:14">
       <c r="A834" s="1">
         <v>833</v>
       </c>
@@ -42943,7 +42953,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="835" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:14">
       <c r="A835" s="1">
         <v>834</v>
       </c>
@@ -42987,7 +42997,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="836" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:14">
       <c r="A836" s="1">
         <v>835</v>
       </c>
@@ -43031,7 +43041,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="837" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:14">
       <c r="A837" s="1">
         <v>836</v>
       </c>
@@ -43075,7 +43085,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="838" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:14">
       <c r="A838" s="1">
         <v>837</v>
       </c>
@@ -43119,7 +43129,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="839" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:14">
       <c r="A839" s="1">
         <v>838</v>
       </c>
@@ -43163,7 +43173,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="840" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:14">
       <c r="A840" s="1">
         <v>839</v>
       </c>
@@ -43207,7 +43217,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="841" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:14">
       <c r="A841" s="1">
         <v>840</v>
       </c>
@@ -43251,7 +43261,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="842" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:14">
       <c r="A842" s="1">
         <v>841</v>
       </c>
@@ -43295,7 +43305,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="843" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:14">
       <c r="A843" s="1">
         <v>842</v>
       </c>
@@ -43339,7 +43349,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="844" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:14">
       <c r="A844" s="1">
         <v>843</v>
       </c>
@@ -43383,7 +43393,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="845" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:14">
       <c r="A845" s="1">
         <v>844</v>
       </c>
@@ -43427,7 +43437,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="846" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:14">
       <c r="A846" s="1">
         <v>845</v>
       </c>
@@ -43471,7 +43481,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="847" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:14">
       <c r="A847" s="1">
         <v>846</v>
       </c>
@@ -43515,7 +43525,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="848" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:14">
       <c r="A848" s="1">
         <v>847</v>
       </c>
@@ -43559,7 +43569,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="849" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:14">
       <c r="A849" s="1">
         <v>848</v>
       </c>
@@ -43603,7 +43613,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="850" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:14">
       <c r="A850" s="1">
         <v>849</v>
       </c>
@@ -43647,7 +43657,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="851" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:14">
       <c r="A851" s="1">
         <v>850</v>
       </c>
@@ -43691,7 +43701,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="852" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:14">
       <c r="A852" s="1">
         <v>851</v>
       </c>
@@ -43735,7 +43745,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="853" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:14">
       <c r="A853" s="1">
         <v>852</v>
       </c>
@@ -43780,7 +43790,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="854" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:14">
       <c r="A854" s="1">
         <v>853</v>
       </c>
@@ -43825,7 +43835,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="855" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:14">
       <c r="A855" s="1">
         <v>854</v>
       </c>
@@ -43870,7 +43880,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="856" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:14">
       <c r="A856" s="1">
         <v>855</v>
       </c>
@@ -43915,7 +43925,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="857" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:14">
       <c r="A857" s="1">
         <v>856</v>
       </c>
@@ -43960,7 +43970,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="858" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:14">
       <c r="A858" s="1">
         <v>857</v>
       </c>
@@ -44005,7 +44015,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="859" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:14">
       <c r="A859" s="1">
         <v>858</v>
       </c>
@@ -44050,7 +44060,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="860" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:14">
       <c r="A860" s="1">
         <v>859</v>
       </c>
@@ -44095,7 +44105,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="861" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:14">
       <c r="A861" s="1">
         <v>860</v>
       </c>
@@ -44140,7 +44150,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="862" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:14">
       <c r="A862" s="1">
         <v>861</v>
       </c>
@@ -44185,7 +44195,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="863" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:14">
       <c r="A863" s="1">
         <v>862</v>
       </c>
@@ -44230,7 +44240,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="864" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:14">
       <c r="A864" s="1">
         <v>863</v>
       </c>
@@ -44275,7 +44285,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="865" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:14">
       <c r="A865" s="1">
         <v>864</v>
       </c>
@@ -44320,7 +44330,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="866" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:14">
       <c r="A866" s="1">
         <v>865</v>
       </c>
@@ -44365,7 +44375,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="867" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:14">
       <c r="A867" s="1">
         <v>866</v>
       </c>
@@ -44410,7 +44420,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="868" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:14">
       <c r="A868" s="1">
         <v>867</v>
       </c>
@@ -44455,7 +44465,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="869" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:14">
       <c r="A869" s="1">
         <v>868</v>
       </c>
@@ -44500,7 +44510,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="870" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:14">
       <c r="A870" s="1">
         <v>869</v>
       </c>
@@ -44545,7 +44555,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="871" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:14">
       <c r="A871" s="1">
         <v>870</v>
       </c>
@@ -44590,7 +44600,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="872" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:14">
       <c r="A872" s="1">
         <v>871</v>
       </c>
@@ -44635,7 +44645,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="873" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:14">
       <c r="A873" s="1">
         <v>872</v>
       </c>
@@ -44680,7 +44690,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="874" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:14">
       <c r="A874" s="1">
         <v>873</v>
       </c>
@@ -44725,7 +44735,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="875" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:14">
       <c r="A875" s="1">
         <v>874</v>
       </c>
@@ -44770,7 +44780,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="876" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:14">
       <c r="A876" s="1">
         <v>875</v>
       </c>
@@ -44815,7 +44825,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="877" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:14">
       <c r="A877" s="1">
         <v>876</v>
       </c>
@@ -44860,7 +44870,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="878" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:14">
       <c r="A878" s="1">
         <v>877</v>
       </c>
@@ -44905,7 +44915,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="879" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:14">
       <c r="A879" s="1">
         <v>878</v>
       </c>
@@ -44950,7 +44960,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="880" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:14">
       <c r="A880" s="1">
         <v>879</v>
       </c>
@@ -44995,7 +45005,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="881" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:14">
       <c r="A881" s="1">
         <v>880</v>
       </c>
@@ -45040,7 +45050,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="882" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:14">
       <c r="A882" s="1">
         <v>881</v>
       </c>
@@ -45085,7 +45095,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="883" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:14">
       <c r="A883" s="1">
         <v>882</v>
       </c>
@@ -45130,7 +45140,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="884" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:14">
       <c r="A884" s="1">
         <v>883</v>
       </c>
@@ -45175,7 +45185,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="885" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:14">
       <c r="A885" s="1">
         <v>884</v>
       </c>
@@ -45220,7 +45230,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="886" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:14">
       <c r="A886" s="1">
         <v>885</v>
       </c>
@@ -45265,7 +45275,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="887" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:14">
       <c r="A887" s="1">
         <v>886</v>
       </c>
@@ -45310,7 +45320,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="888" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:14">
       <c r="A888" s="1">
         <v>887</v>
       </c>
@@ -45355,7 +45365,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="889" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:14">
       <c r="A889" s="1">
         <v>888</v>
       </c>
@@ -45400,7 +45410,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="890" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:14">
       <c r="A890" s="1">
         <v>889</v>
       </c>
@@ -45445,7 +45455,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="891" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:14">
       <c r="A891" s="1">
         <v>890</v>
       </c>
@@ -45490,7 +45500,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="892" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:14">
       <c r="A892" s="1">
         <v>891</v>
       </c>
@@ -45535,7 +45545,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="893" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:14">
       <c r="A893" s="1">
         <v>892</v>
       </c>
@@ -45580,7 +45590,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="894" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:14">
       <c r="A894" s="1">
         <v>893</v>
       </c>
@@ -45625,7 +45635,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="895" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:14">
       <c r="A895" s="1">
         <v>894</v>
       </c>
@@ -45670,7 +45680,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="896" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:14">
       <c r="A896" s="1">
         <v>895</v>
       </c>
@@ -45715,7 +45725,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="897" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:14">
       <c r="A897" s="1">
         <v>896</v>
       </c>
@@ -45760,7 +45770,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="898" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:14">
       <c r="A898" s="1">
         <v>897</v>
       </c>
@@ -45805,7 +45815,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="899" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:14">
       <c r="A899" s="1">
         <v>898</v>
       </c>
@@ -45850,7 +45860,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="900" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:14">
       <c r="A900" s="1">
         <v>899</v>
       </c>
@@ -45895,7 +45905,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="901" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:14">
       <c r="A901" s="1">
         <v>900</v>
       </c>
@@ -45940,7 +45950,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="902" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:14">
       <c r="A902" s="1">
         <v>901</v>
       </c>
@@ -45985,7 +45995,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="903" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:14">
       <c r="A903" s="1">
         <v>902</v>
       </c>
@@ -46030,7 +46040,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="904" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:14">
       <c r="A904" s="1">
         <v>903</v>
       </c>
@@ -46075,7 +46085,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="905" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:14">
       <c r="A905" s="1">
         <v>904</v>
       </c>
@@ -46120,7 +46130,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="906" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:14">
       <c r="A906" s="1">
         <v>905</v>
       </c>
@@ -46165,7 +46175,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="907" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:14">
       <c r="A907" s="1">
         <v>906</v>
       </c>
@@ -46210,7 +46220,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="908" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:14">
       <c r="A908" s="1">
         <v>907</v>
       </c>
@@ -46255,7 +46265,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="909" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:14">
       <c r="A909" s="1">
         <v>908</v>
       </c>
@@ -46300,7 +46310,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="910" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:14">
       <c r="A910" s="1">
         <v>909</v>
       </c>
@@ -46345,7 +46355,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="911" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:14">
       <c r="A911" s="1">
         <v>910</v>
       </c>
@@ -46390,7 +46400,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="912" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:14">
       <c r="A912" s="1">
         <v>911</v>
       </c>
@@ -46435,7 +46445,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="913" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:14">
       <c r="A913" s="1">
         <v>912</v>
       </c>
@@ -46480,7 +46490,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="914" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:14">
       <c r="A914" s="1">
         <v>913</v>
       </c>
@@ -46525,7 +46535,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="915" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:14">
       <c r="A915" s="1">
         <v>914</v>
       </c>
@@ -46570,7 +46580,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="916" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:14">
       <c r="A916" s="1">
         <v>915</v>
       </c>
@@ -46615,7 +46625,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="917" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:14">
       <c r="A917" s="1">
         <v>916</v>
       </c>
@@ -46660,7 +46670,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="918" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:14">
       <c r="A918" s="1">
         <v>917</v>
       </c>
@@ -46705,7 +46715,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="919" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:14">
       <c r="A919" s="1">
         <v>918</v>
       </c>
@@ -46750,7 +46760,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="920" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:14">
       <c r="A920" s="1">
         <v>919</v>
       </c>
@@ -46795,7 +46805,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="921" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:14">
       <c r="A921" s="1">
         <v>920</v>
       </c>
@@ -46840,7 +46850,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="922" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:14">
       <c r="A922" s="1">
         <v>921</v>
       </c>
@@ -46885,7 +46895,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="923" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:14">
       <c r="A923" s="1">
         <v>922</v>
       </c>
@@ -46930,7 +46940,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="924" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:14">
       <c r="A924" s="1">
         <v>923</v>
       </c>
@@ -46975,7 +46985,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="925" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:14">
       <c r="A925" s="1">
         <v>924</v>
       </c>
@@ -47020,7 +47030,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="926" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:14">
       <c r="A926" s="1">
         <v>925</v>
       </c>
@@ -47065,7 +47075,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="927" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:14">
       <c r="A927" s="1">
         <v>926</v>
       </c>
@@ -47110,7 +47120,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="928" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:14">
       <c r="A928" s="1">
         <v>927</v>
       </c>
@@ -47155,7 +47165,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="929" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:14">
       <c r="A929" s="1">
         <v>928</v>
       </c>
@@ -47200,7 +47210,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="930" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:14">
       <c r="A930" s="1">
         <v>929</v>
       </c>
@@ -47245,7 +47255,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="931" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:14">
       <c r="A931" s="1">
         <v>930</v>
       </c>
@@ -47290,7 +47300,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="932" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:14">
       <c r="A932" s="1">
         <v>931</v>
       </c>
@@ -47335,7 +47345,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="933" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:14">
       <c r="A933" s="1">
         <v>932</v>
       </c>
@@ -47380,7 +47390,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="934" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:14">
       <c r="A934" s="1">
         <v>933</v>
       </c>
@@ -47425,7 +47435,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="935" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:14">
       <c r="A935" s="1">
         <v>934</v>
       </c>
@@ -47470,7 +47480,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="936" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:14">
       <c r="A936" s="1">
         <v>935</v>
       </c>
@@ -47515,7 +47525,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="937" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:14">
       <c r="A937" s="1">
         <v>936</v>
       </c>
@@ -47560,7 +47570,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="938" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:14">
       <c r="A938" s="1">
         <v>937</v>
       </c>
@@ -47605,7 +47615,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="939" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:14">
       <c r="A939" s="1">
         <v>938</v>
       </c>
@@ -47650,7 +47660,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="940" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:14">
       <c r="A940" s="1">
         <v>939</v>
       </c>
@@ -47695,7 +47705,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="941" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:14">
       <c r="A941" s="1">
         <v>940</v>
       </c>
@@ -47740,7 +47750,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="942" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:14">
       <c r="A942" s="1">
         <v>941</v>
       </c>
@@ -47785,7 +47795,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="943" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:14">
       <c r="A943" s="1">
         <v>942</v>
       </c>
@@ -47830,7 +47840,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="944" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:14">
       <c r="A944" s="1">
         <v>943</v>
       </c>
@@ -47875,7 +47885,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="945" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:14">
       <c r="A945" s="1">
         <v>944</v>
       </c>
@@ -47920,7 +47930,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="946" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:14">
       <c r="A946" s="1">
         <v>945</v>
       </c>
@@ -47965,7 +47975,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="947" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:14">
       <c r="A947" s="1">
         <v>946</v>
       </c>
@@ -48010,7 +48020,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="948" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:14">
       <c r="A948" s="1">
         <v>947</v>
       </c>
@@ -48055,7 +48065,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="949" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:14">
       <c r="A949" s="1">
         <v>948</v>
       </c>
@@ -48100,7 +48110,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="950" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:14">
       <c r="A950" s="1">
         <v>949</v>
       </c>
@@ -48145,7 +48155,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="951" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:14">
       <c r="A951" s="1">
         <v>950</v>
       </c>
@@ -48190,7 +48200,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="952" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:14">
       <c r="A952" s="1">
         <v>951</v>
       </c>
@@ -48235,7 +48245,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="953" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:14">
       <c r="A953" s="1">
         <v>952</v>
       </c>
@@ -48280,7 +48290,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="954" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:14">
       <c r="A954" s="1">
         <v>953</v>
       </c>
@@ -48325,7 +48335,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="955" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:14">
       <c r="A955" s="1">
         <v>954</v>
       </c>
@@ -48370,7 +48380,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="956" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:14">
       <c r="A956" s="1">
         <v>955</v>
       </c>
@@ -48415,7 +48425,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="957" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:14">
       <c r="A957" s="1">
         <v>956</v>
       </c>
@@ -48460,7 +48470,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="958" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:14">
       <c r="A958" s="1">
         <v>957</v>
       </c>
@@ -48504,7 +48514,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="959" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:14">
       <c r="A959" s="1">
         <v>958</v>
       </c>
@@ -48548,7 +48558,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="960" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:14">
       <c r="A960" s="1">
         <v>959</v>
       </c>
@@ -48592,7 +48602,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="961" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:14">
       <c r="A961" s="1">
         <v>960</v>
       </c>
@@ -48636,7 +48646,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="962" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:14">
       <c r="A962" s="1">
         <v>961</v>
       </c>
@@ -48680,7 +48690,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="963" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:14">
       <c r="A963" s="1">
         <v>962</v>
       </c>
@@ -48724,7 +48734,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="964" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:14">
       <c r="A964" s="1">
         <v>963</v>
       </c>
@@ -48768,7 +48778,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="965" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:14">
       <c r="A965" s="1">
         <v>964</v>
       </c>
@@ -48812,7 +48822,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="966" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:14">
       <c r="A966" s="1">
         <v>965</v>
       </c>
@@ -48856,7 +48866,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="967" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:14">
       <c r="A967" s="1">
         <v>966</v>
       </c>
@@ -48900,7 +48910,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="968" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:14">
       <c r="A968" s="1">
         <v>967</v>
       </c>
@@ -48944,7 +48954,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="969" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:14">
       <c r="A969" s="1">
         <v>968</v>
       </c>
@@ -48988,7 +48998,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="970" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:14">
       <c r="A970" s="1">
         <v>969</v>
       </c>
@@ -49032,7 +49042,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="971" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:14">
       <c r="A971" s="1">
         <v>970</v>
       </c>
@@ -49076,7 +49086,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="972" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:14">
       <c r="A972" s="1">
         <v>971</v>
       </c>
@@ -49120,7 +49130,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="973" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:14">
       <c r="A973" s="1">
         <v>972</v>
       </c>
@@ -49164,7 +49174,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="974" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:14">
       <c r="A974" s="1">
         <v>973</v>
       </c>
@@ -49208,7 +49218,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="975" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:14">
       <c r="A975" s="1">
         <v>974</v>
       </c>
@@ -49252,7 +49262,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="976" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:14">
       <c r="A976" s="1">
         <v>975</v>
       </c>
@@ -49296,7 +49306,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="977" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:14">
       <c r="A977" s="1">
         <v>976</v>
       </c>
@@ -49340,7 +49350,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="978" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:14">
       <c r="A978" s="1">
         <v>977</v>
       </c>
@@ -49384,7 +49394,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="979" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:14" s="1" customFormat="1">
       <c r="A979" s="1">
         <v>978</v>
       </c>
@@ -49428,7 +49438,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="980" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:14">
       <c r="A980" s="1">
         <v>979</v>
       </c>
@@ -49472,7 +49482,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="981" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:14">
       <c r="A981" s="1">
         <v>980</v>
       </c>
@@ -49516,7 +49526,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="982" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:14">
       <c r="A982" s="1">
         <v>981</v>
       </c>
@@ -49560,7 +49570,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="983" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:14">
       <c r="A983" s="1">
         <v>982</v>
       </c>
@@ -49604,7 +49614,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="984" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:14">
       <c r="A984" s="1">
         <v>983</v>
       </c>
@@ -49648,7 +49658,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="985" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:14">
       <c r="A985" s="1">
         <v>984</v>
       </c>
@@ -49692,7 +49702,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="986" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:14">
       <c r="A986" s="1">
         <v>985</v>
       </c>
@@ -49734,6 +49744,138 @@
       </c>
       <c r="N986" s="41" t="s">
         <v>1282</v>
+      </c>
+    </row>
+    <row r="987" spans="1:14">
+      <c r="A987" s="1">
+        <v>986</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C987" s="38">
+        <v>42685</v>
+      </c>
+      <c r="D987" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E987" s="44">
+        <v>188</v>
+      </c>
+      <c r="F987" t="s">
+        <v>14</v>
+      </c>
+      <c r="G987">
+        <v>1</v>
+      </c>
+      <c r="H987" s="44">
+        <v>0</v>
+      </c>
+      <c r="I987" s="44">
+        <v>0</v>
+      </c>
+      <c r="J987" s="44">
+        <v>0</v>
+      </c>
+      <c r="K987" s="44">
+        <v>188</v>
+      </c>
+      <c r="L987" t="s">
+        <v>376</v>
+      </c>
+      <c r="M987" t="s">
+        <v>116</v>
+      </c>
+      <c r="N987" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="988" spans="1:14">
+      <c r="A988" s="1">
+        <v>987</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C988" s="38">
+        <v>42685</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E988" s="44">
+        <v>152</v>
+      </c>
+      <c r="F988" t="s">
+        <v>14</v>
+      </c>
+      <c r="G988">
+        <v>4</v>
+      </c>
+      <c r="H988" s="44">
+        <v>0</v>
+      </c>
+      <c r="I988" s="44">
+        <v>0</v>
+      </c>
+      <c r="J988" s="44">
+        <v>0</v>
+      </c>
+      <c r="K988" s="44">
+        <v>608</v>
+      </c>
+      <c r="L988" t="s">
+        <v>376</v>
+      </c>
+      <c r="M988" t="s">
+        <v>116</v>
+      </c>
+      <c r="N988" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="989" spans="1:14">
+      <c r="A989" s="1">
+        <v>988</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C989" s="38">
+        <v>42683</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E989" s="44">
+        <v>0.45</v>
+      </c>
+      <c r="F989" t="s">
+        <v>14</v>
+      </c>
+      <c r="G989">
+        <v>40</v>
+      </c>
+      <c r="H989" s="44">
+        <v>7</v>
+      </c>
+      <c r="I989" s="44">
+        <v>0</v>
+      </c>
+      <c r="J989" s="44">
+        <v>0</v>
+      </c>
+      <c r="K989" s="44">
+        <v>25</v>
+      </c>
+      <c r="L989" t="s">
+        <v>1323</v>
+      </c>
+      <c r="M989" t="s">
+        <v>116</v>
+      </c>
+      <c r="N989" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -49749,16 +49891,16 @@
   <conditionalFormatting sqref="B1">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B555 B557">
+  <conditionalFormatting sqref="B557 B555">
     <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
@@ -49779,9 +49921,9 @@
     </cfRule>
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -49812,9 +49954,9 @@
     </cfRule>
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -49842,9 +49984,9 @@
     </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -49872,9 +50014,9 @@
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -49902,9 +50044,9 @@
     </cfRule>
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -49932,9 +50074,9 @@
     </cfRule>
     <cfRule type="colorScale" priority="69">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -49942,29 +50084,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B979:B986">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -50046,16 +50188,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -50063,7 +50205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -50071,7 +50213,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -50079,7 +50221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>293</v>
       </c>

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soda\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -14,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$948</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5468" uniqueCount="1337">
   <si>
     <t>编号</t>
   </si>
@@ -5281,15 +5286,103 @@
   <si>
     <t>无</t>
   </si>
+  <si>
+    <t>赵杰</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电感电容表V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C6243+3000元发票</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电轨组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电轨组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>74HC14D、74HC86D、IR2104S</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/0.28/1.43</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/20/10</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5657,17 +5750,7 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill>
@@ -5997,8 +6080,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="headerRow" dxfId="44"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6345,15 +6428,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S989"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A969" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C993" sqref="C993"/>
+      <pane ySplit="1" topLeftCell="A942" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L992" sqref="L992"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="38" customWidth="1"/>
@@ -6369,7 +6452,7 @@
     <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6425,7 +6508,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6472,10 +6555,10 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>86825.184000000008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>87258.114000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6514,7 +6597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6556,7 +6639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25">
+    <row r="5" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6599,7 +6682,7 @@
       </c>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6641,7 +6724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6683,7 +6766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6725,7 +6808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6767,7 +6850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6811,7 +6894,7 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6855,7 +6938,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6897,7 +6980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6939,7 +7022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6981,7 +7064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7023,7 +7106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7065,7 +7148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7107,7 +7190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7149,7 +7232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7191,7 +7274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7233,7 +7316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1">
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7278,7 +7361,7 @@
       <c r="O21" s="3"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7322,7 +7405,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7364,7 +7447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7407,7 +7490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7450,7 +7533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7493,7 +7576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7536,7 +7619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7578,7 +7661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7620,7 +7703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7662,7 +7745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7704,7 +7787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7746,7 +7829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7788,7 +7871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7830,7 +7913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7872,7 +7955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7914,7 +7997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7956,7 +8039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7998,7 +8081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8040,7 +8123,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8082,7 +8165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8124,7 +8207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8166,7 +8249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8208,7 +8291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8250,7 +8333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8292,7 +8375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8337,7 +8420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8382,7 +8465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8427,7 +8510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8472,7 +8555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8517,7 +8600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8562,7 +8645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8607,7 +8690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8652,7 +8735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8697,7 +8780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8742,7 +8825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8787,7 +8870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8832,7 +8915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8877,7 +8960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8922,7 +9005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8967,7 +9050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -9012,7 +9095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9057,7 +9140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9099,7 +9182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -9144,7 +9227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9189,7 +9272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9234,7 +9317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9279,7 +9362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9324,7 +9407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9369,7 +9452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9412,7 +9495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9455,7 +9538,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9498,7 +9581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9541,7 +9624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9584,7 +9667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9627,7 +9710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9670,7 +9753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9713,7 +9796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9756,7 +9839,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -9799,7 +9882,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -9844,7 +9927,7 @@
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -9889,7 +9972,7 @@
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -9932,7 +10015,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -9975,7 +10058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10018,7 +10101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10061,7 +10144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10104,7 +10187,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10147,7 +10230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10190,7 +10273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10233,7 +10316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10276,7 +10359,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -10319,7 +10402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -10361,7 +10444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -10403,7 +10486,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -10445,7 +10528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -10487,7 +10570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -10529,7 +10612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10571,7 +10654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -10613,7 +10696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10658,7 +10741,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10703,7 +10786,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10748,7 +10831,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10793,7 +10876,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10838,7 +10921,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10883,7 +10966,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10925,7 +11008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10967,7 +11050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -11009,7 +11092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -11051,7 +11134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -11096,7 +11179,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11141,7 +11224,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11186,7 +11269,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11231,7 +11314,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11276,7 +11359,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11321,7 +11404,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11366,7 +11449,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11411,7 +11494,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11456,7 +11539,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11501,7 +11584,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11546,7 +11629,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11591,7 +11674,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11636,7 +11719,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11681,7 +11764,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11726,7 +11809,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11771,7 +11854,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11816,7 +11899,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11861,7 +11944,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -11906,7 +11989,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -11951,7 +12034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -11996,7 +12079,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12041,7 +12124,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12086,7 +12169,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12122,7 +12205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12167,7 +12250,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12212,7 +12295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12257,7 +12340,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12302,7 +12385,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12347,7 +12430,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12392,7 +12475,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12437,7 +12520,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -12482,7 +12565,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -12527,7 +12610,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -12572,7 +12655,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -12617,7 +12700,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -12662,7 +12745,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -12707,7 +12790,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -12752,7 +12835,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -12797,7 +12880,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -12842,7 +12925,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -12887,7 +12970,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -12932,7 +13015,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -12977,7 +13060,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13022,7 +13105,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -13067,7 +13150,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -13112,7 +13195,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="155" spans="1:18" s="29" customFormat="1">
+    <row r="155" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="29">
         <v>154</v>
       </c>
@@ -13158,7 +13241,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -13203,7 +13286,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -13248,7 +13331,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -13293,7 +13376,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -13338,7 +13421,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -13383,7 +13466,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -13428,7 +13511,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -13473,7 +13556,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -13518,7 +13601,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -13563,7 +13646,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -13608,7 +13691,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -13650,7 +13733,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -13692,7 +13775,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -13734,7 +13817,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -13776,7 +13859,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -13818,7 +13901,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -13860,7 +13943,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -13902,7 +13985,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -13944,7 +14027,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -13986,7 +14069,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -14028,7 +14111,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -14070,7 +14153,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -14112,7 +14195,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -14154,7 +14237,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -14196,7 +14279,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -14238,7 +14321,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -14284,7 +14367,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -14326,7 +14409,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -14369,7 +14452,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -14412,7 +14495,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -14455,7 +14538,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -14498,7 +14581,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -14541,7 +14624,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -14584,7 +14667,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -14628,7 +14711,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -14672,7 +14755,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="191" spans="1:18" s="29" customFormat="1">
+    <row r="191" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="29">
         <v>190</v>
       </c>
@@ -14715,7 +14798,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -14759,7 +14842,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -14803,7 +14886,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -14849,7 +14932,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -14895,7 +14978,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -14941,7 +15024,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -14987,7 +15070,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -15033,7 +15116,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -15079,7 +15162,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -15125,7 +15208,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -15171,7 +15254,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -15217,7 +15300,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -15263,7 +15346,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -15309,7 +15392,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -15355,7 +15438,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -15401,7 +15484,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -15447,7 +15530,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -15493,7 +15576,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="209" spans="1:18">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -15539,7 +15622,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="210" spans="1:18">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -15585,7 +15668,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -15631,7 +15714,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -15677,7 +15760,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -15723,7 +15806,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="214" spans="1:18">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -15769,7 +15852,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="215" spans="1:18">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -15817,7 +15900,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="216" spans="1:18">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -15863,7 +15946,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -15909,7 +15992,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -15955,7 +16038,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="219" spans="1:18">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -16001,7 +16084,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -16047,7 +16130,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -16093,7 +16176,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -16139,7 +16222,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -16185,7 +16268,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -16231,7 +16314,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -16277,7 +16360,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -16323,7 +16406,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -16369,7 +16452,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -16414,7 +16497,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -16456,7 +16539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:18">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -16498,7 +16581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:18">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -16540,7 +16623,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="232" spans="1:18">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -16582,7 +16665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:18">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -16622,7 +16705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -16664,7 +16747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -16708,7 +16791,7 @@
       </c>
       <c r="O235" s="11"/>
     </row>
-    <row r="236" spans="1:18">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -16751,7 +16834,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="237" spans="1:18">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -16796,7 +16879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -16838,7 +16921,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -16880,7 +16963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="240" spans="1:18">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -16922,7 +17005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -16964,7 +17047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -17006,7 +17089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -17048,7 +17131,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -17090,7 +17173,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -17132,7 +17215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -17174,7 +17257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -17216,7 +17299,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -17258,7 +17341,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -17300,7 +17383,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -17342,7 +17425,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -17384,7 +17467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -17426,7 +17509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -17468,7 +17551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -17510,7 +17593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -17552,7 +17635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -17594,7 +17677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -17636,7 +17719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -17680,7 +17763,7 @@
       </c>
       <c r="O258" s="11"/>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -17722,7 +17805,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -17764,7 +17847,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -17806,7 +17889,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -17848,7 +17931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -17890,7 +17973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -17932,7 +18015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -17974,7 +18057,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -18016,7 +18099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -18058,7 +18141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -18103,7 +18186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -18146,7 +18229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -18188,7 +18271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -18231,7 +18314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -18274,7 +18357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -18317,7 +18400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -18360,7 +18443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -18403,7 +18486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -18446,7 +18529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -18489,7 +18572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -18533,7 +18616,7 @@
       </c>
       <c r="O278" s="24"/>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -18576,7 +18659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -18619,7 +18702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -18662,7 +18745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -18705,7 +18788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -18748,7 +18831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -18791,7 +18874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -18834,7 +18917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -18877,7 +18960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -18920,7 +19003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -18964,7 +19047,7 @@
       </c>
       <c r="O288" s="15"/>
     </row>
-    <row r="289" spans="1:19">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -19008,7 +19091,7 @@
       </c>
       <c r="O289" s="15"/>
     </row>
-    <row r="290" spans="1:19">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -19052,7 +19135,7 @@
       </c>
       <c r="O290" s="15"/>
     </row>
-    <row r="291" spans="1:19" s="29" customFormat="1">
+    <row r="291" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -19100,7 +19183,7 @@
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
     </row>
-    <row r="292" spans="1:19" s="29" customFormat="1">
+    <row r="292" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -19148,7 +19231,7 @@
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
     </row>
-    <row r="293" spans="1:19">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -19192,7 +19275,7 @@
       </c>
       <c r="O293" s="24"/>
     </row>
-    <row r="294" spans="1:19">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -19240,7 +19323,7 @@
       <c r="R294" s="29"/>
       <c r="S294" s="29"/>
     </row>
-    <row r="295" spans="1:19">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -19288,7 +19371,7 @@
       <c r="R295" s="29"/>
       <c r="S295" s="29"/>
     </row>
-    <row r="296" spans="1:19">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -19332,7 +19415,7 @@
       </c>
       <c r="O296" s="15"/>
     </row>
-    <row r="297" spans="1:19">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -19375,7 +19458,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:19">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -19418,7 +19501,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:19">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -19461,7 +19544,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:19">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -19504,7 +19587,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="301" spans="1:19">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -19547,7 +19630,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="302" spans="1:19">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -19590,7 +19673,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="303" spans="1:19">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -19633,7 +19716,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="304" spans="1:19">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -19676,7 +19759,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -19719,7 +19802,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -19762,7 +19845,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -19805,7 +19888,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -19848,7 +19931,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -19891,7 +19974,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -19934,7 +20017,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -19977,7 +20060,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -20020,7 +20103,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -20063,7 +20146,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -20106,7 +20189,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -20149,7 +20232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -20192,7 +20275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -20235,7 +20318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -20278,7 +20361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -20321,7 +20404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -20364,7 +20447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:19">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -20407,7 +20490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:19">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -20450,7 +20533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:19">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -20493,7 +20576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:19">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -20536,7 +20619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:19">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -20579,7 +20662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:19">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -20622,7 +20705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:19">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -20665,7 +20748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:19">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -20708,7 +20791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:19">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -20751,7 +20834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:19">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -20794,7 +20877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:19">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -20837,7 +20920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:19">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -20880,7 +20963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:19">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -20924,7 +21007,7 @@
       </c>
       <c r="O333" s="15"/>
     </row>
-    <row r="334" spans="1:19" s="29" customFormat="1">
+    <row r="334" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -20972,7 +21055,7 @@
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
     </row>
-    <row r="335" spans="1:19">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -21015,7 +21098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:19">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -21058,7 +21141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="1:15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -21101,7 +21184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -21145,7 +21228,7 @@
       </c>
       <c r="O338" s="24"/>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -21188,7 +21271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -21231,7 +21314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -21274,7 +21357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="1:15" s="29" customFormat="1">
+    <row r="342" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -21318,7 +21401,7 @@
       </c>
       <c r="O342" s="26"/>
     </row>
-    <row r="343" spans="1:15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -21361,7 +21444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="1:15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -21406,7 +21489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="345" spans="1:15">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -21451,7 +21534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="346" spans="1:15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -21496,7 +21579,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -21541,7 +21624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="348" spans="1:15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -21584,7 +21667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -21627,7 +21710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -21670,7 +21753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -21713,7 +21796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -21756,7 +21839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:19">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -21804,7 +21887,7 @@
       <c r="R353" s="29"/>
       <c r="S353" s="29"/>
     </row>
-    <row r="354" spans="1:19">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -21849,7 +21932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="355" spans="1:19">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -21894,7 +21977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:19">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -21939,7 +22022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:19">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -21984,7 +22067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:19">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -22021,7 +22104,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="359" spans="1:19">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -22058,7 +22141,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="360" spans="1:19">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -22103,7 +22186,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="361" spans="1:19">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -22148,7 +22231,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="362" spans="1:19">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -22192,7 +22275,7 @@
       </c>
       <c r="O362" s="24"/>
     </row>
-    <row r="363" spans="1:19">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -22236,7 +22319,7 @@
       </c>
       <c r="O363" s="24"/>
     </row>
-    <row r="364" spans="1:19">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -22280,7 +22363,7 @@
       </c>
       <c r="O364" s="24"/>
     </row>
-    <row r="365" spans="1:19">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -22324,7 +22407,7 @@
       </c>
       <c r="O365" s="24"/>
     </row>
-    <row r="366" spans="1:19">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -22368,7 +22451,7 @@
       </c>
       <c r="O366" s="24"/>
     </row>
-    <row r="367" spans="1:19">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -22413,7 +22496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="368" spans="1:19">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -22450,7 +22533,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="369" spans="1:15" s="1" customFormat="1">
+    <row r="369" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -22492,7 +22575,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="370" spans="1:15" s="1" customFormat="1">
+    <row r="370" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -22534,7 +22617,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="371" spans="1:15" s="1" customFormat="1">
+    <row r="371" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -22576,7 +22659,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="372" spans="1:15" s="1" customFormat="1">
+    <row r="372" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -22618,7 +22701,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="373" spans="1:15" s="1" customFormat="1">
+    <row r="373" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -22660,7 +22743,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="374" spans="1:15" s="1" customFormat="1">
+    <row r="374" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -22702,7 +22785,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="375" spans="1:15" s="1" customFormat="1">
+    <row r="375" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -22744,7 +22827,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="376" spans="1:15" s="1" customFormat="1">
+    <row r="376" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -22786,7 +22869,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="377" spans="1:15">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -22830,7 +22913,7 @@
       </c>
       <c r="O377" s="24"/>
     </row>
-    <row r="378" spans="1:15">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -22873,7 +22956,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="379" spans="1:15">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -22917,7 +23000,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="380" spans="1:15">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -22960,7 +23043,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="381" spans="1:15">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -23003,7 +23086,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="382" spans="1:15">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -23046,7 +23129,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="383" spans="1:15">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -23089,7 +23172,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="384" spans="1:15">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -23132,7 +23215,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="385" spans="1:15">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -23175,7 +23258,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="386" spans="1:15">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -23218,7 +23301,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="387" spans="1:15">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -23261,7 +23344,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="388" spans="1:15">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -23304,7 +23387,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="389" spans="1:15">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -23346,7 +23429,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="390" spans="1:15">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -23383,7 +23466,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="391" spans="1:15">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -23420,7 +23503,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="392" spans="1:15">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -23465,7 +23548,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="393" spans="1:15">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -23507,7 +23590,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="394" spans="1:15">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -23549,7 +23632,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="395" spans="1:15">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -23591,7 +23674,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="396" spans="1:15">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -23633,7 +23716,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="397" spans="1:15">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -23675,7 +23758,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="398" spans="1:15">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -23720,7 +23803,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="399" spans="1:15">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -23764,7 +23847,7 @@
       </c>
       <c r="O399" s="24"/>
     </row>
-    <row r="400" spans="1:15">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -23806,7 +23889,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="401" spans="1:15">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -23849,7 +23932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="402" spans="1:15">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -23891,7 +23974,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="403" spans="1:15">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -23928,7 +24011,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="404" spans="1:15">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -23965,7 +24048,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="405" spans="1:15">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -24002,7 +24085,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="406" spans="1:15">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -24045,7 +24128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="407" spans="1:15">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -24088,7 +24171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="408" spans="1:15">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -24132,7 +24215,7 @@
       </c>
       <c r="O408" s="24"/>
     </row>
-    <row r="409" spans="1:15">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -24176,7 +24259,7 @@
       </c>
       <c r="O409" s="24"/>
     </row>
-    <row r="410" spans="1:15">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -24220,7 +24303,7 @@
       </c>
       <c r="O410" s="24"/>
     </row>
-    <row r="411" spans="1:15">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -24265,7 +24348,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="412" spans="1:15">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -24310,7 +24393,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="413" spans="1:15">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -24355,7 +24438,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="414" spans="1:15">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -24400,7 +24483,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="415" spans="1:15">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -24444,7 +24527,7 @@
       </c>
       <c r="O415" s="24"/>
     </row>
-    <row r="416" spans="1:15">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -24488,7 +24571,7 @@
       </c>
       <c r="O416" s="24"/>
     </row>
-    <row r="417" spans="1:15">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -24532,7 +24615,7 @@
       </c>
       <c r="O417" s="24"/>
     </row>
-    <row r="418" spans="1:15">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -24576,7 +24659,7 @@
       </c>
       <c r="O418" s="24"/>
     </row>
-    <row r="419" spans="1:15">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -24620,7 +24703,7 @@
       </c>
       <c r="O419" s="24"/>
     </row>
-    <row r="420" spans="1:15">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -24664,7 +24747,7 @@
       </c>
       <c r="O420" s="24"/>
     </row>
-    <row r="421" spans="1:15">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -24708,7 +24791,7 @@
       </c>
       <c r="O421" s="24"/>
     </row>
-    <row r="422" spans="1:15">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -24752,7 +24835,7 @@
       </c>
       <c r="O422" s="24"/>
     </row>
-    <row r="423" spans="1:15">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -24796,7 +24879,7 @@
       </c>
       <c r="O423" s="24"/>
     </row>
-    <row r="424" spans="1:15">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -24841,7 +24924,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="425" spans="1:15">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -24884,7 +24967,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="426" spans="1:15">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -24927,7 +25010,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="427" spans="1:15">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -24970,7 +25053,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="428" spans="1:15">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -25014,7 +25097,7 @@
       </c>
       <c r="O428" s="24"/>
     </row>
-    <row r="429" spans="1:15">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -25057,7 +25140,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="430" spans="1:15">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -25100,7 +25183,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="431" spans="1:15">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -25145,7 +25228,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="432" spans="1:15">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -25188,7 +25271,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="433" spans="1:15">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -25231,7 +25314,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="434" spans="1:15">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -25274,7 +25357,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="435" spans="1:15">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -25317,7 +25400,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="436" spans="1:15">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -25360,7 +25443,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="437" spans="1:15">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -25403,7 +25486,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="438" spans="1:15">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -25446,7 +25529,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="439" spans="1:15">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -25489,7 +25572,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="440" spans="1:15">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -25532,7 +25615,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="441" spans="1:15">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -25575,7 +25658,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="442" spans="1:15">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -25619,7 +25702,7 @@
       </c>
       <c r="O442" s="24"/>
     </row>
-    <row r="443" spans="1:15">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -25663,7 +25746,7 @@
       </c>
       <c r="O443" s="24"/>
     </row>
-    <row r="444" spans="1:15">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -25705,7 +25788,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="445" spans="1:15">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -25748,7 +25831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="446" spans="1:15">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -25790,7 +25873,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="447" spans="1:15">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -25832,7 +25915,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="448" spans="1:15">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -25874,7 +25957,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="449" spans="1:14">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -25916,7 +25999,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="450" spans="1:14">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -25958,7 +26041,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="451" spans="1:14">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -26000,7 +26083,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="452" spans="1:14">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -26042,7 +26125,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="453" spans="1:14">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -26084,7 +26167,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="454" spans="1:14">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -26129,7 +26212,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="455" spans="1:14">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -26174,7 +26257,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="456" spans="1:14">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -26216,7 +26299,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="457" spans="1:14">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -26258,7 +26341,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="458" spans="1:14">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -26300,7 +26383,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="459" spans="1:14">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -26342,7 +26425,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="460" spans="1:14">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -26384,7 +26467,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="461" spans="1:14">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -26426,7 +26509,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="462" spans="1:14">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -26468,7 +26551,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="463" spans="1:14">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -26513,7 +26596,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="464" spans="1:14">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -26558,7 +26641,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="465" spans="1:14">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -26600,7 +26683,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="466" spans="1:14">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -26642,7 +26725,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="467" spans="1:14">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -26684,7 +26767,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="468" spans="1:14">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -26726,7 +26809,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="469" spans="1:14">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -26768,7 +26851,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="470" spans="1:14">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -26810,7 +26893,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="471" spans="1:14">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -26852,7 +26935,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="472" spans="1:14">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -26894,7 +26977,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="473" spans="1:14">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -26937,7 +27020,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="474" spans="1:14">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -26982,7 +27065,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="475" spans="1:14">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -27027,7 +27110,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:14">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -27072,7 +27155,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:14">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -27117,7 +27200,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="478" spans="1:14">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -27159,7 +27242,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="479" spans="1:14">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -27201,7 +27284,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="480" spans="1:14">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -27243,7 +27326,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="481" spans="1:14">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -27288,7 +27371,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="482" spans="1:14">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -27333,7 +27416,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="483" spans="1:14">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -27378,7 +27461,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="484" spans="1:14">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -27421,7 +27504,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="485" spans="1:14">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -27464,7 +27547,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="486" spans="1:14">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -27507,7 +27590,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="487" spans="1:14">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -27550,7 +27633,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="488" spans="1:14">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -27593,7 +27676,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="489" spans="1:14">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -27636,7 +27719,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="490" spans="1:14">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -27677,7 +27760,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="491" spans="1:14">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -27722,7 +27805,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="492" spans="1:14">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -27767,7 +27850,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="493" spans="1:14">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -27812,7 +27895,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="494" spans="1:14">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -27857,7 +27940,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="495" spans="1:14">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -27902,7 +27985,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="496" spans="1:14">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -27947,7 +28030,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="497" spans="1:14">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -27990,7 +28073,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="498" spans="1:14">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -28033,7 +28116,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="499" spans="1:14">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -28076,7 +28159,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="500" spans="1:14">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -28119,7 +28202,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="501" spans="1:14">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -28162,7 +28245,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="502" spans="1:14">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -28205,7 +28288,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="503" spans="1:14">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -28248,7 +28331,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="504" spans="1:14">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -28291,7 +28374,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="505" spans="1:14">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -28334,7 +28417,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="506" spans="1:14">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -28377,7 +28460,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="507" spans="1:14">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -28420,7 +28503,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="508" spans="1:14">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -28463,7 +28546,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="509" spans="1:14">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -28506,7 +28589,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="510" spans="1:14">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -28549,7 +28632,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="511" spans="1:14">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -28592,7 +28675,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="512" spans="1:14">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -28635,7 +28718,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="513" spans="1:14">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -28678,7 +28761,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="514" spans="1:14">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -28721,7 +28804,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="515" spans="1:14">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -28764,7 +28847,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="516" spans="1:14">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -28807,7 +28890,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="517" spans="1:14">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -28850,7 +28933,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="518" spans="1:14">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -28893,7 +28976,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="519" spans="1:14">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -28936,7 +29019,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="520" spans="1:14">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -28979,7 +29062,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="521" spans="1:14">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -29022,7 +29105,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="522" spans="1:14">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -29065,7 +29148,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="523" spans="1:14">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -29106,7 +29189,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="524" spans="1:14">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -29149,7 +29232,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="525" spans="1:14">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -29192,7 +29275,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="526" spans="1:14">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -29233,7 +29316,7 @@
       </c>
       <c r="N526" s="1"/>
     </row>
-    <row r="527" spans="1:14">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -29275,7 +29358,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="528" spans="1:14">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -29320,7 +29403,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="529" spans="1:14">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -29365,7 +29448,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="530" spans="1:14">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -29410,7 +29493,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="531" spans="1:14">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -29452,7 +29535,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="532" spans="1:14">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -29494,7 +29577,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="533" spans="1:14">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -29536,7 +29619,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="534" spans="1:14">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -29576,7 +29659,7 @@
       </c>
       <c r="N534" s="1"/>
     </row>
-    <row r="535" spans="1:14">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -29618,7 +29701,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="536" spans="1:14">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -29660,7 +29743,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="537" spans="1:14">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -29705,7 +29788,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="538" spans="1:14">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -29746,7 +29829,7 @@
       </c>
       <c r="N538" s="1"/>
     </row>
-    <row r="539" spans="1:14">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -29787,7 +29870,7 @@
       </c>
       <c r="N539" s="1"/>
     </row>
-    <row r="540" spans="1:14">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -29830,7 +29913,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="541" spans="1:14">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -29873,7 +29956,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="542" spans="1:14">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -29916,7 +29999,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="543" spans="1:14">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -29959,7 +30042,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="544" spans="1:14">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -30002,7 +30085,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="545" spans="1:14">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -30045,7 +30128,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="546" spans="1:14">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -30088,7 +30171,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="547" spans="1:14">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -30131,7 +30214,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="548" spans="1:14">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -30174,7 +30257,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="549" spans="1:14">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -30217,7 +30300,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="550" spans="1:14">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -30260,7 +30343,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="551" spans="1:14">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -30303,7 +30386,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="552" spans="1:14">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -30346,7 +30429,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="553" spans="1:14">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -30391,7 +30474,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="554" spans="1:14">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -30436,7 +30519,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="555" spans="1:14">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -30481,7 +30564,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="556" spans="1:14">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -30526,7 +30609,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="557" spans="1:14">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -30571,7 +30654,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="558" spans="1:14">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -30616,7 +30699,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="559" spans="1:14">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -30661,7 +30744,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="560" spans="1:14">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -30706,7 +30789,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="561" spans="1:19">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -30757,7 +30840,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="562" spans="1:19">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -30808,7 +30891,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="563" spans="1:19">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -30859,7 +30942,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="564" spans="1:19">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -30910,7 +30993,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="565" spans="1:19" s="1" customFormat="1">
+    <row r="565" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -30950,7 +31033,7 @@
       </c>
       <c r="S565" s="43"/>
     </row>
-    <row r="566" spans="1:19">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -31001,7 +31084,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="567" spans="1:19">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -31052,7 +31135,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="568" spans="1:19">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -31097,7 +31180,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="569" spans="1:19">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -31142,7 +31225,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="570" spans="1:19">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -31187,7 +31270,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="571" spans="1:19">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -31232,7 +31315,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="572" spans="1:19">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -31277,7 +31360,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="573" spans="1:19">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -31322,7 +31405,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="574" spans="1:19">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -31367,7 +31450,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="575" spans="1:19">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -31412,7 +31495,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="576" spans="1:19">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -31457,7 +31540,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="577" spans="1:14">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -31502,7 +31585,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="578" spans="1:14">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -31547,7 +31630,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="579" spans="1:14">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -31592,7 +31675,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="580" spans="1:14">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -31637,7 +31720,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="581" spans="1:14">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -31682,7 +31765,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="582" spans="1:14">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -31727,7 +31810,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="583" spans="1:14">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -31772,7 +31855,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="584" spans="1:14">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -31817,7 +31900,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="585" spans="1:14">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -31862,7 +31945,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="586" spans="1:14">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -31907,7 +31990,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="587" spans="1:14">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -31952,7 +32035,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="588" spans="1:14">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -31997,7 +32080,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="589" spans="1:14">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -32042,7 +32125,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="590" spans="1:14">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -32087,7 +32170,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="591" spans="1:14">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -32132,7 +32215,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="592" spans="1:14">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -32177,7 +32260,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="593" spans="1:14">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -32222,7 +32305,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="594" spans="1:14">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -32267,7 +32350,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="595" spans="1:14">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -32312,7 +32395,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="596" spans="1:14">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -32357,7 +32440,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="597" spans="1:14">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -32402,7 +32485,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="598" spans="1:14">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -32447,7 +32530,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="599" spans="1:14">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -32492,7 +32575,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="600" spans="1:14">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -32537,7 +32620,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="601" spans="1:14">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -32582,7 +32665,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="602" spans="1:14">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -32627,7 +32710,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="603" spans="1:14">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -32672,7 +32755,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="604" spans="1:14">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A604" s="1">
         <v>603</v>
       </c>
@@ -32717,7 +32800,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="605" spans="1:14">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -32762,7 +32845,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="606" spans="1:14">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A606" s="1">
         <v>605</v>
       </c>
@@ -32807,7 +32890,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="607" spans="1:14">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A607" s="1">
         <v>606</v>
       </c>
@@ -32852,7 +32935,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="608" spans="1:14">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A608" s="1">
         <v>607</v>
       </c>
@@ -32897,7 +32980,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="609" spans="1:14">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A609" s="1">
         <v>608</v>
       </c>
@@ -32942,7 +33025,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="610" spans="1:14">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A610" s="1">
         <v>609</v>
       </c>
@@ -32987,7 +33070,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="611" spans="1:14">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A611" s="1">
         <v>610</v>
       </c>
@@ -33032,7 +33115,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="612" spans="1:14">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A612" s="1">
         <v>611</v>
       </c>
@@ -33077,7 +33160,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="613" spans="1:14">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -33122,7 +33205,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="614" spans="1:14">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A614" s="1">
         <v>613</v>
       </c>
@@ -33167,7 +33250,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="615" spans="1:14">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A615" s="1">
         <v>614</v>
       </c>
@@ -33212,7 +33295,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="616" spans="1:14">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A616" s="1">
         <v>615</v>
       </c>
@@ -33257,7 +33340,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="617" spans="1:14">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A617" s="1">
         <v>616</v>
       </c>
@@ -33302,7 +33385,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="618" spans="1:14">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A618" s="1">
         <v>617</v>
       </c>
@@ -33347,7 +33430,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="619" spans="1:14">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -33392,7 +33475,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="620" spans="1:14">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A620" s="1">
         <v>619</v>
       </c>
@@ -33437,7 +33520,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="621" spans="1:14">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A621" s="1">
         <v>620</v>
       </c>
@@ -33482,7 +33565,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="622" spans="1:14">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -33527,7 +33610,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="623" spans="1:14">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -33572,7 +33655,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="624" spans="1:14">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -33617,7 +33700,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="625" spans="1:14">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -33662,7 +33745,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="626" spans="1:14">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A626" s="1">
         <v>625</v>
       </c>
@@ -33707,7 +33790,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="627" spans="1:14">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A627" s="1">
         <v>626</v>
       </c>
@@ -33752,7 +33835,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="628" spans="1:14">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A628" s="1">
         <v>627</v>
       </c>
@@ -33797,7 +33880,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="629" spans="1:14">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A629" s="1">
         <v>628</v>
       </c>
@@ -33842,7 +33925,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="630" spans="1:14">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A630" s="1">
         <v>629</v>
       </c>
@@ -33887,7 +33970,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="631" spans="1:14">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A631" s="1">
         <v>630</v>
       </c>
@@ -33932,7 +34015,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="632" spans="1:14">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A632" s="1">
         <v>631</v>
       </c>
@@ -33977,7 +34060,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="633" spans="1:14">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -34022,7 +34105,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="634" spans="1:14">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A634" s="1">
         <v>633</v>
       </c>
@@ -34067,7 +34150,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="635" spans="1:14">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A635" s="1">
         <v>634</v>
       </c>
@@ -34112,7 +34195,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="636" spans="1:14">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A636" s="1">
         <v>635</v>
       </c>
@@ -34157,7 +34240,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="637" spans="1:14">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A637" s="1">
         <v>636</v>
       </c>
@@ -34202,7 +34285,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="638" spans="1:14">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A638" s="1">
         <v>637</v>
       </c>
@@ -34247,7 +34330,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="639" spans="1:14">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -34292,7 +34375,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="640" spans="1:14">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -34337,7 +34420,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="641" spans="1:14">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A641" s="1">
         <v>640</v>
       </c>
@@ -34382,7 +34465,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="642" spans="1:14">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A642" s="1">
         <v>641</v>
       </c>
@@ -34427,7 +34510,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="643" spans="1:14">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -34472,7 +34555,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="644" spans="1:14">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A644" s="1">
         <v>643</v>
       </c>
@@ -34517,7 +34600,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="645" spans="1:14">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A645" s="1">
         <v>644</v>
       </c>
@@ -34562,7 +34645,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="646" spans="1:14">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A646" s="1">
         <v>645</v>
       </c>
@@ -34607,7 +34690,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="647" spans="1:14">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -34652,7 +34735,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="648" spans="1:14">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A648" s="1">
         <v>647</v>
       </c>
@@ -34697,7 +34780,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="649" spans="1:14">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -34742,7 +34825,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="650" spans="1:14">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A650" s="1">
         <v>649</v>
       </c>
@@ -34787,7 +34870,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="651" spans="1:14">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A651" s="1">
         <v>650</v>
       </c>
@@ -34832,7 +34915,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="652" spans="1:14">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A652" s="1">
         <v>651</v>
       </c>
@@ -34877,7 +34960,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="653" spans="1:14">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A653" s="1">
         <v>652</v>
       </c>
@@ -34922,7 +35005,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="654" spans="1:14">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A654" s="1">
         <v>653</v>
       </c>
@@ -34967,7 +35050,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="655" spans="1:14">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A655" s="1">
         <v>654</v>
       </c>
@@ -35012,7 +35095,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="656" spans="1:14">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A656" s="1">
         <v>655</v>
       </c>
@@ -35057,7 +35140,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="657" spans="1:14">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A657" s="1">
         <v>656</v>
       </c>
@@ -35102,7 +35185,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="658" spans="1:14">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A658" s="1">
         <v>657</v>
       </c>
@@ -35147,7 +35230,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="659" spans="1:14">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A659" s="1">
         <v>658</v>
       </c>
@@ -35192,7 +35275,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="660" spans="1:14">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A660" s="1">
         <v>659</v>
       </c>
@@ -35237,7 +35320,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="661" spans="1:14">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A661" s="1">
         <v>660</v>
       </c>
@@ -35282,7 +35365,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="662" spans="1:14">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A662" s="1">
         <v>661</v>
       </c>
@@ -35327,7 +35410,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="663" spans="1:14">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A663" s="1">
         <v>662</v>
       </c>
@@ -35372,7 +35455,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="664" spans="1:14">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A664" s="1">
         <v>663</v>
       </c>
@@ -35417,7 +35500,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="665" spans="1:14">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A665" s="1">
         <v>664</v>
       </c>
@@ -35462,7 +35545,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="666" spans="1:14">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A666" s="1">
         <v>665</v>
       </c>
@@ -35507,7 +35590,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="667" spans="1:14">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A667" s="1">
         <v>666</v>
       </c>
@@ -35552,7 +35635,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="668" spans="1:14">
+    <row r="668" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A668" s="1">
         <v>667</v>
       </c>
@@ -35596,7 +35679,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="669" spans="1:14">
+    <row r="669" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A669" s="1">
         <v>668</v>
       </c>
@@ -35640,7 +35723,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="670" spans="1:14">
+    <row r="670" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A670" s="1">
         <v>669</v>
       </c>
@@ -35684,7 +35767,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="671" spans="1:14">
+    <row r="671" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A671" s="1">
         <v>670</v>
       </c>
@@ -35728,7 +35811,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="672" spans="1:14">
+    <row r="672" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A672" s="1">
         <v>671</v>
       </c>
@@ -35772,7 +35855,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="673" spans="1:14">
+    <row r="673" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A673" s="1">
         <v>672</v>
       </c>
@@ -35816,7 +35899,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="674" spans="1:14">
+    <row r="674" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A674" s="1">
         <v>673</v>
       </c>
@@ -35860,7 +35943,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="675" spans="1:14">
+    <row r="675" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A675" s="1">
         <v>674</v>
       </c>
@@ -35904,7 +35987,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="676" spans="1:14">
+    <row r="676" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A676" s="1">
         <v>675</v>
       </c>
@@ -35948,7 +36031,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="677" spans="1:14">
+    <row r="677" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -35992,7 +36075,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="678" spans="1:14">
+    <row r="678" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A678" s="1">
         <v>677</v>
       </c>
@@ -36036,7 +36119,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="679" spans="1:14">
+    <row r="679" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A679" s="1">
         <v>678</v>
       </c>
@@ -36080,7 +36163,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="680" spans="1:14">
+    <row r="680" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A680" s="1">
         <v>679</v>
       </c>
@@ -36124,7 +36207,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="681" spans="1:14">
+    <row r="681" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A681" s="1">
         <v>680</v>
       </c>
@@ -36168,7 +36251,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="682" spans="1:14">
+    <row r="682" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A682" s="1">
         <v>681</v>
       </c>
@@ -36212,7 +36295,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="683" spans="1:14">
+    <row r="683" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A683" s="1">
         <v>682</v>
       </c>
@@ -36256,7 +36339,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="684" spans="1:14">
+    <row r="684" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A684" s="1">
         <v>683</v>
       </c>
@@ -36300,7 +36383,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="685" spans="1:14">
+    <row r="685" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A685" s="1">
         <v>684</v>
       </c>
@@ -36344,7 +36427,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="686" spans="1:14">
+    <row r="686" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -36388,7 +36471,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="687" spans="1:14">
+    <row r="687" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -36432,7 +36515,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="688" spans="1:14">
+    <row r="688" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A688" s="1">
         <v>687</v>
       </c>
@@ -36476,7 +36559,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="689" spans="1:14">
+    <row r="689" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A689" s="1">
         <v>688</v>
       </c>
@@ -36520,7 +36603,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="690" spans="1:14">
+    <row r="690" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A690" s="1">
         <v>689</v>
       </c>
@@ -36564,7 +36647,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="691" spans="1:14">
+    <row r="691" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -36608,7 +36691,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="692" spans="1:14">
+    <row r="692" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A692" s="1">
         <v>691</v>
       </c>
@@ -36652,7 +36735,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="693" spans="1:14">
+    <row r="693" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A693" s="1">
         <v>692</v>
       </c>
@@ -36696,7 +36779,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="694" spans="1:14">
+    <row r="694" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A694" s="1">
         <v>693</v>
       </c>
@@ -36740,7 +36823,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="695" spans="1:14">
+    <row r="695" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A695" s="1">
         <v>694</v>
       </c>
@@ -36784,7 +36867,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="696" spans="1:14">
+    <row r="696" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A696" s="1">
         <v>695</v>
       </c>
@@ -36828,7 +36911,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="697" spans="1:14">
+    <row r="697" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A697" s="1">
         <v>696</v>
       </c>
@@ -36872,7 +36955,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="698" spans="1:14">
+    <row r="698" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A698" s="1">
         <v>697</v>
       </c>
@@ -36916,7 +36999,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="699" spans="1:14">
+    <row r="699" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A699" s="1">
         <v>698</v>
       </c>
@@ -36960,7 +37043,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="700" spans="1:14">
+    <row r="700" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A700" s="1">
         <v>699</v>
       </c>
@@ -37004,7 +37087,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="701" spans="1:14">
+    <row r="701" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A701" s="1">
         <v>700</v>
       </c>
@@ -37048,7 +37131,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="702" spans="1:14">
+    <row r="702" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A702" s="1">
         <v>701</v>
       </c>
@@ -37092,7 +37175,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="703" spans="1:14">
+    <row r="703" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A703" s="1">
         <v>702</v>
       </c>
@@ -37136,7 +37219,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="704" spans="1:14">
+    <row r="704" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A704" s="1">
         <v>703</v>
       </c>
@@ -37180,7 +37263,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="705" spans="1:14">
+    <row r="705" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A705" s="1">
         <v>704</v>
       </c>
@@ -37224,7 +37307,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="706" spans="1:14">
+    <row r="706" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A706" s="1">
         <v>705</v>
       </c>
@@ -37268,7 +37351,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="707" spans="1:14">
+    <row r="707" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A707" s="1">
         <v>706</v>
       </c>
@@ -37312,7 +37395,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="708" spans="1:14">
+    <row r="708" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A708" s="1">
         <v>707</v>
       </c>
@@ -37356,7 +37439,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="709" spans="1:14">
+    <row r="709" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A709" s="1">
         <v>708</v>
       </c>
@@ -37400,7 +37483,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="710" spans="1:14">
+    <row r="710" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A710" s="1">
         <v>709</v>
       </c>
@@ -37444,7 +37527,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="711" spans="1:14">
+    <row r="711" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A711" s="1">
         <v>710</v>
       </c>
@@ -37488,7 +37571,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="712" spans="1:14">
+    <row r="712" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A712" s="1">
         <v>711</v>
       </c>
@@ -37532,7 +37615,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="713" spans="1:14">
+    <row r="713" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A713" s="1">
         <v>712</v>
       </c>
@@ -37576,7 +37659,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="714" spans="1:14">
+    <row r="714" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A714" s="1">
         <v>713</v>
       </c>
@@ -37620,7 +37703,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="715" spans="1:14">
+    <row r="715" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A715" s="1">
         <v>714</v>
       </c>
@@ -37664,7 +37747,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="716" spans="1:14">
+    <row r="716" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A716" s="1">
         <v>715</v>
       </c>
@@ -37708,7 +37791,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="717" spans="1:14">
+    <row r="717" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A717" s="1">
         <v>716</v>
       </c>
@@ -37752,7 +37835,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="718" spans="1:14">
+    <row r="718" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A718" s="1">
         <v>717</v>
       </c>
@@ -37796,7 +37879,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="719" spans="1:14">
+    <row r="719" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A719" s="1">
         <v>718</v>
       </c>
@@ -37840,7 +37923,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="720" spans="1:14">
+    <row r="720" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A720" s="1">
         <v>719</v>
       </c>
@@ -37882,7 +37965,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="721" spans="1:14">
+    <row r="721" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A721" s="1">
         <v>720</v>
       </c>
@@ -37924,7 +38007,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="722" spans="1:14">
+    <row r="722" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A722" s="1">
         <v>721</v>
       </c>
@@ -37963,7 +38046,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="723" spans="1:14">
+    <row r="723" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A723" s="1">
         <v>722</v>
       </c>
@@ -38005,7 +38088,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="724" spans="1:14">
+    <row r="724" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A724" s="1">
         <v>723</v>
       </c>
@@ -38049,7 +38132,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="725" spans="1:14">
+    <row r="725" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A725" s="1">
         <v>724</v>
       </c>
@@ -38093,7 +38176,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="726" spans="1:14">
+    <row r="726" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A726" s="1">
         <v>725</v>
       </c>
@@ -38137,7 +38220,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="727" spans="1:14">
+    <row r="727" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A727" s="1">
         <v>726</v>
       </c>
@@ -38181,7 +38264,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="728" spans="1:14">
+    <row r="728" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A728" s="1">
         <v>727</v>
       </c>
@@ -38225,7 +38308,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="729" spans="1:14">
+    <row r="729" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A729" s="1">
         <v>728</v>
       </c>
@@ -38269,7 +38352,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="730" spans="1:14">
+    <row r="730" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A730" s="1">
         <v>729</v>
       </c>
@@ -38313,7 +38396,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="731" spans="1:14">
+    <row r="731" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A731" s="1">
         <v>730</v>
       </c>
@@ -38357,7 +38440,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="732" spans="1:14">
+    <row r="732" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A732" s="1">
         <v>731</v>
       </c>
@@ -38401,7 +38484,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="733" spans="1:14">
+    <row r="733" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A733" s="1">
         <v>732</v>
       </c>
@@ -38445,7 +38528,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="734" spans="1:14">
+    <row r="734" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A734" s="1">
         <v>733</v>
       </c>
@@ -38489,7 +38572,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="735" spans="1:14">
+    <row r="735" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A735" s="1">
         <v>734</v>
       </c>
@@ -38533,7 +38616,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="736" spans="1:14">
+    <row r="736" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A736" s="1">
         <v>735</v>
       </c>
@@ -38577,7 +38660,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="737" spans="1:14">
+    <row r="737" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A737" s="1">
         <v>736</v>
       </c>
@@ -38622,7 +38705,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="738" spans="1:14">
+    <row r="738" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A738" s="1">
         <v>737</v>
       </c>
@@ -38667,7 +38750,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="739" spans="1:14">
+    <row r="739" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A739" s="1">
         <v>738</v>
       </c>
@@ -38712,7 +38795,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="740" spans="1:14">
+    <row r="740" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A740" s="1">
         <v>739</v>
       </c>
@@ -38757,7 +38840,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="741" spans="1:14">
+    <row r="741" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A741" s="1">
         <v>740</v>
       </c>
@@ -38802,7 +38885,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="742" spans="1:14">
+    <row r="742" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A742" s="1">
         <v>741</v>
       </c>
@@ -38847,7 +38930,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="743" spans="1:14">
+    <row r="743" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A743" s="1">
         <v>742</v>
       </c>
@@ -38892,7 +38975,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="744" spans="1:14">
+    <row r="744" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A744" s="1">
         <v>743</v>
       </c>
@@ -38937,7 +39020,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="745" spans="1:14">
+    <row r="745" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A745" s="1">
         <v>744</v>
       </c>
@@ -38982,7 +39065,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="746" spans="1:14">
+    <row r="746" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A746" s="1">
         <v>745</v>
       </c>
@@ -39027,7 +39110,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="747" spans="1:14">
+    <row r="747" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A747" s="1">
         <v>746</v>
       </c>
@@ -39072,7 +39155,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="748" spans="1:14">
+    <row r="748" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A748" s="1">
         <v>747</v>
       </c>
@@ -39117,7 +39200,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="749" spans="1:14">
+    <row r="749" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A749" s="1">
         <v>748</v>
       </c>
@@ -39162,7 +39245,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="750" spans="1:14">
+    <row r="750" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A750" s="1">
         <v>749</v>
       </c>
@@ -39207,7 +39290,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="751" spans="1:14">
+    <row r="751" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A751" s="1">
         <v>750</v>
       </c>
@@ -39252,7 +39335,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="752" spans="1:14">
+    <row r="752" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A752" s="1">
         <v>751</v>
       </c>
@@ -39297,7 +39380,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="753" spans="1:14">
+    <row r="753" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A753" s="1">
         <v>752</v>
       </c>
@@ -39342,7 +39425,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="754" spans="1:14">
+    <row r="754" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A754" s="1">
         <v>753</v>
       </c>
@@ -39387,7 +39470,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="755" spans="1:14">
+    <row r="755" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A755" s="1">
         <v>754</v>
       </c>
@@ -39432,7 +39515,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="756" spans="1:14">
+    <row r="756" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A756" s="1">
         <v>755</v>
       </c>
@@ -39477,7 +39560,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="757" spans="1:14">
+    <row r="757" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A757" s="1">
         <v>756</v>
       </c>
@@ -39522,7 +39605,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="758" spans="1:14">
+    <row r="758" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A758" s="1">
         <v>757</v>
       </c>
@@ -39567,7 +39650,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="759" spans="1:14">
+    <row r="759" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A759" s="1">
         <v>758</v>
       </c>
@@ -39612,7 +39695,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="760" spans="1:14">
+    <row r="760" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A760" s="1">
         <v>759</v>
       </c>
@@ -39657,7 +39740,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="761" spans="1:14">
+    <row r="761" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A761" s="1">
         <v>760</v>
       </c>
@@ -39702,7 +39785,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="762" spans="1:14">
+    <row r="762" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A762" s="1">
         <v>761</v>
       </c>
@@ -39747,7 +39830,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="763" spans="1:14">
+    <row r="763" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A763" s="1">
         <v>762</v>
       </c>
@@ -39792,7 +39875,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="764" spans="1:14">
+    <row r="764" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A764" s="1">
         <v>763</v>
       </c>
@@ -39837,7 +39920,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="765" spans="1:14">
+    <row r="765" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A765" s="1">
         <v>764</v>
       </c>
@@ -39882,7 +39965,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="766" spans="1:14">
+    <row r="766" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A766" s="1">
         <v>765</v>
       </c>
@@ -39927,7 +40010,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="767" spans="1:14">
+    <row r="767" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A767" s="1">
         <v>766</v>
       </c>
@@ -39972,7 +40055,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="768" spans="1:14">
+    <row r="768" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A768" s="1">
         <v>767</v>
       </c>
@@ -40017,7 +40100,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="769" spans="1:14">
+    <row r="769" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A769" s="1">
         <v>768</v>
       </c>
@@ -40062,7 +40145,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="770" spans="1:14">
+    <row r="770" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A770" s="1">
         <v>769</v>
       </c>
@@ -40107,7 +40190,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="771" spans="1:14">
+    <row r="771" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A771" s="1">
         <v>770</v>
       </c>
@@ -40152,7 +40235,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="772" spans="1:14">
+    <row r="772" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A772" s="1">
         <v>771</v>
       </c>
@@ -40197,7 +40280,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="773" spans="1:14">
+    <row r="773" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A773" s="1">
         <v>772</v>
       </c>
@@ -40242,7 +40325,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="774" spans="1:14">
+    <row r="774" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A774" s="1">
         <v>773</v>
       </c>
@@ -40287,7 +40370,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="775" spans="1:14">
+    <row r="775" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A775" s="1">
         <v>774</v>
       </c>
@@ -40332,7 +40415,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="776" spans="1:14">
+    <row r="776" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A776" s="1">
         <v>775</v>
       </c>
@@ -40377,7 +40460,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="777" spans="1:14">
+    <row r="777" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A777" s="1">
         <v>776</v>
       </c>
@@ -40422,7 +40505,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="778" spans="1:14">
+    <row r="778" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A778" s="1">
         <v>777</v>
       </c>
@@ -40467,7 +40550,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="779" spans="1:14">
+    <row r="779" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A779" s="1">
         <v>778</v>
       </c>
@@ -40512,7 +40595,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="780" spans="1:14">
+    <row r="780" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A780" s="1">
         <v>779</v>
       </c>
@@ -40557,7 +40640,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="781" spans="1:14">
+    <row r="781" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A781" s="1">
         <v>780</v>
       </c>
@@ -40602,7 +40685,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="782" spans="1:14">
+    <row r="782" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A782" s="1">
         <v>781</v>
       </c>
@@ -40647,7 +40730,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="783" spans="1:14">
+    <row r="783" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A783" s="1">
         <v>782</v>
       </c>
@@ -40692,7 +40775,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="784" spans="1:14">
+    <row r="784" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A784" s="1">
         <v>783</v>
       </c>
@@ -40737,7 +40820,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="785" spans="1:14">
+    <row r="785" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A785" s="1">
         <v>784</v>
       </c>
@@ -40782,7 +40865,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="786" spans="1:14">
+    <row r="786" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A786" s="1">
         <v>785</v>
       </c>
@@ -40827,7 +40910,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="787" spans="1:14">
+    <row r="787" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A787" s="1">
         <v>786</v>
       </c>
@@ -40872,7 +40955,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="788" spans="1:14">
+    <row r="788" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A788" s="1">
         <v>787</v>
       </c>
@@ -40917,7 +41000,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="789" spans="1:14">
+    <row r="789" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A789" s="1">
         <v>788</v>
       </c>
@@ -40962,7 +41045,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="790" spans="1:14">
+    <row r="790" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A790" s="1">
         <v>789</v>
       </c>
@@ -41007,7 +41090,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="791" spans="1:14">
+    <row r="791" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A791" s="1">
         <v>790</v>
       </c>
@@ -41052,7 +41135,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="792" spans="1:14">
+    <row r="792" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A792" s="1">
         <v>791</v>
       </c>
@@ -41097,7 +41180,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="793" spans="1:14">
+    <row r="793" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A793" s="1">
         <v>792</v>
       </c>
@@ -41142,7 +41225,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="794" spans="1:14">
+    <row r="794" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A794" s="1">
         <v>793</v>
       </c>
@@ -41187,7 +41270,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="795" spans="1:14">
+    <row r="795" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A795" s="1">
         <v>794</v>
       </c>
@@ -41232,7 +41315,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="796" spans="1:14">
+    <row r="796" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A796" s="1">
         <v>795</v>
       </c>
@@ -41277,7 +41360,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="797" spans="1:14">
+    <row r="797" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A797" s="1">
         <v>796</v>
       </c>
@@ -41322,7 +41405,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="798" spans="1:14">
+    <row r="798" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A798" s="1">
         <v>797</v>
       </c>
@@ -41367,7 +41450,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="799" spans="1:14">
+    <row r="799" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A799" s="1">
         <v>798</v>
       </c>
@@ -41412,7 +41495,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="800" spans="1:14">
+    <row r="800" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A800" s="1">
         <v>799</v>
       </c>
@@ -41457,7 +41540,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="801" spans="1:14">
+    <row r="801" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A801" s="1">
         <v>800</v>
       </c>
@@ -41501,7 +41584,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="802" spans="1:14">
+    <row r="802" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A802" s="1">
         <v>801</v>
       </c>
@@ -41545,7 +41628,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="803" spans="1:14">
+    <row r="803" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A803" s="1">
         <v>802</v>
       </c>
@@ -41589,7 +41672,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="804" spans="1:14">
+    <row r="804" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A804" s="1">
         <v>803</v>
       </c>
@@ -41633,7 +41716,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="805" spans="1:14">
+    <row r="805" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A805" s="1">
         <v>804</v>
       </c>
@@ -41677,7 +41760,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="806" spans="1:14">
+    <row r="806" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A806" s="1">
         <v>805</v>
       </c>
@@ -41721,7 +41804,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="807" spans="1:14">
+    <row r="807" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A807" s="1">
         <v>806</v>
       </c>
@@ -41765,7 +41848,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="808" spans="1:14">
+    <row r="808" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A808" s="1">
         <v>807</v>
       </c>
@@ -41809,7 +41892,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="809" spans="1:14">
+    <row r="809" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A809" s="1">
         <v>808</v>
       </c>
@@ -41853,7 +41936,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="810" spans="1:14">
+    <row r="810" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A810" s="1">
         <v>809</v>
       </c>
@@ -41897,7 +41980,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="811" spans="1:14">
+    <row r="811" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A811" s="1">
         <v>810</v>
       </c>
@@ -41941,7 +42024,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="812" spans="1:14">
+    <row r="812" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A812" s="1">
         <v>811</v>
       </c>
@@ -41985,7 +42068,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="813" spans="1:14">
+    <row r="813" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A813" s="1">
         <v>812</v>
       </c>
@@ -42029,7 +42112,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="814" spans="1:14">
+    <row r="814" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A814" s="1">
         <v>813</v>
       </c>
@@ -42073,7 +42156,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="815" spans="1:14">
+    <row r="815" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A815" s="1">
         <v>814</v>
       </c>
@@ -42117,7 +42200,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="816" spans="1:14">
+    <row r="816" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A816" s="1">
         <v>815</v>
       </c>
@@ -42161,7 +42244,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="817" spans="1:14">
+    <row r="817" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A817" s="1">
         <v>816</v>
       </c>
@@ -42205,7 +42288,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="818" spans="1:14">
+    <row r="818" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A818" s="1">
         <v>817</v>
       </c>
@@ -42249,7 +42332,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="819" spans="1:14">
+    <row r="819" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A819" s="1">
         <v>818</v>
       </c>
@@ -42293,7 +42376,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="820" spans="1:14">
+    <row r="820" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A820" s="1">
         <v>819</v>
       </c>
@@ -42337,7 +42420,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="821" spans="1:14">
+    <row r="821" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A821" s="1">
         <v>820</v>
       </c>
@@ -42381,7 +42464,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="822" spans="1:14">
+    <row r="822" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A822" s="1">
         <v>821</v>
       </c>
@@ -42425,7 +42508,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="823" spans="1:14">
+    <row r="823" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A823" s="1">
         <v>822</v>
       </c>
@@ -42469,7 +42552,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="824" spans="1:14">
+    <row r="824" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A824" s="1">
         <v>823</v>
       </c>
@@ -42513,7 +42596,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="825" spans="1:14">
+    <row r="825" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A825" s="1">
         <v>824</v>
       </c>
@@ -42557,7 +42640,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="826" spans="1:14">
+    <row r="826" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A826" s="1">
         <v>825</v>
       </c>
@@ -42601,7 +42684,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="827" spans="1:14">
+    <row r="827" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A827" s="1">
         <v>826</v>
       </c>
@@ -42645,7 +42728,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="828" spans="1:14">
+    <row r="828" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A828" s="1">
         <v>827</v>
       </c>
@@ -42689,7 +42772,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="829" spans="1:14">
+    <row r="829" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A829" s="1">
         <v>828</v>
       </c>
@@ -42733,7 +42816,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="830" spans="1:14">
+    <row r="830" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A830" s="1">
         <v>829</v>
       </c>
@@ -42777,7 +42860,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="831" spans="1:14">
+    <row r="831" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A831" s="1">
         <v>830</v>
       </c>
@@ -42821,7 +42904,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="832" spans="1:14">
+    <row r="832" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A832" s="1">
         <v>831</v>
       </c>
@@ -42865,7 +42948,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="833" spans="1:14">
+    <row r="833" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A833" s="1">
         <v>832</v>
       </c>
@@ -42909,7 +42992,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="834" spans="1:14">
+    <row r="834" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A834" s="1">
         <v>833</v>
       </c>
@@ -42953,7 +43036,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="835" spans="1:14">
+    <row r="835" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A835" s="1">
         <v>834</v>
       </c>
@@ -42997,7 +43080,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="836" spans="1:14">
+    <row r="836" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A836" s="1">
         <v>835</v>
       </c>
@@ -43041,7 +43124,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="837" spans="1:14">
+    <row r="837" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A837" s="1">
         <v>836</v>
       </c>
@@ -43085,7 +43168,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="838" spans="1:14">
+    <row r="838" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A838" s="1">
         <v>837</v>
       </c>
@@ -43129,7 +43212,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="839" spans="1:14">
+    <row r="839" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A839" s="1">
         <v>838</v>
       </c>
@@ -43173,7 +43256,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="840" spans="1:14">
+    <row r="840" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A840" s="1">
         <v>839</v>
       </c>
@@ -43217,7 +43300,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="841" spans="1:14">
+    <row r="841" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A841" s="1">
         <v>840</v>
       </c>
@@ -43261,7 +43344,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="842" spans="1:14">
+    <row r="842" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A842" s="1">
         <v>841</v>
       </c>
@@ -43305,7 +43388,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="843" spans="1:14">
+    <row r="843" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A843" s="1">
         <v>842</v>
       </c>
@@ -43349,7 +43432,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="844" spans="1:14">
+    <row r="844" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A844" s="1">
         <v>843</v>
       </c>
@@ -43393,7 +43476,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="845" spans="1:14">
+    <row r="845" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A845" s="1">
         <v>844</v>
       </c>
@@ -43437,7 +43520,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="846" spans="1:14">
+    <row r="846" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A846" s="1">
         <v>845</v>
       </c>
@@ -43481,7 +43564,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="847" spans="1:14">
+    <row r="847" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A847" s="1">
         <v>846</v>
       </c>
@@ -43525,7 +43608,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="848" spans="1:14">
+    <row r="848" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A848" s="1">
         <v>847</v>
       </c>
@@ -43569,7 +43652,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="849" spans="1:14">
+    <row r="849" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A849" s="1">
         <v>848</v>
       </c>
@@ -43613,7 +43696,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="850" spans="1:14">
+    <row r="850" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A850" s="1">
         <v>849</v>
       </c>
@@ -43657,7 +43740,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="851" spans="1:14">
+    <row r="851" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A851" s="1">
         <v>850</v>
       </c>
@@ -43701,7 +43784,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="852" spans="1:14">
+    <row r="852" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A852" s="1">
         <v>851</v>
       </c>
@@ -43745,7 +43828,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="853" spans="1:14">
+    <row r="853" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A853" s="1">
         <v>852</v>
       </c>
@@ -43790,7 +43873,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="854" spans="1:14">
+    <row r="854" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A854" s="1">
         <v>853</v>
       </c>
@@ -43835,7 +43918,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="855" spans="1:14">
+    <row r="855" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A855" s="1">
         <v>854</v>
       </c>
@@ -43880,7 +43963,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="856" spans="1:14">
+    <row r="856" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A856" s="1">
         <v>855</v>
       </c>
@@ -43925,7 +44008,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="857" spans="1:14">
+    <row r="857" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A857" s="1">
         <v>856</v>
       </c>
@@ -43970,7 +44053,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="858" spans="1:14">
+    <row r="858" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A858" s="1">
         <v>857</v>
       </c>
@@ -44015,7 +44098,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="859" spans="1:14">
+    <row r="859" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A859" s="1">
         <v>858</v>
       </c>
@@ -44060,7 +44143,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="860" spans="1:14">
+    <row r="860" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A860" s="1">
         <v>859</v>
       </c>
@@ -44105,7 +44188,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="861" spans="1:14">
+    <row r="861" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A861" s="1">
         <v>860</v>
       </c>
@@ -44150,7 +44233,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="862" spans="1:14">
+    <row r="862" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A862" s="1">
         <v>861</v>
       </c>
@@ -44195,7 +44278,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="863" spans="1:14">
+    <row r="863" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A863" s="1">
         <v>862</v>
       </c>
@@ -44240,7 +44323,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="864" spans="1:14">
+    <row r="864" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A864" s="1">
         <v>863</v>
       </c>
@@ -44285,7 +44368,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="865" spans="1:14">
+    <row r="865" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A865" s="1">
         <v>864</v>
       </c>
@@ -44330,7 +44413,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="866" spans="1:14">
+    <row r="866" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A866" s="1">
         <v>865</v>
       </c>
@@ -44375,7 +44458,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="867" spans="1:14">
+    <row r="867" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A867" s="1">
         <v>866</v>
       </c>
@@ -44420,7 +44503,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="868" spans="1:14">
+    <row r="868" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A868" s="1">
         <v>867</v>
       </c>
@@ -44465,7 +44548,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="869" spans="1:14">
+    <row r="869" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A869" s="1">
         <v>868</v>
       </c>
@@ -44510,7 +44593,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="870" spans="1:14">
+    <row r="870" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A870" s="1">
         <v>869</v>
       </c>
@@ -44555,7 +44638,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="871" spans="1:14">
+    <row r="871" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A871" s="1">
         <v>870</v>
       </c>
@@ -44600,7 +44683,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="872" spans="1:14">
+    <row r="872" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A872" s="1">
         <v>871</v>
       </c>
@@ -44645,7 +44728,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="873" spans="1:14">
+    <row r="873" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A873" s="1">
         <v>872</v>
       </c>
@@ -44690,7 +44773,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="874" spans="1:14">
+    <row r="874" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A874" s="1">
         <v>873</v>
       </c>
@@ -44735,7 +44818,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="875" spans="1:14">
+    <row r="875" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A875" s="1">
         <v>874</v>
       </c>
@@ -44780,7 +44863,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="876" spans="1:14">
+    <row r="876" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A876" s="1">
         <v>875</v>
       </c>
@@ -44825,7 +44908,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="877" spans="1:14">
+    <row r="877" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A877" s="1">
         <v>876</v>
       </c>
@@ -44870,7 +44953,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="878" spans="1:14">
+    <row r="878" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A878" s="1">
         <v>877</v>
       </c>
@@ -44915,7 +44998,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="879" spans="1:14">
+    <row r="879" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A879" s="1">
         <v>878</v>
       </c>
@@ -44960,7 +45043,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="880" spans="1:14">
+    <row r="880" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A880" s="1">
         <v>879</v>
       </c>
@@ -45005,7 +45088,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="881" spans="1:14">
+    <row r="881" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A881" s="1">
         <v>880</v>
       </c>
@@ -45050,7 +45133,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="882" spans="1:14">
+    <row r="882" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A882" s="1">
         <v>881</v>
       </c>
@@ -45095,7 +45178,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="883" spans="1:14">
+    <row r="883" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A883" s="1">
         <v>882</v>
       </c>
@@ -45140,7 +45223,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="884" spans="1:14">
+    <row r="884" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A884" s="1">
         <v>883</v>
       </c>
@@ -45185,7 +45268,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="885" spans="1:14">
+    <row r="885" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A885" s="1">
         <v>884</v>
       </c>
@@ -45230,7 +45313,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="886" spans="1:14">
+    <row r="886" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A886" s="1">
         <v>885</v>
       </c>
@@ -45275,7 +45358,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="887" spans="1:14">
+    <row r="887" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A887" s="1">
         <v>886</v>
       </c>
@@ -45320,7 +45403,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="888" spans="1:14">
+    <row r="888" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A888" s="1">
         <v>887</v>
       </c>
@@ -45365,7 +45448,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="889" spans="1:14">
+    <row r="889" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A889" s="1">
         <v>888</v>
       </c>
@@ -45410,7 +45493,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="890" spans="1:14">
+    <row r="890" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A890" s="1">
         <v>889</v>
       </c>
@@ -45455,7 +45538,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="891" spans="1:14">
+    <row r="891" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A891" s="1">
         <v>890</v>
       </c>
@@ -45500,7 +45583,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="892" spans="1:14">
+    <row r="892" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A892" s="1">
         <v>891</v>
       </c>
@@ -45545,7 +45628,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="893" spans="1:14">
+    <row r="893" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A893" s="1">
         <v>892</v>
       </c>
@@ -45590,7 +45673,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="894" spans="1:14">
+    <row r="894" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A894" s="1">
         <v>893</v>
       </c>
@@ -45635,7 +45718,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="895" spans="1:14">
+    <row r="895" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A895" s="1">
         <v>894</v>
       </c>
@@ -45680,7 +45763,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="896" spans="1:14">
+    <row r="896" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A896" s="1">
         <v>895</v>
       </c>
@@ -45725,7 +45808,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="897" spans="1:14">
+    <row r="897" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A897" s="1">
         <v>896</v>
       </c>
@@ -45770,7 +45853,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="898" spans="1:14">
+    <row r="898" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A898" s="1">
         <v>897</v>
       </c>
@@ -45815,7 +45898,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="899" spans="1:14">
+    <row r="899" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A899" s="1">
         <v>898</v>
       </c>
@@ -45860,7 +45943,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="900" spans="1:14">
+    <row r="900" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A900" s="1">
         <v>899</v>
       </c>
@@ -45905,7 +45988,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="901" spans="1:14">
+    <row r="901" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A901" s="1">
         <v>900</v>
       </c>
@@ -45950,7 +46033,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="902" spans="1:14">
+    <row r="902" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A902" s="1">
         <v>901</v>
       </c>
@@ -45995,7 +46078,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="903" spans="1:14">
+    <row r="903" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A903" s="1">
         <v>902</v>
       </c>
@@ -46040,7 +46123,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="904" spans="1:14">
+    <row r="904" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A904" s="1">
         <v>903</v>
       </c>
@@ -46085,7 +46168,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="905" spans="1:14">
+    <row r="905" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A905" s="1">
         <v>904</v>
       </c>
@@ -46130,7 +46213,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="906" spans="1:14">
+    <row r="906" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A906" s="1">
         <v>905</v>
       </c>
@@ -46175,7 +46258,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="907" spans="1:14">
+    <row r="907" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A907" s="1">
         <v>906</v>
       </c>
@@ -46220,7 +46303,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="908" spans="1:14">
+    <row r="908" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A908" s="1">
         <v>907</v>
       </c>
@@ -46265,7 +46348,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="909" spans="1:14">
+    <row r="909" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A909" s="1">
         <v>908</v>
       </c>
@@ -46310,7 +46393,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="910" spans="1:14">
+    <row r="910" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A910" s="1">
         <v>909</v>
       </c>
@@ -46355,7 +46438,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="911" spans="1:14">
+    <row r="911" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A911" s="1">
         <v>910</v>
       </c>
@@ -46400,7 +46483,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="912" spans="1:14">
+    <row r="912" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A912" s="1">
         <v>911</v>
       </c>
@@ -46445,7 +46528,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="913" spans="1:14">
+    <row r="913" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A913" s="1">
         <v>912</v>
       </c>
@@ -46490,7 +46573,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="914" spans="1:14">
+    <row r="914" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A914" s="1">
         <v>913</v>
       </c>
@@ -46535,7 +46618,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="915" spans="1:14">
+    <row r="915" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A915" s="1">
         <v>914</v>
       </c>
@@ -46580,7 +46663,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="916" spans="1:14">
+    <row r="916" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A916" s="1">
         <v>915</v>
       </c>
@@ -46625,7 +46708,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="917" spans="1:14">
+    <row r="917" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A917" s="1">
         <v>916</v>
       </c>
@@ -46670,7 +46753,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="918" spans="1:14">
+    <row r="918" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A918" s="1">
         <v>917</v>
       </c>
@@ -46715,7 +46798,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="919" spans="1:14">
+    <row r="919" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A919" s="1">
         <v>918</v>
       </c>
@@ -46760,7 +46843,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="920" spans="1:14">
+    <row r="920" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A920" s="1">
         <v>919</v>
       </c>
@@ -46805,7 +46888,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="921" spans="1:14">
+    <row r="921" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A921" s="1">
         <v>920</v>
       </c>
@@ -46850,7 +46933,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="922" spans="1:14">
+    <row r="922" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A922" s="1">
         <v>921</v>
       </c>
@@ -46895,7 +46978,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="923" spans="1:14">
+    <row r="923" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A923" s="1">
         <v>922</v>
       </c>
@@ -46940,7 +47023,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="924" spans="1:14">
+    <row r="924" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A924" s="1">
         <v>923</v>
       </c>
@@ -46985,7 +47068,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="925" spans="1:14">
+    <row r="925" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A925" s="1">
         <v>924</v>
       </c>
@@ -47030,7 +47113,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="926" spans="1:14">
+    <row r="926" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A926" s="1">
         <v>925</v>
       </c>
@@ -47075,7 +47158,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="927" spans="1:14">
+    <row r="927" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A927" s="1">
         <v>926</v>
       </c>
@@ -47120,7 +47203,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="928" spans="1:14">
+    <row r="928" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A928" s="1">
         <v>927</v>
       </c>
@@ -47165,7 +47248,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="929" spans="1:14">
+    <row r="929" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A929" s="1">
         <v>928</v>
       </c>
@@ -47210,7 +47293,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="930" spans="1:14">
+    <row r="930" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A930" s="1">
         <v>929</v>
       </c>
@@ -47255,7 +47338,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="931" spans="1:14">
+    <row r="931" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A931" s="1">
         <v>930</v>
       </c>
@@ -47300,7 +47383,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="932" spans="1:14">
+    <row r="932" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A932" s="1">
         <v>931</v>
       </c>
@@ -47345,7 +47428,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="933" spans="1:14">
+    <row r="933" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A933" s="1">
         <v>932</v>
       </c>
@@ -47390,7 +47473,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="934" spans="1:14">
+    <row r="934" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A934" s="1">
         <v>933</v>
       </c>
@@ -47435,7 +47518,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="935" spans="1:14">
+    <row r="935" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A935" s="1">
         <v>934</v>
       </c>
@@ -47480,7 +47563,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="936" spans="1:14">
+    <row r="936" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A936" s="1">
         <v>935</v>
       </c>
@@ -47525,7 +47608,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="937" spans="1:14">
+    <row r="937" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A937" s="1">
         <v>936</v>
       </c>
@@ -47570,7 +47653,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="938" spans="1:14">
+    <row r="938" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A938" s="1">
         <v>937</v>
       </c>
@@ -47615,7 +47698,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="939" spans="1:14">
+    <row r="939" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A939" s="1">
         <v>938</v>
       </c>
@@ -47660,7 +47743,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="940" spans="1:14">
+    <row r="940" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A940" s="1">
         <v>939</v>
       </c>
@@ -47705,7 +47788,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="941" spans="1:14">
+    <row r="941" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A941" s="1">
         <v>940</v>
       </c>
@@ -47750,7 +47833,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="942" spans="1:14">
+    <row r="942" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A942" s="1">
         <v>941</v>
       </c>
@@ -47795,7 +47878,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="943" spans="1:14">
+    <row r="943" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A943" s="1">
         <v>942</v>
       </c>
@@ -47840,7 +47923,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="944" spans="1:14">
+    <row r="944" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A944" s="1">
         <v>943</v>
       </c>
@@ -47885,7 +47968,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="945" spans="1:14">
+    <row r="945" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A945" s="1">
         <v>944</v>
       </c>
@@ -47930,7 +48013,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="946" spans="1:14">
+    <row r="946" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A946" s="1">
         <v>945</v>
       </c>
@@ -47975,7 +48058,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="947" spans="1:14">
+    <row r="947" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A947" s="1">
         <v>946</v>
       </c>
@@ -48020,7 +48103,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="948" spans="1:14">
+    <row r="948" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A948" s="1">
         <v>947</v>
       </c>
@@ -48065,7 +48148,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="949" spans="1:14">
+    <row r="949" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A949" s="1">
         <v>948</v>
       </c>
@@ -48110,7 +48193,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="950" spans="1:14">
+    <row r="950" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A950" s="1">
         <v>949</v>
       </c>
@@ -48155,7 +48238,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="951" spans="1:14">
+    <row r="951" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A951" s="1">
         <v>950</v>
       </c>
@@ -48200,7 +48283,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="952" spans="1:14">
+    <row r="952" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A952" s="1">
         <v>951</v>
       </c>
@@ -48245,7 +48328,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="953" spans="1:14">
+    <row r="953" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A953" s="1">
         <v>952</v>
       </c>
@@ -48290,7 +48373,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="954" spans="1:14">
+    <row r="954" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A954" s="1">
         <v>953</v>
       </c>
@@ -48335,7 +48418,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="955" spans="1:14">
+    <row r="955" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A955" s="1">
         <v>954</v>
       </c>
@@ -48380,7 +48463,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="956" spans="1:14">
+    <row r="956" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A956" s="1">
         <v>955</v>
       </c>
@@ -48425,7 +48508,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="957" spans="1:14">
+    <row r="957" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A957" s="1">
         <v>956</v>
       </c>
@@ -48470,7 +48553,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="958" spans="1:14">
+    <row r="958" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A958" s="1">
         <v>957</v>
       </c>
@@ -48514,7 +48597,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="959" spans="1:14">
+    <row r="959" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A959" s="1">
         <v>958</v>
       </c>
@@ -48558,7 +48641,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="960" spans="1:14">
+    <row r="960" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A960" s="1">
         <v>959</v>
       </c>
@@ -48602,7 +48685,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="961" spans="1:14">
+    <row r="961" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A961" s="1">
         <v>960</v>
       </c>
@@ -48646,7 +48729,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="962" spans="1:14">
+    <row r="962" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A962" s="1">
         <v>961</v>
       </c>
@@ -48690,7 +48773,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="963" spans="1:14">
+    <row r="963" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A963" s="1">
         <v>962</v>
       </c>
@@ -48734,7 +48817,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="964" spans="1:14">
+    <row r="964" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A964" s="1">
         <v>963</v>
       </c>
@@ -48778,7 +48861,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="965" spans="1:14">
+    <row r="965" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A965" s="1">
         <v>964</v>
       </c>
@@ -48822,7 +48905,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="966" spans="1:14">
+    <row r="966" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A966" s="1">
         <v>965</v>
       </c>
@@ -48866,7 +48949,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="967" spans="1:14">
+    <row r="967" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A967" s="1">
         <v>966</v>
       </c>
@@ -48910,7 +48993,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="968" spans="1:14">
+    <row r="968" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A968" s="1">
         <v>967</v>
       </c>
@@ -48954,7 +49037,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="969" spans="1:14">
+    <row r="969" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A969" s="1">
         <v>968</v>
       </c>
@@ -48998,7 +49081,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="970" spans="1:14">
+    <row r="970" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A970" s="1">
         <v>969</v>
       </c>
@@ -49042,7 +49125,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="971" spans="1:14">
+    <row r="971" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A971" s="1">
         <v>970</v>
       </c>
@@ -49086,7 +49169,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="972" spans="1:14">
+    <row r="972" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A972" s="1">
         <v>971</v>
       </c>
@@ -49130,7 +49213,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="973" spans="1:14">
+    <row r="973" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A973" s="1">
         <v>972</v>
       </c>
@@ -49174,7 +49257,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="974" spans="1:14">
+    <row r="974" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A974" s="1">
         <v>973</v>
       </c>
@@ -49218,7 +49301,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="975" spans="1:14">
+    <row r="975" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A975" s="1">
         <v>974</v>
       </c>
@@ -49262,7 +49345,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="976" spans="1:14">
+    <row r="976" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A976" s="1">
         <v>975</v>
       </c>
@@ -49306,7 +49389,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="977" spans="1:14">
+    <row r="977" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A977" s="1">
         <v>976</v>
       </c>
@@ -49350,7 +49433,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="978" spans="1:14">
+    <row r="978" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A978" s="1">
         <v>977</v>
       </c>
@@ -49394,7 +49477,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="979" spans="1:14" s="1" customFormat="1">
+    <row r="979" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A979" s="1">
         <v>978</v>
       </c>
@@ -49438,7 +49521,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="980" spans="1:14">
+    <row r="980" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A980" s="1">
         <v>979</v>
       </c>
@@ -49482,7 +49565,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="981" spans="1:14">
+    <row r="981" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A981" s="1">
         <v>980</v>
       </c>
@@ -49526,7 +49609,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="982" spans="1:14">
+    <row r="982" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A982" s="1">
         <v>981</v>
       </c>
@@ -49570,7 +49653,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="983" spans="1:14">
+    <row r="983" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A983" s="1">
         <v>982</v>
       </c>
@@ -49614,7 +49697,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="984" spans="1:14">
+    <row r="984" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A984" s="1">
         <v>983</v>
       </c>
@@ -49658,7 +49741,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="985" spans="1:14">
+    <row r="985" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A985" s="1">
         <v>984</v>
       </c>
@@ -49702,7 +49785,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="986" spans="1:14">
+    <row r="986" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A986" s="1">
         <v>985</v>
       </c>
@@ -49746,7 +49829,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="987" spans="1:14">
+    <row r="987" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A987" s="1">
         <v>986</v>
       </c>
@@ -49790,7 +49873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="988" spans="1:14">
+    <row r="988" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A988" s="1">
         <v>987</v>
       </c>
@@ -49834,7 +49917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="989" spans="1:14">
+    <row r="989" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A989" s="1">
         <v>988</v>
       </c>
@@ -49877,6 +49960,144 @@
       <c r="N989" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="990" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A990" s="1">
+        <v>989</v>
+      </c>
+      <c r="B990" s="41" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C990" s="38">
+        <v>42685</v>
+      </c>
+      <c r="D990" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E990" s="44">
+        <v>168</v>
+      </c>
+      <c r="F990" s="6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G990">
+        <v>1</v>
+      </c>
+      <c r="H990" s="44">
+        <v>0</v>
+      </c>
+      <c r="I990" s="44">
+        <v>95</v>
+      </c>
+      <c r="J990" s="44">
+        <v>0</v>
+      </c>
+      <c r="K990" s="44">
+        <v>318</v>
+      </c>
+      <c r="L990" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M990" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N990" s="6" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="991" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A991" s="1">
+        <v>990</v>
+      </c>
+      <c r="B991" s="41" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C991" s="38">
+        <v>42649</v>
+      </c>
+      <c r="D991" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="E991" s="44">
+        <v>8</v>
+      </c>
+      <c r="F991" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G991">
+        <v>10</v>
+      </c>
+      <c r="H991" s="44">
+        <v>0</v>
+      </c>
+      <c r="I991" s="44">
+        <v>0</v>
+      </c>
+      <c r="J991" s="44">
+        <v>0</v>
+      </c>
+      <c r="K991" s="44">
+        <v>80</v>
+      </c>
+      <c r="L991" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="M991" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="N991" s="6" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="992" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A992" s="1">
+        <v>991</v>
+      </c>
+      <c r="B992" s="41" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C992" s="38">
+        <v>42649</v>
+      </c>
+      <c r="D992" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E992" s="49" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F992" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G992" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H992" s="44">
+        <v>12</v>
+      </c>
+      <c r="I992" s="44">
+        <v>0</v>
+      </c>
+      <c r="J992" s="44">
+        <v>0</v>
+      </c>
+      <c r="K992" s="44">
+        <v>34.93</v>
+      </c>
+      <c r="L992" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="M992" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="N992" s="6" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A993" s="1"/>
+      <c r="B993" s="41"/>
+      <c r="D993" s="6"/>
+      <c r="F993" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R948">
@@ -49891,39 +50112,39 @@
   <conditionalFormatting sqref="B1">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B557 B555">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+  <conditionalFormatting sqref="B555 B557">
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="51" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="52" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -49931,32 +50152,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="37" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B611:B666">
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="42" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -49964,29 +50185,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B369:B376">
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="34" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="35" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -49994,29 +50215,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B804:B817">
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -50024,29 +50245,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B934">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -50054,29 +50275,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:B933 B1:B368 B556 B377:B554 B558:B610 B667:B803 B935:B978 B987:B1048576">
-    <cfRule type="cellIs" dxfId="12" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="63" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="64" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="65" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="66" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="67" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="68" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -50084,29 +50305,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B979:B986">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -50188,16 +50409,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -50205,7 +50426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -50213,7 +50434,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -50221,7 +50442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>293</v>
       </c>

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soda\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -19,12 +14,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$948</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5468" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5504" uniqueCount="1338">
   <si>
     <t>编号</t>
   </si>
@@ -5374,15 +5369,18 @@
     </r>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>MAX660</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5750,7 +5748,17 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6080,8 +6088,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="wholeTable" dxfId="45"/>
+      <tableStyleElement type="headerRow" dxfId="44"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6428,15 +6436,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S993"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A942" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L992" sqref="L992"/>
+      <pane ySplit="1" topLeftCell="A972" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C997" sqref="C997"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="38" customWidth="1"/>
@@ -6452,7 +6460,7 @@
     <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6508,7 +6516,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6555,10 +6563,10 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>87258.114000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+        <v>89360.114000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6597,7 +6605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6639,7 +6647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="14.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6682,7 +6690,7 @@
       </c>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6724,7 +6732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6766,7 +6774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6808,7 +6816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6850,7 +6858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6894,7 +6902,7 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6938,7 +6946,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6980,7 +6988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7022,7 +7030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7064,7 +7072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7106,7 +7114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7148,7 +7156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7190,7 +7198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7232,7 +7240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7274,7 +7282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7316,7 +7324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" s="1" customFormat="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7361,7 +7369,7 @@
       <c r="O21" s="3"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7405,7 +7413,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7447,7 +7455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7490,7 +7498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7533,7 +7541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7576,7 +7584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7619,7 +7627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7661,7 +7669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7703,7 +7711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7745,7 +7753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7787,7 +7795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7829,7 +7837,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7871,7 +7879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7913,7 +7921,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7955,7 +7963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7997,7 +8005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8039,7 +8047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8081,7 +8089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8123,7 +8131,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8165,7 +8173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8207,7 +8215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8249,7 +8257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8291,7 +8299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8333,7 +8341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8375,7 +8383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8420,7 +8428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8465,7 +8473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8510,7 +8518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8555,7 +8563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8600,7 +8608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8645,7 +8653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8690,7 +8698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8735,7 +8743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8780,7 +8788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8825,7 +8833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8870,7 +8878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8915,7 +8923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8960,7 +8968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -9005,7 +9013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -9050,7 +9058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -9095,7 +9103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9140,7 +9148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9182,7 +9190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -9227,7 +9235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9272,7 +9280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9317,7 +9325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9362,7 +9370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9407,7 +9415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9452,7 +9460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9495,7 +9503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9538,7 +9546,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9581,7 +9589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9624,7 +9632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9667,7 +9675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9710,7 +9718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9753,7 +9761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9796,7 +9804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9839,7 +9847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -9882,7 +9890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -9927,7 +9935,7 @@
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -9972,7 +9980,7 @@
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10015,7 +10023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10058,7 +10066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10101,7 +10109,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10144,7 +10152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10187,7 +10195,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10230,7 +10238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10273,7 +10281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10316,7 +10324,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10359,7 +10367,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -10402,7 +10410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -10444,7 +10452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -10486,7 +10494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -10528,7 +10536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -10570,7 +10578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -10612,7 +10620,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:18">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10654,7 +10662,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:18">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -10696,7 +10704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:18">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10741,7 +10749,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:18">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10786,7 +10794,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:18">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10831,7 +10839,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:18">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10876,7 +10884,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:18">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10921,7 +10929,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:18">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10966,7 +10974,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:18">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -11008,7 +11016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:18">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -11050,7 +11058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:18">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -11092,7 +11100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:18">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -11134,7 +11142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:18">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -11179,7 +11187,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:18">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11224,7 +11232,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:18">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11269,7 +11277,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:18">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11314,7 +11322,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:18">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11359,7 +11367,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:18">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11404,7 +11412,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:18">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11449,7 +11457,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:18">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11494,7 +11502,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:18">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11539,7 +11547,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:18">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11584,7 +11592,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:18">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11629,7 +11637,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:18">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11674,7 +11682,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:18">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11719,7 +11727,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:18">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11764,7 +11772,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:18">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11809,7 +11817,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:18">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11854,7 +11862,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:18">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11899,7 +11907,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:18">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11944,7 +11952,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:18">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -11989,7 +11997,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:18">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12034,7 +12042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:18">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12079,7 +12087,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:18">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12124,7 +12132,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:18">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12169,7 +12177,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:18">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12205,7 +12213,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:18">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12250,7 +12258,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:18">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12295,7 +12303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:18">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12340,7 +12348,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:18">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12385,7 +12393,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:18">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12430,7 +12438,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:18">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12475,7 +12483,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:18">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12520,7 +12528,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:18">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -12565,7 +12573,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:18">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -12610,7 +12618,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:18">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -12655,7 +12663,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:18">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -12700,7 +12708,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:18">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -12745,7 +12753,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:18">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -12790,7 +12798,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:18">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -12835,7 +12843,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:18">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -12880,7 +12888,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:18">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -12925,7 +12933,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:18">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -12970,7 +12978,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:18">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -13015,7 +13023,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:18">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -13060,7 +13068,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:18">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13105,7 +13113,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:18">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -13150,7 +13158,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:18">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -13195,7 +13203,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="155" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:18" s="29" customFormat="1">
       <c r="A155" s="29">
         <v>154</v>
       </c>
@@ -13241,7 +13249,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:18">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -13286,7 +13294,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:18">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -13331,7 +13339,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:18">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -13376,7 +13384,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:18">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -13421,7 +13429,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:18">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -13466,7 +13474,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:18">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -13511,7 +13519,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:18">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -13556,7 +13564,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:18">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -13601,7 +13609,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:18">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -13646,7 +13654,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:18">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -13691,7 +13699,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:18">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -13733,7 +13741,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:18">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -13775,7 +13783,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:18">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -13817,7 +13825,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:18">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -13859,7 +13867,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:18">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -13901,7 +13909,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:18">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -13943,7 +13951,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:18">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -13985,7 +13993,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:18">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -14027,7 +14035,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:18">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -14069,7 +14077,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:18">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -14111,7 +14119,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:18">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -14153,7 +14161,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:18">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -14195,7 +14203,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:18">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -14237,7 +14245,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:18">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -14279,7 +14287,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:18">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -14321,7 +14329,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:18">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -14367,7 +14375,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:18">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -14409,7 +14417,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:18">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -14452,7 +14460,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:18">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -14495,7 +14503,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:18">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -14538,7 +14546,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:18">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -14581,7 +14589,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:18">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -14624,7 +14632,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:18">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -14667,7 +14675,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:18">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -14711,7 +14719,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:18">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -14755,7 +14763,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="191" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:18" s="29" customFormat="1">
       <c r="A191" s="29">
         <v>190</v>
       </c>
@@ -14798,7 +14806,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:18">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -14842,7 +14850,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:18">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -14886,7 +14894,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:18">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -14932,7 +14940,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:18">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -14978,7 +14986,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:18">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -15024,7 +15032,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:18">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -15070,7 +15078,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:18">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -15116,7 +15124,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:18">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -15162,7 +15170,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:18">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -15208,7 +15216,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:18">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -15254,7 +15262,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:18">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -15300,7 +15308,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:18">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -15346,7 +15354,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:18">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -15392,7 +15400,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:18">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -15438,7 +15446,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:18">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -15484,7 +15492,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:18">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -15530,7 +15538,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:18">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -15576,7 +15584,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:18">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -15622,7 +15630,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:18">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -15668,7 +15676,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:18">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -15714,7 +15722,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:18">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -15760,7 +15768,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:18">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -15806,7 +15814,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:18">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -15852,7 +15860,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:18">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -15900,7 +15908,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:18">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -15946,7 +15954,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:18">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -15992,7 +16000,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:18">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -16038,7 +16046,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:18">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -16084,7 +16092,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:18">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -16130,7 +16138,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:18">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -16176,7 +16184,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:18">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -16222,7 +16230,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:18">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -16268,7 +16276,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:18">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -16314,7 +16322,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:18">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -16360,7 +16368,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:18">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -16406,7 +16414,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:18">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -16452,7 +16460,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:18">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -16497,7 +16505,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:18">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -16539,7 +16547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:18">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -16581,7 +16589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:18">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -16623,7 +16631,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:18">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -16665,7 +16673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:18">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -16705,7 +16713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:18">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -16747,7 +16755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:18">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -16791,7 +16799,7 @@
       </c>
       <c r="O235" s="11"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:18">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -16834,7 +16842,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:18">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -16879,7 +16887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:18">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -16921,7 +16929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:18">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -16963,7 +16971,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:18">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -17005,7 +17013,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:14">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -17047,7 +17055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:14">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -17089,7 +17097,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:14">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -17131,7 +17139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:14">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -17173,7 +17181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:14">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -17215,7 +17223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:14">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -17257,7 +17265,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:14">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -17299,7 +17307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:14">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -17341,7 +17349,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:14">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -17383,7 +17391,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:14">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -17425,7 +17433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:14">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -17467,7 +17475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:14">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -17509,7 +17517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:14">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -17551,7 +17559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:14">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -17593,7 +17601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:14">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -17635,7 +17643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:14">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -17677,7 +17685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:15">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -17719,7 +17727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:15">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -17763,7 +17771,7 @@
       </c>
       <c r="O258" s="11"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:15">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -17805,7 +17813,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:15">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -17847,7 +17855,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:15">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -17889,7 +17897,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:15">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -17931,7 +17939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:15">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -17973,7 +17981,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:15">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -18015,7 +18023,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:15">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -18057,7 +18065,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:15">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -18099,7 +18107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:15">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -18141,7 +18149,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:15">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -18186,7 +18194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:15">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -18229,7 +18237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:15">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -18271,7 +18279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:15">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -18314,7 +18322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:15">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -18357,7 +18365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:15">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -18400,7 +18408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:15">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -18443,7 +18451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:15">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -18486,7 +18494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:15">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -18529,7 +18537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:15">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -18572,7 +18580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:15">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -18616,7 +18624,7 @@
       </c>
       <c r="O278" s="24"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:15">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -18659,7 +18667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:15">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -18702,7 +18710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:15">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -18745,7 +18753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:15">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -18788,7 +18796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:15">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -18831,7 +18839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:15">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -18874,7 +18882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:15">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -18917,7 +18925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:15">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -18960,7 +18968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:15">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -19003,7 +19011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:15">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -19047,7 +19055,7 @@
       </c>
       <c r="O288" s="15"/>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:19">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -19091,7 +19099,7 @@
       </c>
       <c r="O289" s="15"/>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:19">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -19135,7 +19143,7 @@
       </c>
       <c r="O290" s="15"/>
     </row>
-    <row r="291" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:19" s="29" customFormat="1">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -19183,7 +19191,7 @@
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
     </row>
-    <row r="292" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:19" s="29" customFormat="1">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -19231,7 +19239,7 @@
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:19">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -19275,7 +19283,7 @@
       </c>
       <c r="O293" s="24"/>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:19">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -19323,7 +19331,7 @@
       <c r="R294" s="29"/>
       <c r="S294" s="29"/>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:19">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -19371,7 +19379,7 @@
       <c r="R295" s="29"/>
       <c r="S295" s="29"/>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:19">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -19415,7 +19423,7 @@
       </c>
       <c r="O296" s="15"/>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:19">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -19458,7 +19466,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:19">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -19501,7 +19509,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:19">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -19544,7 +19552,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:19">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -19587,7 +19595,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:19">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -19630,7 +19638,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:19">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -19673,7 +19681,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:19">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -19716,7 +19724,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:19">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -19759,7 +19767,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:14">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -19802,7 +19810,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:14">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -19845,7 +19853,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:14">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -19888,7 +19896,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:14">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -19931,7 +19939,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:14">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -19974,7 +19982,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:14">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -20017,7 +20025,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:14">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -20060,7 +20068,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:14">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -20103,7 +20111,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:14">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -20146,7 +20154,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:14">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -20189,7 +20197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:14">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -20232,7 +20240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:14">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -20275,7 +20283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:14">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -20318,7 +20326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:14">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -20361,7 +20369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:14">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -20404,7 +20412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:14">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -20447,7 +20455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:19">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -20490,7 +20498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:19">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -20533,7 +20541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:19">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -20576,7 +20584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:19">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -20619,7 +20627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:19">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -20662,7 +20670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:19">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -20705,7 +20713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:19">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -20748,7 +20756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:19">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -20791,7 +20799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:19">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -20834,7 +20842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:19">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -20877,7 +20885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:19">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -20920,7 +20928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:19">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -20963,7 +20971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:19">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -21007,7 +21015,7 @@
       </c>
       <c r="O333" s="15"/>
     </row>
-    <row r="334" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:19" s="29" customFormat="1">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -21055,7 +21063,7 @@
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:19">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -21098,7 +21106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:19">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -21141,7 +21149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:15">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -21184,7 +21192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:15">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -21228,7 +21236,7 @@
       </c>
       <c r="O338" s="24"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:15">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -21271,7 +21279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:15">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -21314,7 +21322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:15">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -21357,7 +21365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:15" s="29" customFormat="1">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -21401,7 +21409,7 @@
       </c>
       <c r="O342" s="26"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:15">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -21444,7 +21452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:15">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -21489,7 +21497,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:15">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -21534,7 +21542,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:15">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -21579,7 +21587,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:15">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -21624,7 +21632,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:15">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -21667,7 +21675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:15">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -21710,7 +21718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:15">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -21753,7 +21761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:15">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -21796,7 +21804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:15">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -21839,7 +21847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:19">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -21887,7 +21895,7 @@
       <c r="R353" s="29"/>
       <c r="S353" s="29"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:19">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -21932,7 +21940,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:19">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -21977,7 +21985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:19">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -22022,7 +22030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:19">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -22067,7 +22075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:19">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -22104,7 +22112,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:19">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -22141,7 +22149,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:19">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -22186,7 +22194,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:19">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -22231,7 +22239,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:19">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -22275,7 +22283,7 @@
       </c>
       <c r="O362" s="24"/>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:19">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -22319,7 +22327,7 @@
       </c>
       <c r="O363" s="24"/>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:19">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -22363,7 +22371,7 @@
       </c>
       <c r="O364" s="24"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:19">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -22407,7 +22415,7 @@
       </c>
       <c r="O365" s="24"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:19">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -22451,7 +22459,7 @@
       </c>
       <c r="O366" s="24"/>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:19">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -22496,7 +22504,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:19">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -22533,7 +22541,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="369" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:15" s="1" customFormat="1">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -22575,7 +22583,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="370" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:15" s="1" customFormat="1">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -22617,7 +22625,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="371" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:15" s="1" customFormat="1">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -22659,7 +22667,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="372" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:15" s="1" customFormat="1">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -22701,7 +22709,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="373" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:15" s="1" customFormat="1">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -22743,7 +22751,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="374" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:15" s="1" customFormat="1">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -22785,7 +22793,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="375" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:15" s="1" customFormat="1">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -22827,7 +22835,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="376" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:15" s="1" customFormat="1">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -22869,7 +22877,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:15">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -22913,7 +22921,7 @@
       </c>
       <c r="O377" s="24"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:15">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -22956,7 +22964,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:15">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -23000,7 +23008,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:15">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -23043,7 +23051,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:15">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -23086,7 +23094,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:15">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -23129,7 +23137,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:15">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -23172,7 +23180,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:15">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -23215,7 +23223,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:15">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -23258,7 +23266,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:15">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -23301,7 +23309,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:15">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -23344,7 +23352,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:15">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -23387,7 +23395,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:15">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -23429,7 +23437,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:15">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -23466,7 +23474,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:15">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -23503,7 +23511,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:15">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -23548,7 +23556,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:15">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -23590,7 +23598,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:15">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -23632,7 +23640,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:15">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -23674,7 +23682,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:15">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -23716,7 +23724,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:15">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -23758,7 +23766,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:15">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -23803,7 +23811,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:15">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -23847,7 +23855,7 @@
       </c>
       <c r="O399" s="24"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:15">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -23889,7 +23897,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:15">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -23932,7 +23940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:15">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -23974,7 +23982,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:15">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -24011,7 +24019,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:15">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -24048,7 +24056,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:15">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -24085,7 +24093,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:15">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -24128,7 +24136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:15">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -24171,7 +24179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:15">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -24215,7 +24223,7 @@
       </c>
       <c r="O408" s="24"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:15">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -24259,7 +24267,7 @@
       </c>
       <c r="O409" s="24"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:15">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -24303,7 +24311,7 @@
       </c>
       <c r="O410" s="24"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:15">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -24348,7 +24356,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:15">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -24393,7 +24401,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:15">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -24438,7 +24446,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:15">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -24483,7 +24491,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:15">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -24527,7 +24535,7 @@
       </c>
       <c r="O415" s="24"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:15">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -24571,7 +24579,7 @@
       </c>
       <c r="O416" s="24"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:15">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -24615,7 +24623,7 @@
       </c>
       <c r="O417" s="24"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:15">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -24659,7 +24667,7 @@
       </c>
       <c r="O418" s="24"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:15">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -24703,7 +24711,7 @@
       </c>
       <c r="O419" s="24"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:15">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -24747,7 +24755,7 @@
       </c>
       <c r="O420" s="24"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:15">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -24791,7 +24799,7 @@
       </c>
       <c r="O421" s="24"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:15">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -24835,7 +24843,7 @@
       </c>
       <c r="O422" s="24"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:15">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -24879,7 +24887,7 @@
       </c>
       <c r="O423" s="24"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:15">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -24924,7 +24932,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:15">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -24967,7 +24975,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:15">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -25010,7 +25018,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:15">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -25053,7 +25061,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:15">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -25097,7 +25105,7 @@
       </c>
       <c r="O428" s="24"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:15">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -25140,7 +25148,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:15">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -25183,7 +25191,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:15">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -25228,7 +25236,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:15">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -25271,7 +25279,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:15">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -25314,7 +25322,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:15">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -25357,7 +25365,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:15">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -25400,7 +25408,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:15">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -25443,7 +25451,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:15">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -25486,7 +25494,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:15">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -25529,7 +25537,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:15">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -25572,7 +25580,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:15">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -25615,7 +25623,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:15">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -25658,7 +25666,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:15">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -25702,7 +25710,7 @@
       </c>
       <c r="O442" s="24"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:15">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -25746,7 +25754,7 @@
       </c>
       <c r="O443" s="24"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:15">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -25788,7 +25796,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:15">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -25831,7 +25839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:15">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -25873,7 +25881,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:15">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -25915,7 +25923,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:15">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -25957,7 +25965,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:14">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -25999,7 +26007,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:14">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -26041,7 +26049,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:14">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -26083,7 +26091,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:14">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -26125,7 +26133,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:14">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -26167,7 +26175,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:14">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -26212,7 +26220,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:14">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -26257,7 +26265,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:14">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -26299,7 +26307,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:14">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -26341,7 +26349,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:14">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -26383,7 +26391,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:14">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -26425,7 +26433,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:14">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -26467,7 +26475,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:14">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -26509,7 +26517,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:14">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -26551,7 +26559,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:14">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -26596,7 +26604,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:14">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -26641,7 +26649,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:14">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -26683,7 +26691,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:14">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -26725,7 +26733,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:14">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -26767,7 +26775,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:14">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -26809,7 +26817,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:14">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -26851,7 +26859,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:14">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -26893,7 +26901,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:14">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -26935,7 +26943,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:14">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -26977,7 +26985,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:14">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -27020,7 +27028,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:14">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -27065,7 +27073,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:14">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -27110,7 +27118,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:14">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -27155,7 +27163,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:14">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -27200,7 +27208,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:14">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -27242,7 +27250,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:14">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -27284,7 +27292,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:14">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -27326,7 +27334,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:14">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -27371,7 +27379,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:14">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -27416,7 +27424,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:14">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -27461,7 +27469,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:14">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -27504,7 +27512,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:14">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -27547,7 +27555,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:14">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -27590,7 +27598,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:14">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -27633,7 +27641,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:14">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -27676,7 +27684,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:14">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -27719,7 +27727,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:14">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -27760,7 +27768,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:14">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -27805,7 +27813,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:14">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -27850,7 +27858,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:14">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -27895,7 +27903,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:14">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -27940,7 +27948,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:14">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -27985,7 +27993,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:14">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -28030,7 +28038,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:14">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -28073,7 +28081,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:14">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -28116,7 +28124,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:14">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -28159,7 +28167,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:14">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -28202,7 +28210,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:14">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -28245,7 +28253,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:14">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -28288,7 +28296,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:14">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -28331,7 +28339,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:14">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -28374,7 +28382,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:14">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -28417,7 +28425,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:14">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -28460,7 +28468,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:14">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -28503,7 +28511,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:14">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -28546,7 +28554,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:14">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -28589,7 +28597,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:14">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -28632,7 +28640,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:14">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -28675,7 +28683,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:14">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -28718,7 +28726,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:14">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -28761,7 +28769,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:14">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -28804,7 +28812,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:14">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -28847,7 +28855,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:14">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -28890,7 +28898,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:14">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -28933,7 +28941,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:14">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -28976,7 +28984,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:14">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -29019,7 +29027,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:14">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -29062,7 +29070,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:14">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -29105,7 +29113,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:14">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -29148,7 +29156,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:14">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -29189,7 +29197,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:14">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -29232,7 +29240,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:14">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -29275,7 +29283,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:14">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -29316,7 +29324,7 @@
       </c>
       <c r="N526" s="1"/>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:14">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -29358,7 +29366,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:14">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -29403,7 +29411,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:14">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -29448,7 +29456,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:14">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -29493,7 +29501,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:14">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -29535,7 +29543,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:14">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -29577,7 +29585,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:14">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -29619,7 +29627,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:14">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -29659,7 +29667,7 @@
       </c>
       <c r="N534" s="1"/>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:14">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -29701,7 +29709,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:14">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -29743,7 +29751,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:14">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -29788,7 +29796,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:14">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -29829,7 +29837,7 @@
       </c>
       <c r="N538" s="1"/>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:14">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -29870,7 +29878,7 @@
       </c>
       <c r="N539" s="1"/>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:14">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -29913,7 +29921,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:14">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -29956,7 +29964,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:14">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -29999,7 +30007,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:14">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -30042,7 +30050,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:14">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -30085,7 +30093,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:14">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -30128,7 +30136,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:14">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -30171,7 +30179,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:14">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -30214,7 +30222,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:14">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -30257,7 +30265,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:14">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -30300,7 +30308,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:14">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -30343,7 +30351,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:14">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -30386,7 +30394,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:14">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -30429,7 +30437,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:14">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -30474,7 +30482,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:14">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -30519,7 +30527,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:14">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -30564,7 +30572,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:14">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -30609,7 +30617,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:14">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -30654,7 +30662,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:14">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -30699,7 +30707,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:14">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -30744,7 +30752,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:14">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -30789,7 +30797,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:19">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -30840,7 +30848,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:19">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -30891,7 +30899,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:19">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -30942,7 +30950,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:19">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -30993,7 +31001,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="565" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:19" s="1" customFormat="1">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -31033,7 +31041,7 @@
       </c>
       <c r="S565" s="43"/>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:19">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -31084,7 +31092,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:19">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -31135,7 +31143,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:19">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -31180,7 +31188,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:19">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -31225,7 +31233,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:19">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -31270,7 +31278,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:19">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -31315,7 +31323,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:19">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -31360,7 +31368,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:19">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -31405,7 +31413,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:19">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -31450,7 +31458,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:19">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -31495,7 +31503,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:19">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -31540,7 +31548,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:14">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -31585,7 +31593,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:14">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -31630,7 +31638,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:14">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -31675,7 +31683,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:14">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -31720,7 +31728,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:14">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -31765,7 +31773,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:14">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -31810,7 +31818,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:14">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -31855,7 +31863,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:14">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -31900,7 +31908,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:14">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -31945,7 +31953,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:14">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -31990,7 +31998,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:14">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -32035,7 +32043,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:14">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -32080,7 +32088,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:14">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -32125,7 +32133,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:14">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -32170,7 +32178,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:14">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -32215,7 +32223,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:14">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -32260,7 +32268,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:14">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -32305,7 +32313,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:14">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -32350,7 +32358,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:14">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -32395,7 +32403,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:14">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -32440,7 +32448,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:14">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -32485,7 +32493,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:14">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -32530,7 +32538,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:14">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -32575,7 +32583,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:14">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -32620,7 +32628,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:14">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -32665,7 +32673,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:14">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -32710,7 +32718,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:14">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -32755,7 +32763,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:14">
       <c r="A604" s="1">
         <v>603</v>
       </c>
@@ -32800,7 +32808,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:14">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -32845,7 +32853,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:14">
       <c r="A606" s="1">
         <v>605</v>
       </c>
@@ -32890,7 +32898,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:14">
       <c r="A607" s="1">
         <v>606</v>
       </c>
@@ -32935,7 +32943,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:14">
       <c r="A608" s="1">
         <v>607</v>
       </c>
@@ -32980,7 +32988,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:14">
       <c r="A609" s="1">
         <v>608</v>
       </c>
@@ -33025,7 +33033,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:14">
       <c r="A610" s="1">
         <v>609</v>
       </c>
@@ -33070,7 +33078,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:14">
       <c r="A611" s="1">
         <v>610</v>
       </c>
@@ -33115,7 +33123,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:14">
       <c r="A612" s="1">
         <v>611</v>
       </c>
@@ -33160,7 +33168,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:14">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -33205,7 +33213,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:14">
       <c r="A614" s="1">
         <v>613</v>
       </c>
@@ -33250,7 +33258,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:14">
       <c r="A615" s="1">
         <v>614</v>
       </c>
@@ -33295,7 +33303,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:14">
       <c r="A616" s="1">
         <v>615</v>
       </c>
@@ -33340,7 +33348,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:14">
       <c r="A617" s="1">
         <v>616</v>
       </c>
@@ -33385,7 +33393,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:14">
       <c r="A618" s="1">
         <v>617</v>
       </c>
@@ -33430,7 +33438,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:14">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -33475,7 +33483,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:14">
       <c r="A620" s="1">
         <v>619</v>
       </c>
@@ -33520,7 +33528,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:14">
       <c r="A621" s="1">
         <v>620</v>
       </c>
@@ -33565,7 +33573,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:14">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -33610,7 +33618,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:14">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -33655,7 +33663,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:14">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -33700,7 +33708,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:14">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -33745,7 +33753,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:14">
       <c r="A626" s="1">
         <v>625</v>
       </c>
@@ -33790,7 +33798,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:14">
       <c r="A627" s="1">
         <v>626</v>
       </c>
@@ -33835,7 +33843,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:14">
       <c r="A628" s="1">
         <v>627</v>
       </c>
@@ -33880,7 +33888,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:14">
       <c r="A629" s="1">
         <v>628</v>
       </c>
@@ -33925,7 +33933,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:14">
       <c r="A630" s="1">
         <v>629</v>
       </c>
@@ -33970,7 +33978,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:14">
       <c r="A631" s="1">
         <v>630</v>
       </c>
@@ -34015,7 +34023,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:14">
       <c r="A632" s="1">
         <v>631</v>
       </c>
@@ -34060,7 +34068,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:14">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -34105,7 +34113,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:14">
       <c r="A634" s="1">
         <v>633</v>
       </c>
@@ -34150,7 +34158,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:14">
       <c r="A635" s="1">
         <v>634</v>
       </c>
@@ -34195,7 +34203,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:14">
       <c r="A636" s="1">
         <v>635</v>
       </c>
@@ -34240,7 +34248,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:14">
       <c r="A637" s="1">
         <v>636</v>
       </c>
@@ -34285,7 +34293,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:14">
       <c r="A638" s="1">
         <v>637</v>
       </c>
@@ -34330,7 +34338,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:14">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -34375,7 +34383,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:14">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -34420,7 +34428,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:14">
       <c r="A641" s="1">
         <v>640</v>
       </c>
@@ -34465,7 +34473,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:14">
       <c r="A642" s="1">
         <v>641</v>
       </c>
@@ -34510,7 +34518,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:14">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -34555,7 +34563,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:14">
       <c r="A644" s="1">
         <v>643</v>
       </c>
@@ -34600,7 +34608,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:14">
       <c r="A645" s="1">
         <v>644</v>
       </c>
@@ -34645,7 +34653,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:14">
       <c r="A646" s="1">
         <v>645</v>
       </c>
@@ -34690,7 +34698,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:14">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -34735,7 +34743,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:14">
       <c r="A648" s="1">
         <v>647</v>
       </c>
@@ -34780,7 +34788,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:14">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -34825,7 +34833,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:14">
       <c r="A650" s="1">
         <v>649</v>
       </c>
@@ -34870,7 +34878,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:14">
       <c r="A651" s="1">
         <v>650</v>
       </c>
@@ -34915,7 +34923,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:14">
       <c r="A652" s="1">
         <v>651</v>
       </c>
@@ -34960,7 +34968,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:14">
       <c r="A653" s="1">
         <v>652</v>
       </c>
@@ -35005,7 +35013,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:14">
       <c r="A654" s="1">
         <v>653</v>
       </c>
@@ -35050,7 +35058,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:14">
       <c r="A655" s="1">
         <v>654</v>
       </c>
@@ -35095,7 +35103,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:14">
       <c r="A656" s="1">
         <v>655</v>
       </c>
@@ -35140,7 +35148,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:14">
       <c r="A657" s="1">
         <v>656</v>
       </c>
@@ -35185,7 +35193,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:14">
       <c r="A658" s="1">
         <v>657</v>
       </c>
@@ -35230,7 +35238,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:14">
       <c r="A659" s="1">
         <v>658</v>
       </c>
@@ -35275,7 +35283,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:14">
       <c r="A660" s="1">
         <v>659</v>
       </c>
@@ -35320,7 +35328,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:14">
       <c r="A661" s="1">
         <v>660</v>
       </c>
@@ -35365,7 +35373,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:14">
       <c r="A662" s="1">
         <v>661</v>
       </c>
@@ -35410,7 +35418,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:14">
       <c r="A663" s="1">
         <v>662</v>
       </c>
@@ -35455,7 +35463,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:14">
       <c r="A664" s="1">
         <v>663</v>
       </c>
@@ -35500,7 +35508,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:14">
       <c r="A665" s="1">
         <v>664</v>
       </c>
@@ -35545,7 +35553,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:14">
       <c r="A666" s="1">
         <v>665</v>
       </c>
@@ -35590,7 +35598,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:14">
       <c r="A667" s="1">
         <v>666</v>
       </c>
@@ -35635,7 +35643,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:14">
       <c r="A668" s="1">
         <v>667</v>
       </c>
@@ -35679,7 +35687,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:14">
       <c r="A669" s="1">
         <v>668</v>
       </c>
@@ -35723,7 +35731,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:14">
       <c r="A670" s="1">
         <v>669</v>
       </c>
@@ -35767,7 +35775,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:14">
       <c r="A671" s="1">
         <v>670</v>
       </c>
@@ -35811,7 +35819,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:14">
       <c r="A672" s="1">
         <v>671</v>
       </c>
@@ -35855,7 +35863,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:14">
       <c r="A673" s="1">
         <v>672</v>
       </c>
@@ -35899,7 +35907,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:14">
       <c r="A674" s="1">
         <v>673</v>
       </c>
@@ -35943,7 +35951,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:14">
       <c r="A675" s="1">
         <v>674</v>
       </c>
@@ -35987,7 +35995,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:14">
       <c r="A676" s="1">
         <v>675</v>
       </c>
@@ -36031,7 +36039,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:14">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -36075,7 +36083,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:14">
       <c r="A678" s="1">
         <v>677</v>
       </c>
@@ -36119,7 +36127,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:14">
       <c r="A679" s="1">
         <v>678</v>
       </c>
@@ -36163,7 +36171,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:14">
       <c r="A680" s="1">
         <v>679</v>
       </c>
@@ -36207,7 +36215,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:14">
       <c r="A681" s="1">
         <v>680</v>
       </c>
@@ -36251,7 +36259,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:14">
       <c r="A682" s="1">
         <v>681</v>
       </c>
@@ -36295,7 +36303,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:14">
       <c r="A683" s="1">
         <v>682</v>
       </c>
@@ -36339,7 +36347,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:14">
       <c r="A684" s="1">
         <v>683</v>
       </c>
@@ -36383,7 +36391,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:14">
       <c r="A685" s="1">
         <v>684</v>
       </c>
@@ -36427,7 +36435,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="686" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:14">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -36471,7 +36479,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="687" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:14">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -36515,7 +36523,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:14">
       <c r="A688" s="1">
         <v>687</v>
       </c>
@@ -36559,7 +36567,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="689" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:14">
       <c r="A689" s="1">
         <v>688</v>
       </c>
@@ -36603,7 +36611,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="690" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:14">
       <c r="A690" s="1">
         <v>689</v>
       </c>
@@ -36647,7 +36655,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="691" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:14">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -36691,7 +36699,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="692" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:14">
       <c r="A692" s="1">
         <v>691</v>
       </c>
@@ -36735,7 +36743,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="693" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:14">
       <c r="A693" s="1">
         <v>692</v>
       </c>
@@ -36779,7 +36787,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="694" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:14">
       <c r="A694" s="1">
         <v>693</v>
       </c>
@@ -36823,7 +36831,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="695" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:14">
       <c r="A695" s="1">
         <v>694</v>
       </c>
@@ -36867,7 +36875,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="696" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:14">
       <c r="A696" s="1">
         <v>695</v>
       </c>
@@ -36911,7 +36919,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="697" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:14">
       <c r="A697" s="1">
         <v>696</v>
       </c>
@@ -36955,7 +36963,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="698" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:14">
       <c r="A698" s="1">
         <v>697</v>
       </c>
@@ -36999,7 +37007,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="699" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:14">
       <c r="A699" s="1">
         <v>698</v>
       </c>
@@ -37043,7 +37051,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="700" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:14">
       <c r="A700" s="1">
         <v>699</v>
       </c>
@@ -37087,7 +37095,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="701" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:14">
       <c r="A701" s="1">
         <v>700</v>
       </c>
@@ -37131,7 +37139,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="702" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:14">
       <c r="A702" s="1">
         <v>701</v>
       </c>
@@ -37175,7 +37183,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="703" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:14">
       <c r="A703" s="1">
         <v>702</v>
       </c>
@@ -37219,7 +37227,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="704" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:14">
       <c r="A704" s="1">
         <v>703</v>
       </c>
@@ -37263,7 +37271,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="705" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:14">
       <c r="A705" s="1">
         <v>704</v>
       </c>
@@ -37307,7 +37315,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="706" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:14">
       <c r="A706" s="1">
         <v>705</v>
       </c>
@@ -37351,7 +37359,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="707" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:14">
       <c r="A707" s="1">
         <v>706</v>
       </c>
@@ -37395,7 +37403,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:14">
       <c r="A708" s="1">
         <v>707</v>
       </c>
@@ -37439,7 +37447,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="709" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:14">
       <c r="A709" s="1">
         <v>708</v>
       </c>
@@ -37483,7 +37491,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="710" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:14">
       <c r="A710" s="1">
         <v>709</v>
       </c>
@@ -37527,7 +37535,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="711" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:14">
       <c r="A711" s="1">
         <v>710</v>
       </c>
@@ -37571,7 +37579,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="712" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:14">
       <c r="A712" s="1">
         <v>711</v>
       </c>
@@ -37615,7 +37623,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="713" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:14">
       <c r="A713" s="1">
         <v>712</v>
       </c>
@@ -37659,7 +37667,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="714" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:14">
       <c r="A714" s="1">
         <v>713</v>
       </c>
@@ -37703,7 +37711,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="715" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:14">
       <c r="A715" s="1">
         <v>714</v>
       </c>
@@ -37747,7 +37755,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="716" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:14">
       <c r="A716" s="1">
         <v>715</v>
       </c>
@@ -37791,7 +37799,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="717" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:14">
       <c r="A717" s="1">
         <v>716</v>
       </c>
@@ -37835,7 +37843,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="718" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:14">
       <c r="A718" s="1">
         <v>717</v>
       </c>
@@ -37879,7 +37887,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="719" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:14">
       <c r="A719" s="1">
         <v>718</v>
       </c>
@@ -37923,7 +37931,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="720" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:14">
       <c r="A720" s="1">
         <v>719</v>
       </c>
@@ -37965,7 +37973,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="721" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:14">
       <c r="A721" s="1">
         <v>720</v>
       </c>
@@ -38007,7 +38015,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="722" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:14">
       <c r="A722" s="1">
         <v>721</v>
       </c>
@@ -38046,7 +38054,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="723" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:14">
       <c r="A723" s="1">
         <v>722</v>
       </c>
@@ -38088,7 +38096,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="724" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:14">
       <c r="A724" s="1">
         <v>723</v>
       </c>
@@ -38132,7 +38140,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="725" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:14">
       <c r="A725" s="1">
         <v>724</v>
       </c>
@@ -38176,7 +38184,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="726" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:14">
       <c r="A726" s="1">
         <v>725</v>
       </c>
@@ -38220,7 +38228,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="727" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:14">
       <c r="A727" s="1">
         <v>726</v>
       </c>
@@ -38264,7 +38272,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="728" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:14">
       <c r="A728" s="1">
         <v>727</v>
       </c>
@@ -38308,7 +38316,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="729" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:14">
       <c r="A729" s="1">
         <v>728</v>
       </c>
@@ -38352,7 +38360,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="730" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:14">
       <c r="A730" s="1">
         <v>729</v>
       </c>
@@ -38396,7 +38404,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="731" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:14">
       <c r="A731" s="1">
         <v>730</v>
       </c>
@@ -38440,7 +38448,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="732" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:14">
       <c r="A732" s="1">
         <v>731</v>
       </c>
@@ -38484,7 +38492,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="733" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:14">
       <c r="A733" s="1">
         <v>732</v>
       </c>
@@ -38528,7 +38536,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="734" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:14">
       <c r="A734" s="1">
         <v>733</v>
       </c>
@@ -38572,7 +38580,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="735" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:14">
       <c r="A735" s="1">
         <v>734</v>
       </c>
@@ -38616,7 +38624,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="736" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:14">
       <c r="A736" s="1">
         <v>735</v>
       </c>
@@ -38660,7 +38668,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="737" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:14">
       <c r="A737" s="1">
         <v>736</v>
       </c>
@@ -38705,7 +38713,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="738" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:14">
       <c r="A738" s="1">
         <v>737</v>
       </c>
@@ -38750,7 +38758,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="739" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:14">
       <c r="A739" s="1">
         <v>738</v>
       </c>
@@ -38795,7 +38803,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="740" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:14">
       <c r="A740" s="1">
         <v>739</v>
       </c>
@@ -38840,7 +38848,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="741" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:14">
       <c r="A741" s="1">
         <v>740</v>
       </c>
@@ -38885,7 +38893,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="742" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:14">
       <c r="A742" s="1">
         <v>741</v>
       </c>
@@ -38930,7 +38938,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="743" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:14">
       <c r="A743" s="1">
         <v>742</v>
       </c>
@@ -38975,7 +38983,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="744" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:14">
       <c r="A744" s="1">
         <v>743</v>
       </c>
@@ -39020,7 +39028,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="745" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:14">
       <c r="A745" s="1">
         <v>744</v>
       </c>
@@ -39065,7 +39073,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="746" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:14">
       <c r="A746" s="1">
         <v>745</v>
       </c>
@@ -39110,7 +39118,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="747" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:14">
       <c r="A747" s="1">
         <v>746</v>
       </c>
@@ -39155,7 +39163,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="748" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:14">
       <c r="A748" s="1">
         <v>747</v>
       </c>
@@ -39200,7 +39208,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="749" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:14">
       <c r="A749" s="1">
         <v>748</v>
       </c>
@@ -39245,7 +39253,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="750" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:14">
       <c r="A750" s="1">
         <v>749</v>
       </c>
@@ -39290,7 +39298,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="751" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:14">
       <c r="A751" s="1">
         <v>750</v>
       </c>
@@ -39335,7 +39343,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="752" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:14">
       <c r="A752" s="1">
         <v>751</v>
       </c>
@@ -39380,7 +39388,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="753" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:14">
       <c r="A753" s="1">
         <v>752</v>
       </c>
@@ -39425,7 +39433,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="754" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:14">
       <c r="A754" s="1">
         <v>753</v>
       </c>
@@ -39470,7 +39478,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="755" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:14">
       <c r="A755" s="1">
         <v>754</v>
       </c>
@@ -39515,7 +39523,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="756" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:14">
       <c r="A756" s="1">
         <v>755</v>
       </c>
@@ -39560,7 +39568,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="757" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:14">
       <c r="A757" s="1">
         <v>756</v>
       </c>
@@ -39605,7 +39613,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="758" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:14">
       <c r="A758" s="1">
         <v>757</v>
       </c>
@@ -39650,7 +39658,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="759" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:14">
       <c r="A759" s="1">
         <v>758</v>
       </c>
@@ -39695,7 +39703,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="760" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:14">
       <c r="A760" s="1">
         <v>759</v>
       </c>
@@ -39740,7 +39748,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="761" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:14">
       <c r="A761" s="1">
         <v>760</v>
       </c>
@@ -39785,7 +39793,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="762" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:14">
       <c r="A762" s="1">
         <v>761</v>
       </c>
@@ -39830,7 +39838,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="763" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:14">
       <c r="A763" s="1">
         <v>762</v>
       </c>
@@ -39875,7 +39883,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="764" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:14">
       <c r="A764" s="1">
         <v>763</v>
       </c>
@@ -39920,7 +39928,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="765" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:14">
       <c r="A765" s="1">
         <v>764</v>
       </c>
@@ -39965,7 +39973,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="766" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:14">
       <c r="A766" s="1">
         <v>765</v>
       </c>
@@ -40010,7 +40018,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="767" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:14">
       <c r="A767" s="1">
         <v>766</v>
       </c>
@@ -40055,7 +40063,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="768" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:14">
       <c r="A768" s="1">
         <v>767</v>
       </c>
@@ -40100,7 +40108,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="769" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:14">
       <c r="A769" s="1">
         <v>768</v>
       </c>
@@ -40145,7 +40153,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:14">
       <c r="A770" s="1">
         <v>769</v>
       </c>
@@ -40190,7 +40198,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:14">
       <c r="A771" s="1">
         <v>770</v>
       </c>
@@ -40235,7 +40243,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:14">
       <c r="A772" s="1">
         <v>771</v>
       </c>
@@ -40280,7 +40288,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:14">
       <c r="A773" s="1">
         <v>772</v>
       </c>
@@ -40325,7 +40333,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="774" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:14">
       <c r="A774" s="1">
         <v>773</v>
       </c>
@@ -40370,7 +40378,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:14">
       <c r="A775" s="1">
         <v>774</v>
       </c>
@@ -40415,7 +40423,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:14">
       <c r="A776" s="1">
         <v>775</v>
       </c>
@@ -40460,7 +40468,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:14">
       <c r="A777" s="1">
         <v>776</v>
       </c>
@@ -40505,7 +40513,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:14">
       <c r="A778" s="1">
         <v>777</v>
       </c>
@@ -40550,7 +40558,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:14">
       <c r="A779" s="1">
         <v>778</v>
       </c>
@@ -40595,7 +40603,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:14">
       <c r="A780" s="1">
         <v>779</v>
       </c>
@@ -40640,7 +40648,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="781" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:14">
       <c r="A781" s="1">
         <v>780</v>
       </c>
@@ -40685,7 +40693,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="782" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:14">
       <c r="A782" s="1">
         <v>781</v>
       </c>
@@ -40730,7 +40738,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="783" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:14">
       <c r="A783" s="1">
         <v>782</v>
       </c>
@@ -40775,7 +40783,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="784" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:14">
       <c r="A784" s="1">
         <v>783</v>
       </c>
@@ -40820,7 +40828,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:14">
       <c r="A785" s="1">
         <v>784</v>
       </c>
@@ -40865,7 +40873,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="786" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:14">
       <c r="A786" s="1">
         <v>785</v>
       </c>
@@ -40910,7 +40918,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="787" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:14">
       <c r="A787" s="1">
         <v>786</v>
       </c>
@@ -40955,7 +40963,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="788" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:14">
       <c r="A788" s="1">
         <v>787</v>
       </c>
@@ -41000,7 +41008,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="789" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:14">
       <c r="A789" s="1">
         <v>788</v>
       </c>
@@ -41045,7 +41053,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="790" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:14">
       <c r="A790" s="1">
         <v>789</v>
       </c>
@@ -41090,7 +41098,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="791" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:14">
       <c r="A791" s="1">
         <v>790</v>
       </c>
@@ -41135,7 +41143,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="792" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:14">
       <c r="A792" s="1">
         <v>791</v>
       </c>
@@ -41180,7 +41188,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="793" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:14">
       <c r="A793" s="1">
         <v>792</v>
       </c>
@@ -41225,7 +41233,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="794" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:14">
       <c r="A794" s="1">
         <v>793</v>
       </c>
@@ -41270,7 +41278,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="795" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:14">
       <c r="A795" s="1">
         <v>794</v>
       </c>
@@ -41315,7 +41323,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:14">
       <c r="A796" s="1">
         <v>795</v>
       </c>
@@ -41360,7 +41368,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:14">
       <c r="A797" s="1">
         <v>796</v>
       </c>
@@ -41405,7 +41413,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="798" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:14">
       <c r="A798" s="1">
         <v>797</v>
       </c>
@@ -41450,7 +41458,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="799" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:14">
       <c r="A799" s="1">
         <v>798</v>
       </c>
@@ -41495,7 +41503,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="800" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:14">
       <c r="A800" s="1">
         <v>799</v>
       </c>
@@ -41540,7 +41548,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="801" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:14">
       <c r="A801" s="1">
         <v>800</v>
       </c>
@@ -41584,7 +41592,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="802" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:14">
       <c r="A802" s="1">
         <v>801</v>
       </c>
@@ -41628,7 +41636,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="803" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:14">
       <c r="A803" s="1">
         <v>802</v>
       </c>
@@ -41672,7 +41680,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="804" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:14">
       <c r="A804" s="1">
         <v>803</v>
       </c>
@@ -41716,7 +41724,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="805" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:14">
       <c r="A805" s="1">
         <v>804</v>
       </c>
@@ -41760,7 +41768,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="806" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:14">
       <c r="A806" s="1">
         <v>805</v>
       </c>
@@ -41804,7 +41812,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="807" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:14">
       <c r="A807" s="1">
         <v>806</v>
       </c>
@@ -41848,7 +41856,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="808" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:14">
       <c r="A808" s="1">
         <v>807</v>
       </c>
@@ -41892,7 +41900,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="809" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:14">
       <c r="A809" s="1">
         <v>808</v>
       </c>
@@ -41936,7 +41944,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="810" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:14">
       <c r="A810" s="1">
         <v>809</v>
       </c>
@@ -41980,7 +41988,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="811" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:14">
       <c r="A811" s="1">
         <v>810</v>
       </c>
@@ -42024,7 +42032,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="812" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:14">
       <c r="A812" s="1">
         <v>811</v>
       </c>
@@ -42068,7 +42076,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="813" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:14">
       <c r="A813" s="1">
         <v>812</v>
       </c>
@@ -42112,7 +42120,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="814" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:14">
       <c r="A814" s="1">
         <v>813</v>
       </c>
@@ -42156,7 +42164,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="815" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:14">
       <c r="A815" s="1">
         <v>814</v>
       </c>
@@ -42200,7 +42208,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="816" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:14">
       <c r="A816" s="1">
         <v>815</v>
       </c>
@@ -42244,7 +42252,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="817" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:14">
       <c r="A817" s="1">
         <v>816</v>
       </c>
@@ -42288,7 +42296,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="818" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:14">
       <c r="A818" s="1">
         <v>817</v>
       </c>
@@ -42332,7 +42340,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="819" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:14">
       <c r="A819" s="1">
         <v>818</v>
       </c>
@@ -42376,7 +42384,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="820" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:14">
       <c r="A820" s="1">
         <v>819</v>
       </c>
@@ -42420,7 +42428,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="821" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:14">
       <c r="A821" s="1">
         <v>820</v>
       </c>
@@ -42464,7 +42472,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="822" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:14">
       <c r="A822" s="1">
         <v>821</v>
       </c>
@@ -42508,7 +42516,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="823" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:14">
       <c r="A823" s="1">
         <v>822</v>
       </c>
@@ -42552,7 +42560,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="824" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:14">
       <c r="A824" s="1">
         <v>823</v>
       </c>
@@ -42596,7 +42604,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="825" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:14">
       <c r="A825" s="1">
         <v>824</v>
       </c>
@@ -42640,7 +42648,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="826" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:14">
       <c r="A826" s="1">
         <v>825</v>
       </c>
@@ -42684,7 +42692,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="827" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:14">
       <c r="A827" s="1">
         <v>826</v>
       </c>
@@ -42728,7 +42736,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="828" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:14">
       <c r="A828" s="1">
         <v>827</v>
       </c>
@@ -42772,7 +42780,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="829" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:14">
       <c r="A829" s="1">
         <v>828</v>
       </c>
@@ -42816,7 +42824,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="830" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:14">
       <c r="A830" s="1">
         <v>829</v>
       </c>
@@ -42860,7 +42868,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="831" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:14">
       <c r="A831" s="1">
         <v>830</v>
       </c>
@@ -42904,7 +42912,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="832" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:14">
       <c r="A832" s="1">
         <v>831</v>
       </c>
@@ -42948,7 +42956,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="833" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:14">
       <c r="A833" s="1">
         <v>832</v>
       </c>
@@ -42992,7 +43000,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="834" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:14">
       <c r="A834" s="1">
         <v>833</v>
       </c>
@@ -43036,7 +43044,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="835" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:14">
       <c r="A835" s="1">
         <v>834</v>
       </c>
@@ -43080,7 +43088,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="836" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:14">
       <c r="A836" s="1">
         <v>835</v>
       </c>
@@ -43124,7 +43132,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="837" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:14">
       <c r="A837" s="1">
         <v>836</v>
       </c>
@@ -43168,7 +43176,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="838" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:14">
       <c r="A838" s="1">
         <v>837</v>
       </c>
@@ -43212,7 +43220,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="839" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:14">
       <c r="A839" s="1">
         <v>838</v>
       </c>
@@ -43256,7 +43264,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="840" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:14">
       <c r="A840" s="1">
         <v>839</v>
       </c>
@@ -43300,7 +43308,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="841" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:14">
       <c r="A841" s="1">
         <v>840</v>
       </c>
@@ -43344,7 +43352,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="842" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:14">
       <c r="A842" s="1">
         <v>841</v>
       </c>
@@ -43388,7 +43396,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="843" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:14">
       <c r="A843" s="1">
         <v>842</v>
       </c>
@@ -43432,7 +43440,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="844" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:14">
       <c r="A844" s="1">
         <v>843</v>
       </c>
@@ -43476,7 +43484,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="845" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:14">
       <c r="A845" s="1">
         <v>844</v>
       </c>
@@ -43520,7 +43528,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="846" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:14">
       <c r="A846" s="1">
         <v>845</v>
       </c>
@@ -43564,7 +43572,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="847" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:14">
       <c r="A847" s="1">
         <v>846</v>
       </c>
@@ -43608,7 +43616,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="848" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:14">
       <c r="A848" s="1">
         <v>847</v>
       </c>
@@ -43652,7 +43660,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="849" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:14">
       <c r="A849" s="1">
         <v>848</v>
       </c>
@@ -43696,7 +43704,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="850" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:14">
       <c r="A850" s="1">
         <v>849</v>
       </c>
@@ -43740,7 +43748,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="851" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:14">
       <c r="A851" s="1">
         <v>850</v>
       </c>
@@ -43784,7 +43792,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="852" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:14">
       <c r="A852" s="1">
         <v>851</v>
       </c>
@@ -43828,7 +43836,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="853" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:14">
       <c r="A853" s="1">
         <v>852</v>
       </c>
@@ -43873,7 +43881,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="854" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:14">
       <c r="A854" s="1">
         <v>853</v>
       </c>
@@ -43918,7 +43926,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="855" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:14">
       <c r="A855" s="1">
         <v>854</v>
       </c>
@@ -43963,7 +43971,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="856" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:14">
       <c r="A856" s="1">
         <v>855</v>
       </c>
@@ -44008,7 +44016,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="857" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:14">
       <c r="A857" s="1">
         <v>856</v>
       </c>
@@ -44053,7 +44061,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="858" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:14">
       <c r="A858" s="1">
         <v>857</v>
       </c>
@@ -44098,7 +44106,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="859" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:14">
       <c r="A859" s="1">
         <v>858</v>
       </c>
@@ -44143,7 +44151,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="860" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:14">
       <c r="A860" s="1">
         <v>859</v>
       </c>
@@ -44188,7 +44196,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="861" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:14">
       <c r="A861" s="1">
         <v>860</v>
       </c>
@@ -44233,7 +44241,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="862" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:14">
       <c r="A862" s="1">
         <v>861</v>
       </c>
@@ -44278,7 +44286,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="863" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:14">
       <c r="A863" s="1">
         <v>862</v>
       </c>
@@ -44323,7 +44331,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="864" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:14">
       <c r="A864" s="1">
         <v>863</v>
       </c>
@@ -44368,7 +44376,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="865" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:14">
       <c r="A865" s="1">
         <v>864</v>
       </c>
@@ -44413,7 +44421,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="866" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:14">
       <c r="A866" s="1">
         <v>865</v>
       </c>
@@ -44458,7 +44466,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="867" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:14">
       <c r="A867" s="1">
         <v>866</v>
       </c>
@@ -44503,7 +44511,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="868" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:14">
       <c r="A868" s="1">
         <v>867</v>
       </c>
@@ -44548,7 +44556,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="869" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:14">
       <c r="A869" s="1">
         <v>868</v>
       </c>
@@ -44593,7 +44601,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="870" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:14">
       <c r="A870" s="1">
         <v>869</v>
       </c>
@@ -44638,7 +44646,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="871" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:14">
       <c r="A871" s="1">
         <v>870</v>
       </c>
@@ -44683,7 +44691,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="872" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:14">
       <c r="A872" s="1">
         <v>871</v>
       </c>
@@ -44728,7 +44736,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="873" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:14">
       <c r="A873" s="1">
         <v>872</v>
       </c>
@@ -44773,7 +44781,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="874" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:14">
       <c r="A874" s="1">
         <v>873</v>
       </c>
@@ -44818,7 +44826,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="875" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:14">
       <c r="A875" s="1">
         <v>874</v>
       </c>
@@ -44863,7 +44871,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="876" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:14">
       <c r="A876" s="1">
         <v>875</v>
       </c>
@@ -44908,7 +44916,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="877" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:14">
       <c r="A877" s="1">
         <v>876</v>
       </c>
@@ -44953,7 +44961,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="878" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:14">
       <c r="A878" s="1">
         <v>877</v>
       </c>
@@ -44998,7 +45006,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="879" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:14">
       <c r="A879" s="1">
         <v>878</v>
       </c>
@@ -45043,7 +45051,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="880" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:14">
       <c r="A880" s="1">
         <v>879</v>
       </c>
@@ -45088,7 +45096,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="881" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:14">
       <c r="A881" s="1">
         <v>880</v>
       </c>
@@ -45133,7 +45141,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="882" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:14">
       <c r="A882" s="1">
         <v>881</v>
       </c>
@@ -45178,7 +45186,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="883" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:14">
       <c r="A883" s="1">
         <v>882</v>
       </c>
@@ -45223,7 +45231,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="884" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:14">
       <c r="A884" s="1">
         <v>883</v>
       </c>
@@ -45268,7 +45276,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="885" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:14">
       <c r="A885" s="1">
         <v>884</v>
       </c>
@@ -45313,7 +45321,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="886" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:14">
       <c r="A886" s="1">
         <v>885</v>
       </c>
@@ -45358,7 +45366,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="887" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:14">
       <c r="A887" s="1">
         <v>886</v>
       </c>
@@ -45403,7 +45411,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="888" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:14">
       <c r="A888" s="1">
         <v>887</v>
       </c>
@@ -45448,7 +45456,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="889" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:14">
       <c r="A889" s="1">
         <v>888</v>
       </c>
@@ -45493,7 +45501,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="890" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:14">
       <c r="A890" s="1">
         <v>889</v>
       </c>
@@ -45538,7 +45546,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="891" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:14">
       <c r="A891" s="1">
         <v>890</v>
       </c>
@@ -45583,7 +45591,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="892" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:14">
       <c r="A892" s="1">
         <v>891</v>
       </c>
@@ -45628,7 +45636,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="893" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:14">
       <c r="A893" s="1">
         <v>892</v>
       </c>
@@ -45673,7 +45681,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="894" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:14">
       <c r="A894" s="1">
         <v>893</v>
       </c>
@@ -45718,7 +45726,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="895" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:14">
       <c r="A895" s="1">
         <v>894</v>
       </c>
@@ -45763,7 +45771,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="896" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:14">
       <c r="A896" s="1">
         <v>895</v>
       </c>
@@ -45808,7 +45816,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="897" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:14">
       <c r="A897" s="1">
         <v>896</v>
       </c>
@@ -45853,7 +45861,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="898" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:14">
       <c r="A898" s="1">
         <v>897</v>
       </c>
@@ -45898,7 +45906,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="899" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:14">
       <c r="A899" s="1">
         <v>898</v>
       </c>
@@ -45943,7 +45951,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="900" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:14">
       <c r="A900" s="1">
         <v>899</v>
       </c>
@@ -45988,7 +45996,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="901" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:14">
       <c r="A901" s="1">
         <v>900</v>
       </c>
@@ -46033,7 +46041,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="902" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:14">
       <c r="A902" s="1">
         <v>901</v>
       </c>
@@ -46078,7 +46086,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="903" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:14">
       <c r="A903" s="1">
         <v>902</v>
       </c>
@@ -46123,7 +46131,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="904" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:14">
       <c r="A904" s="1">
         <v>903</v>
       </c>
@@ -46168,7 +46176,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="905" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:14">
       <c r="A905" s="1">
         <v>904</v>
       </c>
@@ -46213,7 +46221,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="906" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:14">
       <c r="A906" s="1">
         <v>905</v>
       </c>
@@ -46258,7 +46266,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="907" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:14">
       <c r="A907" s="1">
         <v>906</v>
       </c>
@@ -46303,7 +46311,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="908" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:14">
       <c r="A908" s="1">
         <v>907</v>
       </c>
@@ -46348,7 +46356,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="909" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:14">
       <c r="A909" s="1">
         <v>908</v>
       </c>
@@ -46393,7 +46401,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="910" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:14">
       <c r="A910" s="1">
         <v>909</v>
       </c>
@@ -46438,7 +46446,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="911" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:14">
       <c r="A911" s="1">
         <v>910</v>
       </c>
@@ -46483,7 +46491,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="912" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:14">
       <c r="A912" s="1">
         <v>911</v>
       </c>
@@ -46528,7 +46536,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="913" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:14">
       <c r="A913" s="1">
         <v>912</v>
       </c>
@@ -46573,7 +46581,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="914" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:14">
       <c r="A914" s="1">
         <v>913</v>
       </c>
@@ -46618,7 +46626,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="915" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:14">
       <c r="A915" s="1">
         <v>914</v>
       </c>
@@ -46663,7 +46671,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="916" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:14">
       <c r="A916" s="1">
         <v>915</v>
       </c>
@@ -46708,7 +46716,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="917" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:14">
       <c r="A917" s="1">
         <v>916</v>
       </c>
@@ -46753,7 +46761,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="918" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:14">
       <c r="A918" s="1">
         <v>917</v>
       </c>
@@ -46798,7 +46806,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="919" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:14">
       <c r="A919" s="1">
         <v>918</v>
       </c>
@@ -46843,7 +46851,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="920" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:14">
       <c r="A920" s="1">
         <v>919</v>
       </c>
@@ -46888,7 +46896,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="921" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:14">
       <c r="A921" s="1">
         <v>920</v>
       </c>
@@ -46933,7 +46941,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="922" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:14">
       <c r="A922" s="1">
         <v>921</v>
       </c>
@@ -46978,7 +46986,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="923" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:14">
       <c r="A923" s="1">
         <v>922</v>
       </c>
@@ -47023,7 +47031,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="924" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:14">
       <c r="A924" s="1">
         <v>923</v>
       </c>
@@ -47068,7 +47076,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="925" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:14">
       <c r="A925" s="1">
         <v>924</v>
       </c>
@@ -47113,7 +47121,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="926" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:14">
       <c r="A926" s="1">
         <v>925</v>
       </c>
@@ -47158,7 +47166,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="927" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:14">
       <c r="A927" s="1">
         <v>926</v>
       </c>
@@ -47203,7 +47211,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="928" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:14">
       <c r="A928" s="1">
         <v>927</v>
       </c>
@@ -47248,7 +47256,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="929" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:14">
       <c r="A929" s="1">
         <v>928</v>
       </c>
@@ -47293,7 +47301,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="930" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:14">
       <c r="A930" s="1">
         <v>929</v>
       </c>
@@ -47338,7 +47346,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="931" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:14">
       <c r="A931" s="1">
         <v>930</v>
       </c>
@@ -47383,7 +47391,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="932" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:14">
       <c r="A932" s="1">
         <v>931</v>
       </c>
@@ -47428,7 +47436,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="933" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:14">
       <c r="A933" s="1">
         <v>932</v>
       </c>
@@ -47473,7 +47481,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="934" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:14">
       <c r="A934" s="1">
         <v>933</v>
       </c>
@@ -47518,7 +47526,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="935" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:14">
       <c r="A935" s="1">
         <v>934</v>
       </c>
@@ -47563,7 +47571,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="936" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:14">
       <c r="A936" s="1">
         <v>935</v>
       </c>
@@ -47608,7 +47616,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="937" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:14">
       <c r="A937" s="1">
         <v>936</v>
       </c>
@@ -47653,7 +47661,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="938" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:14">
       <c r="A938" s="1">
         <v>937</v>
       </c>
@@ -47698,7 +47706,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="939" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:14">
       <c r="A939" s="1">
         <v>938</v>
       </c>
@@ -47743,7 +47751,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="940" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:14">
       <c r="A940" s="1">
         <v>939</v>
       </c>
@@ -47788,7 +47796,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="941" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:14">
       <c r="A941" s="1">
         <v>940</v>
       </c>
@@ -47833,7 +47841,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="942" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:14">
       <c r="A942" s="1">
         <v>941</v>
       </c>
@@ -47878,7 +47886,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="943" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:14">
       <c r="A943" s="1">
         <v>942</v>
       </c>
@@ -47923,7 +47931,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="944" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:14">
       <c r="A944" s="1">
         <v>943</v>
       </c>
@@ -47968,7 +47976,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="945" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:14">
       <c r="A945" s="1">
         <v>944</v>
       </c>
@@ -48013,7 +48021,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="946" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:14">
       <c r="A946" s="1">
         <v>945</v>
       </c>
@@ -48058,7 +48066,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="947" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:14">
       <c r="A947" s="1">
         <v>946</v>
       </c>
@@ -48103,7 +48111,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="948" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:14">
       <c r="A948" s="1">
         <v>947</v>
       </c>
@@ -48148,7 +48156,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="949" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:14">
       <c r="A949" s="1">
         <v>948</v>
       </c>
@@ -48193,7 +48201,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="950" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:14">
       <c r="A950" s="1">
         <v>949</v>
       </c>
@@ -48238,7 +48246,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="951" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:14">
       <c r="A951" s="1">
         <v>950</v>
       </c>
@@ -48283,7 +48291,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="952" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:14">
       <c r="A952" s="1">
         <v>951</v>
       </c>
@@ -48328,7 +48336,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="953" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:14">
       <c r="A953" s="1">
         <v>952</v>
       </c>
@@ -48373,7 +48381,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="954" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:14">
       <c r="A954" s="1">
         <v>953</v>
       </c>
@@ -48418,7 +48426,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="955" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:14">
       <c r="A955" s="1">
         <v>954</v>
       </c>
@@ -48463,7 +48471,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="956" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:14">
       <c r="A956" s="1">
         <v>955</v>
       </c>
@@ -48508,7 +48516,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="957" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:14">
       <c r="A957" s="1">
         <v>956</v>
       </c>
@@ -48553,7 +48561,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="958" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:14">
       <c r="A958" s="1">
         <v>957</v>
       </c>
@@ -48597,7 +48605,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="959" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:14">
       <c r="A959" s="1">
         <v>958</v>
       </c>
@@ -48641,7 +48649,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="960" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:14">
       <c r="A960" s="1">
         <v>959</v>
       </c>
@@ -48685,7 +48693,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="961" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:14">
       <c r="A961" s="1">
         <v>960</v>
       </c>
@@ -48729,7 +48737,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="962" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:14">
       <c r="A962" s="1">
         <v>961</v>
       </c>
@@ -48773,7 +48781,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="963" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:14">
       <c r="A963" s="1">
         <v>962</v>
       </c>
@@ -48817,7 +48825,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="964" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:14">
       <c r="A964" s="1">
         <v>963</v>
       </c>
@@ -48861,7 +48869,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="965" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:14">
       <c r="A965" s="1">
         <v>964</v>
       </c>
@@ -48905,7 +48913,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="966" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:14">
       <c r="A966" s="1">
         <v>965</v>
       </c>
@@ -48949,7 +48957,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="967" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:14">
       <c r="A967" s="1">
         <v>966</v>
       </c>
@@ -48993,7 +49001,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="968" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:14">
       <c r="A968" s="1">
         <v>967</v>
       </c>
@@ -49037,7 +49045,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="969" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:14">
       <c r="A969" s="1">
         <v>968</v>
       </c>
@@ -49081,7 +49089,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="970" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:14">
       <c r="A970" s="1">
         <v>969</v>
       </c>
@@ -49125,7 +49133,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="971" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:14">
       <c r="A971" s="1">
         <v>970</v>
       </c>
@@ -49169,7 +49177,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="972" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:14">
       <c r="A972" s="1">
         <v>971</v>
       </c>
@@ -49213,7 +49221,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="973" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:14">
       <c r="A973" s="1">
         <v>972</v>
       </c>
@@ -49257,7 +49265,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="974" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:14">
       <c r="A974" s="1">
         <v>973</v>
       </c>
@@ -49301,7 +49309,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="975" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:14">
       <c r="A975" s="1">
         <v>974</v>
       </c>
@@ -49345,7 +49353,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="976" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:14">
       <c r="A976" s="1">
         <v>975</v>
       </c>
@@ -49389,7 +49397,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="977" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:14">
       <c r="A977" s="1">
         <v>976</v>
       </c>
@@ -49433,7 +49441,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="978" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:14">
       <c r="A978" s="1">
         <v>977</v>
       </c>
@@ -49477,7 +49485,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="979" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:14" s="1" customFormat="1">
       <c r="A979" s="1">
         <v>978</v>
       </c>
@@ -49521,7 +49529,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="980" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:14">
       <c r="A980" s="1">
         <v>979</v>
       </c>
@@ -49565,7 +49573,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="981" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:14">
       <c r="A981" s="1">
         <v>980</v>
       </c>
@@ -49609,7 +49617,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="982" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:14">
       <c r="A982" s="1">
         <v>981</v>
       </c>
@@ -49653,7 +49661,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="983" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:14">
       <c r="A983" s="1">
         <v>982</v>
       </c>
@@ -49697,7 +49705,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="984" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:14">
       <c r="A984" s="1">
         <v>983</v>
       </c>
@@ -49741,7 +49749,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="985" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:14">
       <c r="A985" s="1">
         <v>984</v>
       </c>
@@ -49785,7 +49793,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="986" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:14">
       <c r="A986" s="1">
         <v>985</v>
       </c>
@@ -49829,7 +49837,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="987" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:14">
       <c r="A987" s="1">
         <v>986</v>
       </c>
@@ -49873,7 +49881,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="988" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:14">
       <c r="A988" s="1">
         <v>987</v>
       </c>
@@ -49917,7 +49925,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="989" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:14">
       <c r="A989" s="1">
         <v>988</v>
       </c>
@@ -49961,7 +49969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="990" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:14">
       <c r="A990" s="1">
         <v>989</v>
       </c>
@@ -50005,7 +50013,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="991" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:14">
       <c r="A991" s="1">
         <v>990</v>
       </c>
@@ -50049,7 +50057,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="992" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="992" spans="1:14">
       <c r="A992" s="1">
         <v>991</v>
       </c>
@@ -50093,11 +50101,269 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A993" s="1"/>
-      <c r="B993" s="41"/>
-      <c r="D993" s="6"/>
-      <c r="F993" s="6"/>
+    <row r="993" spans="1:14">
+      <c r="A993" s="1">
+        <v>992</v>
+      </c>
+      <c r="B993" s="41" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C993" s="38">
+        <v>42687</v>
+      </c>
+      <c r="D993" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E993" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="F993" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G993">
+        <v>12</v>
+      </c>
+      <c r="H993" s="44">
+        <v>0</v>
+      </c>
+      <c r="I993" s="44">
+        <v>0</v>
+      </c>
+      <c r="J993" s="44">
+        <v>0</v>
+      </c>
+      <c r="K993" s="44">
+        <v>102</v>
+      </c>
+      <c r="L993" t="s">
+        <v>376</v>
+      </c>
+      <c r="M993" t="s">
+        <v>116</v>
+      </c>
+      <c r="N993" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="994" spans="1:14">
+      <c r="A994" s="1">
+        <v>993</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C994" s="38">
+        <v>42682</v>
+      </c>
+      <c r="D994" t="s">
+        <v>98</v>
+      </c>
+      <c r="E994" s="44">
+        <v>400</v>
+      </c>
+      <c r="F994" t="s">
+        <v>14</v>
+      </c>
+      <c r="G994">
+        <v>1</v>
+      </c>
+      <c r="H994" s="44">
+        <v>0</v>
+      </c>
+      <c r="I994" s="44">
+        <v>0</v>
+      </c>
+      <c r="J994" s="44">
+        <v>0</v>
+      </c>
+      <c r="K994" s="44">
+        <v>400</v>
+      </c>
+      <c r="L994" t="s">
+        <v>376</v>
+      </c>
+      <c r="M994" t="s">
+        <v>116</v>
+      </c>
+      <c r="N994" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="995" spans="1:14">
+      <c r="A995" s="1">
+        <v>994</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C995" s="38">
+        <v>42682</v>
+      </c>
+      <c r="D995" t="s">
+        <v>98</v>
+      </c>
+      <c r="E995" s="44">
+        <v>400</v>
+      </c>
+      <c r="F995" t="s">
+        <v>14</v>
+      </c>
+      <c r="G995">
+        <v>1</v>
+      </c>
+      <c r="H995" s="44">
+        <v>0</v>
+      </c>
+      <c r="I995" s="44">
+        <v>0</v>
+      </c>
+      <c r="J995" s="44">
+        <v>0</v>
+      </c>
+      <c r="K995" s="44">
+        <v>400</v>
+      </c>
+      <c r="L995" t="s">
+        <v>376</v>
+      </c>
+      <c r="M995" t="s">
+        <v>116</v>
+      </c>
+      <c r="N995" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="996" spans="1:14">
+      <c r="A996" s="1">
+        <v>995</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C996" s="38">
+        <v>42682</v>
+      </c>
+      <c r="D996" t="s">
+        <v>98</v>
+      </c>
+      <c r="E996" s="44">
+        <v>400</v>
+      </c>
+      <c r="F996" t="s">
+        <v>14</v>
+      </c>
+      <c r="G996">
+        <v>1</v>
+      </c>
+      <c r="H996" s="44">
+        <v>0</v>
+      </c>
+      <c r="I996" s="44">
+        <v>0</v>
+      </c>
+      <c r="J996" s="44">
+        <v>0</v>
+      </c>
+      <c r="K996" s="44">
+        <v>400</v>
+      </c>
+      <c r="L996" t="s">
+        <v>376</v>
+      </c>
+      <c r="M996" t="s">
+        <v>116</v>
+      </c>
+      <c r="N996" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="997" spans="1:14">
+      <c r="A997" s="1">
+        <v>996</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C997" s="38">
+        <v>42682</v>
+      </c>
+      <c r="D997" t="s">
+        <v>98</v>
+      </c>
+      <c r="E997" s="44">
+        <v>400</v>
+      </c>
+      <c r="F997" t="s">
+        <v>14</v>
+      </c>
+      <c r="G997">
+        <v>1</v>
+      </c>
+      <c r="H997" s="44">
+        <v>0</v>
+      </c>
+      <c r="I997" s="44">
+        <v>0</v>
+      </c>
+      <c r="J997" s="44">
+        <v>0</v>
+      </c>
+      <c r="K997" s="44">
+        <v>400</v>
+      </c>
+      <c r="L997" t="s">
+        <v>376</v>
+      </c>
+      <c r="M997" t="s">
+        <v>116</v>
+      </c>
+      <c r="N997" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="998" spans="1:14">
+      <c r="A998" s="1">
+        <v>997</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C998" s="38">
+        <v>42682</v>
+      </c>
+      <c r="D998" t="s">
+        <v>98</v>
+      </c>
+      <c r="E998" s="44">
+        <v>400</v>
+      </c>
+      <c r="F998" t="s">
+        <v>14</v>
+      </c>
+      <c r="G998">
+        <v>1</v>
+      </c>
+      <c r="H998" s="44">
+        <v>0</v>
+      </c>
+      <c r="I998" s="44">
+        <v>0</v>
+      </c>
+      <c r="J998" s="44">
+        <v>0</v>
+      </c>
+      <c r="K998" s="44">
+        <v>400</v>
+      </c>
+      <c r="L998" t="s">
+        <v>376</v>
+      </c>
+      <c r="M998" t="s">
+        <v>116</v>
+      </c>
+      <c r="N998" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R948">
@@ -50112,39 +50378,39 @@
   <conditionalFormatting sqref="B1">
     <cfRule type="colorScale" priority="62">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B555 B557">
-    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+  <conditionalFormatting sqref="B557 B555">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="52" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="53">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -50152,32 +50418,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B611:B666">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="42" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="43" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -50185,29 +50451,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B369:B376">
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -50215,29 +50481,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B804:B817">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -50245,29 +50511,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B934">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -50275,29 +50541,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:B933 B1:B368 B556 B377:B554 B558:B610 B667:B803 B935:B978 B987:B1048576">
-    <cfRule type="cellIs" dxfId="11" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="63" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="64" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="65" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="66" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="67" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="68" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -50305,29 +50571,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B979:B986">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -50409,16 +50675,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -50426,7 +50692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -50434,7 +50700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -50442,7 +50708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>293</v>
       </c>

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Documents\TUSmart\AboutMoney2017\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$948</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5582" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5594" uniqueCount="1378">
   <si>
     <t>编号</t>
   </si>
@@ -5509,11 +5509,51 @@
     <t>有</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000元发票</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>信标组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>9V干电池-万用表所用</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
@@ -6564,11 +6604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1011"/>
+  <dimension ref="A1:S1013"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A982" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1014" sqref="F1014"/>
+      <pane ySplit="1" topLeftCell="A988" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1013" sqref="N1013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6690,7 +6730,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>91932.513999999996</v>
+        <v>92092.513999999996</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -51062,6 +51102,94 @@
       </c>
       <c r="N1011" s="6" t="s">
         <v>1342</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1012" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B1012" s="41" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1012" s="38">
+        <v>42685</v>
+      </c>
+      <c r="D1012" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E1012" s="44">
+        <v>0</v>
+      </c>
+      <c r="F1012" s="6" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G1012" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1012" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1012" s="44">
+        <v>150</v>
+      </c>
+      <c r="J1012" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1012" s="44">
+        <v>150</v>
+      </c>
+      <c r="L1012" s="6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="M1012" s="6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="N1012" s="6" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1013" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B1013" s="41" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1013" s="38">
+        <v>42696</v>
+      </c>
+      <c r="D1013" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E1013" s="44">
+        <v>5</v>
+      </c>
+      <c r="F1013" s="6" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G1013" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1013" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1013" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1013" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1013" s="44">
+        <v>10</v>
+      </c>
+      <c r="L1013" s="6" t="s">
+        <v>1376</v>
+      </c>
+      <c r="M1013" s="6" t="s">
+        <v>1377</v>
+      </c>
+      <c r="N1013" s="6" t="s">
+        <v>1373</v>
       </c>
     </row>
   </sheetData>
@@ -51086,7 +51214,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B555 B557">
+  <conditionalFormatting sqref="B557 B555">
     <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
       <formula>$B$431</formula>
     </cfRule>

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5594" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5654" uniqueCount="1407">
   <si>
     <t>编号</t>
   </si>
@@ -5547,6 +5547,122 @@
   </si>
   <si>
     <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>山外K60DN核心板</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>信标组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>标贴（纯白）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>信标组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>标贴（红框）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>本（12张）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋（12张）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>把</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色美工刀+5片刀片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色美工刀</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>502强力胶3g</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>支</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>记号笔（6黑3蓝3红12支【小双头】）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>双面胶带</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋（12卷）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡棉双面胶</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>信标组</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -5925,7 +6041,111 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="52">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6180,58 +6400,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -6255,8 +6423,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="wholeTable" dxfId="51"/>
+      <tableStyleElement type="headerRow" dxfId="50"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6604,11 +6772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1013"/>
+  <dimension ref="A1:S1023"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A988" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1013" sqref="N1013"/>
+      <pane ySplit="1" topLeftCell="A997" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1026" sqref="D1026"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6730,7 +6898,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>92092.513999999996</v>
+        <v>92556.724000000002</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -51190,6 +51358,446 @@
       </c>
       <c r="N1013" s="6" t="s">
         <v>1373</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1014" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B1014" s="41" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C1014" s="38">
+        <v>42694</v>
+      </c>
+      <c r="D1014" s="6" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E1014" s="44">
+        <v>185</v>
+      </c>
+      <c r="F1014" s="6" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G1014" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1014" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1014" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1014" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1014" s="44">
+        <v>370</v>
+      </c>
+      <c r="L1014" s="6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="M1014" s="6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="N1014" s="6" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1015" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B1015" s="41" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C1015" s="38">
+        <v>42696</v>
+      </c>
+      <c r="D1015" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E1015" s="44">
+        <v>1.65</v>
+      </c>
+      <c r="F1015" s="6" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G1015" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1015" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1015" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1015" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1015" s="44">
+        <v>1.65</v>
+      </c>
+      <c r="L1015" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M1015" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N1015" s="6" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1016" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B1016" s="41" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C1016" s="38">
+        <v>42696</v>
+      </c>
+      <c r="D1016" s="6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E1016" s="44">
+        <v>1.65</v>
+      </c>
+      <c r="F1016" s="6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G1016" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1016" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1016" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1016" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1016" s="44">
+        <v>1.65</v>
+      </c>
+      <c r="L1016" s="6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="M1016" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N1016" s="6" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1017" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B1017" s="41" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1017" s="38">
+        <v>42696</v>
+      </c>
+      <c r="D1017" s="6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E1017" s="44">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F1017" s="6" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G1017" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1017" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1017" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1017" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1017" s="44">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L1017" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M1017" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N1017" s="6" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1018" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B1018" s="41" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1018" s="38">
+        <v>42696</v>
+      </c>
+      <c r="D1018" s="6" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E1018" s="44">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F1018" s="6" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G1018" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1018" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1018" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1018" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1018" s="44">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L1018" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M1018" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N1018" s="6" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1019" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B1019" s="41" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1019" s="38">
+        <v>42696</v>
+      </c>
+      <c r="D1019" s="6" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E1019" s="44">
+        <v>6.21</v>
+      </c>
+      <c r="F1019" s="6" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G1019" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1019" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1019" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1019" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1019" s="44">
+        <v>6.21</v>
+      </c>
+      <c r="L1019" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M1019" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N1019" s="6" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1020" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B1020" s="41" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1020" s="38">
+        <v>42696</v>
+      </c>
+      <c r="D1020" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E1020" s="44">
+        <v>1</v>
+      </c>
+      <c r="F1020" s="6" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G1020" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1020" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1020" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1020" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1020" s="44">
+        <v>10</v>
+      </c>
+      <c r="L1020" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M1020" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N1020" s="6" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1021" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B1021" s="41" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1021" s="38">
+        <v>42696</v>
+      </c>
+      <c r="D1021" s="6" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E1021" s="44">
+        <v>1</v>
+      </c>
+      <c r="F1021" s="6" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G1021" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1021" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1021" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1021" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1021" s="44">
+        <v>12</v>
+      </c>
+      <c r="L1021" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M1021" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N1021" s="6" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1022" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B1022" s="41" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1022" s="38">
+        <v>42696</v>
+      </c>
+      <c r="D1022" s="6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E1022" s="44">
+        <v>16.8</v>
+      </c>
+      <c r="F1022" s="6" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G1022" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1022" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1022" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1022" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1022" s="44">
+        <v>33.6</v>
+      </c>
+      <c r="L1022" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M1022" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N1022" s="6" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1023" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B1023" s="41" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1023" s="38">
+        <v>42696</v>
+      </c>
+      <c r="D1023" s="6" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E1023" s="44">
+        <v>1.9</v>
+      </c>
+      <c r="F1023" s="6" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G1023" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1023" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1023" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1023" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1023" s="44">
+        <v>9.5</v>
+      </c>
+      <c r="L1023" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M1023" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N1023" s="6" t="s">
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
@@ -51215,22 +51823,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B557 B555">
-    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="53">
@@ -51245,25 +51853,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B611:B666">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -51278,22 +51886,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B369:B376">
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -51308,22 +51916,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B804:B817">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -51338,22 +51946,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B934">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -51368,22 +51976,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:B933 B1:B368 B556 B377:B554 B558:B610 B667:B803 B935:B978 B987:B1048576">
-    <cfRule type="cellIs" dxfId="11" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="63" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="64" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="65" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="66" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="67" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="68" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="69">
@@ -51398,22 +52006,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B979:B986">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$948</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5654" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5660" uniqueCount="1413">
   <si>
     <t>编号</t>
   </si>
@@ -5663,6 +5659,30 @@
   </si>
   <si>
     <t>信标组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>张兆显</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000元发票</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电组</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -6041,7 +6061,7 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="57">
     <dxf>
       <fill>
         <patternFill>
@@ -6081,26 +6101,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6400,6 +6400,58 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -6423,8 +6475,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="51"/>
-      <tableStyleElement type="headerRow" dxfId="50"/>
+      <tableStyleElement type="wholeTable" dxfId="56"/>
+      <tableStyleElement type="headerRow" dxfId="55"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6772,30 +6824,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1023"/>
+  <dimension ref="A1:S1024"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A997" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1026" sqref="D1026"/>
+      <selection pane="bottomLeft" activeCell="C1026" sqref="C1026"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="49.625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.125" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="13" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6851,7 +6903,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6898,10 +6950,10 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>92556.724000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+        <v>92716.724000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6940,7 +6992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6982,7 +7034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7025,7 +7077,7 @@
       </c>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7067,7 +7119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7109,7 +7161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7151,7 +7203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7193,7 +7245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7237,7 +7289,7 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7281,7 +7333,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7323,7 +7375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7365,7 +7417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7407,7 +7459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7449,7 +7501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7491,7 +7543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7533,7 +7585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7575,7 +7627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7617,7 +7669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7659,7 +7711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7704,7 +7756,7 @@
       <c r="O21" s="3"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7748,7 +7800,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7790,7 +7842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7833,7 +7885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7876,7 +7928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7919,7 +7971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7962,7 +8014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8004,7 +8056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8046,7 +8098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8088,7 +8140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8130,7 +8182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8172,7 +8224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8214,7 +8266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8256,7 +8308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8298,7 +8350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8340,7 +8392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8382,7 +8434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8424,7 +8476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8466,7 +8518,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8508,7 +8560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8550,7 +8602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8592,7 +8644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8634,7 +8686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8676,7 +8728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8718,7 +8770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8763,7 +8815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8808,7 +8860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8853,7 +8905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8898,7 +8950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8943,7 +8995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8988,7 +9040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -9033,7 +9085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -9078,7 +9130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -9123,7 +9175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -9168,7 +9220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -9213,7 +9265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -9258,7 +9310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -9303,7 +9355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -9348,7 +9400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -9393,7 +9445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -9438,7 +9490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9483,7 +9535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9525,7 +9577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -9570,7 +9622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9615,7 +9667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9660,7 +9712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9705,7 +9757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9750,7 +9802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9795,7 +9847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9838,7 +9890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9881,7 +9933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9924,7 +9976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9967,7 +10019,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -10010,7 +10062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -10053,7 +10105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -10096,7 +10148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -10139,7 +10191,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -10182,7 +10234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10225,7 +10277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10270,7 +10322,7 @@
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10315,7 +10367,7 @@
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10358,7 +10410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10401,7 +10453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10444,7 +10496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10487,7 +10539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10530,7 +10582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10573,7 +10625,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10616,7 +10668,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10659,7 +10711,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10702,7 +10754,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -10745,7 +10797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -10787,7 +10839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -10829,7 +10881,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -10871,7 +10923,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -10913,7 +10965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -10955,7 +11007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10997,7 +11049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11039,7 +11091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -11084,7 +11136,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -11129,7 +11181,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -11174,7 +11226,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -11219,7 +11271,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -11264,7 +11316,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -11309,7 +11361,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -11351,7 +11403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -11393,7 +11445,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -11435,7 +11487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -11477,7 +11529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -11522,7 +11574,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11567,7 +11619,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11612,7 +11664,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11657,7 +11709,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11702,7 +11754,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11747,7 +11799,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11792,7 +11844,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11837,7 +11889,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11882,7 +11934,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11927,7 +11979,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11972,7 +12024,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -12017,7 +12069,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -12062,7 +12114,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -12107,7 +12159,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -12152,7 +12204,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -12197,7 +12249,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -12242,7 +12294,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -12287,7 +12339,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12332,7 +12384,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12377,7 +12429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12422,7 +12474,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12467,7 +12519,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12512,7 +12564,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12548,7 +12600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12593,7 +12645,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12638,7 +12690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12683,7 +12735,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12728,7 +12780,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12773,7 +12825,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12818,7 +12870,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12863,7 +12915,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -12908,7 +12960,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -12953,7 +13005,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -12998,7 +13050,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13043,7 +13095,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13088,7 +13140,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13133,7 +13185,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13178,7 +13230,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13223,7 +13275,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13268,7 +13320,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13313,7 +13365,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -13358,7 +13410,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -13403,7 +13455,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13448,7 +13500,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -13493,7 +13545,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -13538,7 +13590,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="155" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="29">
         <v>154</v>
       </c>
@@ -13584,7 +13636,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -13629,7 +13681,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -13674,7 +13726,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -13719,7 +13771,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -13764,7 +13816,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -13809,7 +13861,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -13854,7 +13906,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -13899,7 +13951,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -13944,7 +13996,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -13989,7 +14041,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -14034,7 +14086,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -14076,7 +14128,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -14118,7 +14170,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -14160,7 +14212,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -14202,7 +14254,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -14244,7 +14296,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -14286,7 +14338,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -14328,7 +14380,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -14370,7 +14422,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -14412,7 +14464,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -14454,7 +14506,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -14496,7 +14548,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -14538,7 +14590,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -14580,7 +14632,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -14622,7 +14674,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -14664,7 +14716,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -14710,7 +14762,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -14752,7 +14804,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -14795,7 +14847,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -14838,7 +14890,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -14881,7 +14933,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -14924,7 +14976,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -14967,7 +15019,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -15010,7 +15062,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -15054,7 +15106,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -15098,7 +15150,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="191" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="29">
         <v>190</v>
       </c>
@@ -15141,7 +15193,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -15185,7 +15237,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -15229,7 +15281,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -15275,7 +15327,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -15321,7 +15373,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -15367,7 +15419,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -15413,7 +15465,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -15459,7 +15511,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -15505,7 +15557,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -15551,7 +15603,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -15597,7 +15649,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -15643,7 +15695,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -15689,7 +15741,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -15735,7 +15787,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -15781,7 +15833,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -15827,7 +15879,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -15873,7 +15925,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -15919,7 +15971,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -15965,7 +16017,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -16011,7 +16063,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -16057,7 +16109,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -16103,7 +16155,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -16149,7 +16201,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -16195,7 +16247,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -16243,7 +16295,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -16289,7 +16341,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -16335,7 +16387,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -16381,7 +16433,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -16427,7 +16479,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -16473,7 +16525,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -16519,7 +16571,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -16565,7 +16617,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -16611,7 +16663,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -16657,7 +16709,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -16703,7 +16755,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -16749,7 +16801,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -16795,7 +16847,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -16840,7 +16892,7 @@
         <v>20150902</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -16882,7 +16934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -16924,7 +16976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -16966,7 +17018,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -17008,7 +17060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -17048,7 +17100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -17090,7 +17142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -17134,7 +17186,7 @@
       </c>
       <c r="O235" s="11"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -17177,7 +17229,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -17222,7 +17274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -17264,7 +17316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -17306,7 +17358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -17348,7 +17400,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -17390,7 +17442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -17432,7 +17484,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -17474,7 +17526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -17516,7 +17568,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -17558,7 +17610,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -17600,7 +17652,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -17642,7 +17694,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -17684,7 +17736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -17726,7 +17778,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -17768,7 +17820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -17810,7 +17862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -17852,7 +17904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -17894,7 +17946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -17936,7 +17988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -17978,7 +18030,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -18020,7 +18072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -18062,7 +18114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -18106,7 +18158,7 @@
       </c>
       <c r="O258" s="11"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -18148,7 +18200,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -18190,7 +18242,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -18232,7 +18284,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -18274,7 +18326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -18316,7 +18368,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -18358,7 +18410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -18400,7 +18452,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -18442,7 +18494,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -18484,7 +18536,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -18529,7 +18581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -18572,7 +18624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -18614,7 +18666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -18657,7 +18709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -18700,7 +18752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -18743,7 +18795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -18786,7 +18838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -18829,7 +18881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -18872,7 +18924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -18915,7 +18967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -18959,7 +19011,7 @@
       </c>
       <c r="O278" s="24"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -19002,7 +19054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -19045,7 +19097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -19088,7 +19140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -19131,7 +19183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -19174,7 +19226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -19217,7 +19269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -19260,7 +19312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -19303,7 +19355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -19346,7 +19398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -19390,7 +19442,7 @@
       </c>
       <c r="O288" s="15"/>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -19434,7 +19486,7 @@
       </c>
       <c r="O289" s="15"/>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -19478,7 +19530,7 @@
       </c>
       <c r="O290" s="15"/>
     </row>
-    <row r="291" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -19526,7 +19578,7 @@
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
     </row>
-    <row r="292" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -19574,7 +19626,7 @@
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -19618,7 +19670,7 @@
       </c>
       <c r="O293" s="24"/>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -19666,7 +19718,7 @@
       <c r="R294" s="29"/>
       <c r="S294" s="29"/>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -19714,7 +19766,7 @@
       <c r="R295" s="29"/>
       <c r="S295" s="29"/>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -19758,7 +19810,7 @@
       </c>
       <c r="O296" s="15"/>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -19801,7 +19853,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -19844,7 +19896,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -19887,7 +19939,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -19930,7 +19982,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -19973,7 +20025,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -20016,7 +20068,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -20059,7 +20111,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -20102,7 +20154,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -20145,7 +20197,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -20188,7 +20240,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -20231,7 +20283,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -20274,7 +20326,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -20317,7 +20369,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -20360,7 +20412,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -20403,7 +20455,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -20446,7 +20498,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -20489,7 +20541,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -20532,7 +20584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -20575,7 +20627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -20618,7 +20670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -20661,7 +20713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -20704,7 +20756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -20747,7 +20799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -20790,7 +20842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -20833,7 +20885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -20876,7 +20928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -20919,7 +20971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -20962,7 +21014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -21005,7 +21057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -21048,7 +21100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -21091,7 +21143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -21134,7 +21186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -21177,7 +21229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -21220,7 +21272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -21263,7 +21315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -21306,7 +21358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -21350,7 +21402,7 @@
       </c>
       <c r="O333" s="15"/>
     </row>
-    <row r="334" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -21398,7 +21450,7 @@
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -21441,7 +21493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -21484,7 +21536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -21527,7 +21579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -21571,7 +21623,7 @@
       </c>
       <c r="O338" s="24"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -21614,7 +21666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -21657,7 +21709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -21700,7 +21752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -21744,7 +21796,7 @@
       </c>
       <c r="O342" s="26"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -21787,7 +21839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -21832,7 +21884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -21877,7 +21929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -21922,7 +21974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -21967,7 +22019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -22010,7 +22062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -22053,7 +22105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -22096,7 +22148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -22139,7 +22191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -22182,7 +22234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -22230,7 +22282,7 @@
       <c r="R353" s="29"/>
       <c r="S353" s="29"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -22275,7 +22327,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -22320,7 +22372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -22365,7 +22417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -22410,7 +22462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -22447,7 +22499,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -22484,7 +22536,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -22529,7 +22581,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -22574,7 +22626,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -22618,7 +22670,7 @@
       </c>
       <c r="O362" s="24"/>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -22662,7 +22714,7 @@
       </c>
       <c r="O363" s="24"/>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -22706,7 +22758,7 @@
       </c>
       <c r="O364" s="24"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -22750,7 +22802,7 @@
       </c>
       <c r="O365" s="24"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -22794,7 +22846,7 @@
       </c>
       <c r="O366" s="24"/>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -22839,7 +22891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -22876,7 +22928,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="369" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -22918,7 +22970,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="370" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -22960,7 +23012,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="371" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -23002,7 +23054,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="372" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -23044,7 +23096,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="373" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -23086,7 +23138,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="374" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -23128,7 +23180,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="375" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -23170,7 +23222,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="376" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -23212,7 +23264,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -23256,7 +23308,7 @@
       </c>
       <c r="O377" s="24"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -23299,7 +23351,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -23343,7 +23395,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -23386,7 +23438,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -23429,7 +23481,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -23472,7 +23524,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -23515,7 +23567,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -23558,7 +23610,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -23601,7 +23653,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -23644,7 +23696,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -23687,7 +23739,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -23730,7 +23782,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -23772,7 +23824,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -23809,7 +23861,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -23846,7 +23898,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -23891,7 +23943,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -23933,7 +23985,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -23975,7 +24027,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -24017,7 +24069,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -24059,7 +24111,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -24101,7 +24153,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -24146,7 +24198,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -24190,7 +24242,7 @@
       </c>
       <c r="O399" s="24"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -24232,7 +24284,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -24275,7 +24327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -24317,7 +24369,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -24354,7 +24406,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -24391,7 +24443,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -24428,7 +24480,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -24471,7 +24523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -24514,7 +24566,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -24558,7 +24610,7 @@
       </c>
       <c r="O408" s="24"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -24602,7 +24654,7 @@
       </c>
       <c r="O409" s="24"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -24646,7 +24698,7 @@
       </c>
       <c r="O410" s="24"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -24691,7 +24743,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -24736,7 +24788,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -24781,7 +24833,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -24826,7 +24878,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -24870,7 +24922,7 @@
       </c>
       <c r="O415" s="24"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -24914,7 +24966,7 @@
       </c>
       <c r="O416" s="24"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -24958,7 +25010,7 @@
       </c>
       <c r="O417" s="24"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -25002,7 +25054,7 @@
       </c>
       <c r="O418" s="24"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -25046,7 +25098,7 @@
       </c>
       <c r="O419" s="24"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -25090,7 +25142,7 @@
       </c>
       <c r="O420" s="24"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -25134,7 +25186,7 @@
       </c>
       <c r="O421" s="24"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -25178,7 +25230,7 @@
       </c>
       <c r="O422" s="24"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -25222,7 +25274,7 @@
       </c>
       <c r="O423" s="24"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -25267,7 +25319,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -25310,7 +25362,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -25353,7 +25405,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -25396,7 +25448,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -25440,7 +25492,7 @@
       </c>
       <c r="O428" s="24"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -25483,7 +25535,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -25526,7 +25578,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -25571,7 +25623,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -25614,7 +25666,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -25657,7 +25709,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -25700,7 +25752,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -25743,7 +25795,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -25786,7 +25838,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -25829,7 +25881,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -25872,7 +25924,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -25915,7 +25967,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -25958,7 +26010,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -26001,7 +26053,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -26045,7 +26097,7 @@
       </c>
       <c r="O442" s="24"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -26089,7 +26141,7 @@
       </c>
       <c r="O443" s="24"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -26131,7 +26183,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -26174,7 +26226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -26216,7 +26268,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -26258,7 +26310,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -26300,7 +26352,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -26342,7 +26394,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -26384,7 +26436,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -26426,7 +26478,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -26468,7 +26520,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -26510,7 +26562,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -26555,7 +26607,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -26600,7 +26652,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -26642,7 +26694,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -26684,7 +26736,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -26726,7 +26778,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -26768,7 +26820,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -26810,7 +26862,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -26852,7 +26904,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -26894,7 +26946,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -26939,7 +26991,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -26984,7 +27036,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -27026,7 +27078,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -27068,7 +27120,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -27110,7 +27162,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -27152,7 +27204,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -27194,7 +27246,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -27236,7 +27288,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -27278,7 +27330,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -27320,7 +27372,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -27363,7 +27415,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -27408,7 +27460,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -27453,7 +27505,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -27498,7 +27550,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -27543,7 +27595,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -27585,7 +27637,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -27627,7 +27679,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -27669,7 +27721,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -27714,7 +27766,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -27759,7 +27811,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -27804,7 +27856,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -27847,7 +27899,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -27890,7 +27942,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -27933,7 +27985,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -27976,7 +28028,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -28019,7 +28071,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -28062,7 +28114,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -28103,7 +28155,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -28148,7 +28200,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -28193,7 +28245,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -28238,7 +28290,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -28283,7 +28335,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -28328,7 +28380,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -28373,7 +28425,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -28416,7 +28468,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -28459,7 +28511,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -28502,7 +28554,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -28545,7 +28597,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -28588,7 +28640,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -28631,7 +28683,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -28674,7 +28726,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -28717,7 +28769,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -28760,7 +28812,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -28803,7 +28855,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -28846,7 +28898,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -28889,7 +28941,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -28932,7 +28984,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -28975,7 +29027,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -29018,7 +29070,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -29061,7 +29113,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -29104,7 +29156,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -29147,7 +29199,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -29190,7 +29242,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -29233,7 +29285,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -29276,7 +29328,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -29319,7 +29371,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -29362,7 +29414,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -29405,7 +29457,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -29448,7 +29500,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -29491,7 +29543,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -29532,7 +29584,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -29575,7 +29627,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -29618,7 +29670,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -29659,7 +29711,7 @@
       </c>
       <c r="N526" s="1"/>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -29701,7 +29753,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -29746,7 +29798,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -29791,7 +29843,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -29836,7 +29888,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -29878,7 +29930,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -29920,7 +29972,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -29962,7 +30014,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -30002,7 +30054,7 @@
       </c>
       <c r="N534" s="1"/>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -30044,7 +30096,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -30086,7 +30138,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -30131,7 +30183,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -30172,7 +30224,7 @@
       </c>
       <c r="N538" s="1"/>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -30213,7 +30265,7 @@
       </c>
       <c r="N539" s="1"/>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -30256,7 +30308,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -30299,7 +30351,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -30342,7 +30394,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -30385,7 +30437,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -30428,7 +30480,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -30471,7 +30523,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -30514,7 +30566,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -30557,7 +30609,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -30600,7 +30652,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -30643,7 +30695,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -30686,7 +30738,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -30729,7 +30781,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -30772,7 +30824,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -30817,7 +30869,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -30862,7 +30914,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -30907,7 +30959,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -30952,7 +31004,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -30997,7 +31049,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -31042,7 +31094,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -31087,7 +31139,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -31132,7 +31184,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -31183,7 +31235,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -31234,7 +31286,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -31285,7 +31337,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -31336,7 +31388,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="565" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -31376,7 +31428,7 @@
       </c>
       <c r="S565" s="43"/>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -31427,7 +31479,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -31478,7 +31530,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -31523,7 +31575,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -31568,7 +31620,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -31613,7 +31665,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -31658,7 +31710,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -31703,7 +31755,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -31748,7 +31800,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -31793,7 +31845,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -31838,7 +31890,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -31883,7 +31935,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -31928,7 +31980,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -31973,7 +32025,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -32018,7 +32070,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -32063,7 +32115,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -32108,7 +32160,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -32153,7 +32205,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -32198,7 +32250,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -32243,7 +32295,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -32288,7 +32340,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -32333,7 +32385,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -32378,7 +32430,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -32423,7 +32475,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -32468,7 +32520,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -32513,7 +32565,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -32558,7 +32610,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -32603,7 +32655,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -32648,7 +32700,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -32693,7 +32745,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -32738,7 +32790,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -32783,7 +32835,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -32828,7 +32880,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -32873,7 +32925,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -32918,7 +32970,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -32963,7 +33015,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -33008,7 +33060,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -33053,7 +33105,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -33098,7 +33150,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>603</v>
       </c>
@@ -33143,7 +33195,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -33188,7 +33240,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>605</v>
       </c>
@@ -33233,7 +33285,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>606</v>
       </c>
@@ -33278,7 +33330,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>607</v>
       </c>
@@ -33323,7 +33375,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>608</v>
       </c>
@@ -33368,7 +33420,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>609</v>
       </c>
@@ -33413,7 +33465,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>610</v>
       </c>
@@ -33458,7 +33510,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>611</v>
       </c>
@@ -33503,7 +33555,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -33548,7 +33600,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>613</v>
       </c>
@@ -33593,7 +33645,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>614</v>
       </c>
@@ -33638,7 +33690,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>615</v>
       </c>
@@ -33683,7 +33735,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>616</v>
       </c>
@@ -33728,7 +33780,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>617</v>
       </c>
@@ -33773,7 +33825,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -33818,7 +33870,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>619</v>
       </c>
@@ -33863,7 +33915,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>620</v>
       </c>
@@ -33908,7 +33960,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -33953,7 +34005,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -33998,7 +34050,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -34043,7 +34095,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -34088,7 +34140,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>625</v>
       </c>
@@ -34133,7 +34185,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>626</v>
       </c>
@@ -34178,7 +34230,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>627</v>
       </c>
@@ -34223,7 +34275,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>628</v>
       </c>
@@ -34268,7 +34320,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>629</v>
       </c>
@@ -34313,7 +34365,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>630</v>
       </c>
@@ -34358,7 +34410,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>631</v>
       </c>
@@ -34403,7 +34455,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -34448,7 +34500,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>633</v>
       </c>
@@ -34493,7 +34545,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>634</v>
       </c>
@@ -34538,7 +34590,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>635</v>
       </c>
@@ -34583,7 +34635,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>636</v>
       </c>
@@ -34628,7 +34680,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>637</v>
       </c>
@@ -34673,7 +34725,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -34718,7 +34770,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -34763,7 +34815,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>640</v>
       </c>
@@ -34808,7 +34860,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>641</v>
       </c>
@@ -34853,7 +34905,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -34898,7 +34950,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>643</v>
       </c>
@@ -34943,7 +34995,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>644</v>
       </c>
@@ -34988,7 +35040,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>645</v>
       </c>
@@ -35033,7 +35085,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -35078,7 +35130,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>647</v>
       </c>
@@ -35123,7 +35175,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -35168,7 +35220,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>649</v>
       </c>
@@ -35213,7 +35265,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>650</v>
       </c>
@@ -35258,7 +35310,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>651</v>
       </c>
@@ -35303,7 +35355,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>652</v>
       </c>
@@ -35348,7 +35400,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>653</v>
       </c>
@@ -35393,7 +35445,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>654</v>
       </c>
@@ -35438,7 +35490,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>655</v>
       </c>
@@ -35483,7 +35535,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>656</v>
       </c>
@@ -35528,7 +35580,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>657</v>
       </c>
@@ -35573,7 +35625,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>658</v>
       </c>
@@ -35618,7 +35670,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>659</v>
       </c>
@@ -35663,7 +35715,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>660</v>
       </c>
@@ -35708,7 +35760,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>661</v>
       </c>
@@ -35753,7 +35805,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>662</v>
       </c>
@@ -35798,7 +35850,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>663</v>
       </c>
@@ -35843,7 +35895,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>664</v>
       </c>
@@ -35888,7 +35940,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>665</v>
       </c>
@@ -35933,7 +35985,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>666</v>
       </c>
@@ -35978,7 +36030,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>667</v>
       </c>
@@ -36022,7 +36074,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>668</v>
       </c>
@@ -36066,7 +36118,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>669</v>
       </c>
@@ -36110,7 +36162,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>670</v>
       </c>
@@ -36154,7 +36206,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>671</v>
       </c>
@@ -36198,7 +36250,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>672</v>
       </c>
@@ -36242,7 +36294,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>673</v>
       </c>
@@ -36286,7 +36338,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>674</v>
       </c>
@@ -36330,7 +36382,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>675</v>
       </c>
@@ -36374,7 +36426,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -36418,7 +36470,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>677</v>
       </c>
@@ -36462,7 +36514,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>678</v>
       </c>
@@ -36506,7 +36558,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>679</v>
       </c>
@@ -36550,7 +36602,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>680</v>
       </c>
@@ -36594,7 +36646,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>681</v>
       </c>
@@ -36638,7 +36690,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>682</v>
       </c>
@@ -36682,7 +36734,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>683</v>
       </c>
@@ -36726,7 +36778,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>684</v>
       </c>
@@ -36770,7 +36822,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="686" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -36814,7 +36866,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="687" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -36858,7 +36910,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>687</v>
       </c>
@@ -36902,7 +36954,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="689" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>688</v>
       </c>
@@ -36946,7 +36998,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="690" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>689</v>
       </c>
@@ -36990,7 +37042,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="691" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -37034,7 +37086,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="692" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>691</v>
       </c>
@@ -37078,7 +37130,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="693" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>692</v>
       </c>
@@ -37122,7 +37174,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="694" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>693</v>
       </c>
@@ -37166,7 +37218,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="695" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>694</v>
       </c>
@@ -37210,7 +37262,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="696" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>695</v>
       </c>
@@ -37254,7 +37306,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="697" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>696</v>
       </c>
@@ -37298,7 +37350,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="698" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>697</v>
       </c>
@@ -37342,7 +37394,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="699" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>698</v>
       </c>
@@ -37386,7 +37438,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="700" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>699</v>
       </c>
@@ -37430,7 +37482,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="701" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>700</v>
       </c>
@@ -37474,7 +37526,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="702" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>701</v>
       </c>
@@ -37518,7 +37570,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="703" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>702</v>
       </c>
@@ -37562,7 +37614,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="704" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>703</v>
       </c>
@@ -37606,7 +37658,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="705" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>704</v>
       </c>
@@ -37650,7 +37702,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="706" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>705</v>
       </c>
@@ -37694,7 +37746,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="707" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>706</v>
       </c>
@@ -37738,7 +37790,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>707</v>
       </c>
@@ -37782,7 +37834,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="709" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>708</v>
       </c>
@@ -37826,7 +37878,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="710" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>709</v>
       </c>
@@ -37870,7 +37922,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="711" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>710</v>
       </c>
@@ -37914,7 +37966,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="712" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>711</v>
       </c>
@@ -37958,7 +38010,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="713" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>712</v>
       </c>
@@ -38002,7 +38054,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="714" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>713</v>
       </c>
@@ -38046,7 +38098,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="715" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>714</v>
       </c>
@@ -38090,7 +38142,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="716" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>715</v>
       </c>
@@ -38134,7 +38186,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="717" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>716</v>
       </c>
@@ -38178,7 +38230,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="718" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>717</v>
       </c>
@@ -38222,7 +38274,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="719" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>718</v>
       </c>
@@ -38266,7 +38318,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="720" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>719</v>
       </c>
@@ -38308,7 +38360,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="721" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>720</v>
       </c>
@@ -38350,7 +38402,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="722" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>721</v>
       </c>
@@ -38389,7 +38441,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="723" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>722</v>
       </c>
@@ -38431,7 +38483,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="724" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>723</v>
       </c>
@@ -38475,7 +38527,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="725" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>724</v>
       </c>
@@ -38519,7 +38571,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="726" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>725</v>
       </c>
@@ -38563,7 +38615,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="727" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>726</v>
       </c>
@@ -38607,7 +38659,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="728" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>727</v>
       </c>
@@ -38651,7 +38703,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="729" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>728</v>
       </c>
@@ -38695,7 +38747,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="730" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>729</v>
       </c>
@@ -38739,7 +38791,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="731" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>730</v>
       </c>
@@ -38783,7 +38835,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="732" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>731</v>
       </c>
@@ -38827,7 +38879,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="733" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>732</v>
       </c>
@@ -38871,7 +38923,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="734" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>733</v>
       </c>
@@ -38915,7 +38967,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="735" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>734</v>
       </c>
@@ -38959,7 +39011,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="736" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>735</v>
       </c>
@@ -39003,7 +39055,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="737" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>736</v>
       </c>
@@ -39048,7 +39100,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="738" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>737</v>
       </c>
@@ -39093,7 +39145,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="739" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>738</v>
       </c>
@@ -39138,7 +39190,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="740" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>739</v>
       </c>
@@ -39183,7 +39235,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="741" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>740</v>
       </c>
@@ -39228,7 +39280,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="742" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>741</v>
       </c>
@@ -39273,7 +39325,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="743" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>742</v>
       </c>
@@ -39318,7 +39370,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="744" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>743</v>
       </c>
@@ -39363,7 +39415,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="745" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>744</v>
       </c>
@@ -39408,7 +39460,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="746" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>745</v>
       </c>
@@ -39453,7 +39505,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="747" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>746</v>
       </c>
@@ -39498,7 +39550,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="748" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>747</v>
       </c>
@@ -39543,7 +39595,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="749" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>748</v>
       </c>
@@ -39588,7 +39640,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="750" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>749</v>
       </c>
@@ -39633,7 +39685,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="751" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>750</v>
       </c>
@@ -39678,7 +39730,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="752" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>751</v>
       </c>
@@ -39723,7 +39775,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="753" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>752</v>
       </c>
@@ -39768,7 +39820,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="754" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>753</v>
       </c>
@@ -39813,7 +39865,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="755" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>754</v>
       </c>
@@ -39858,7 +39910,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="756" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>755</v>
       </c>
@@ -39903,7 +39955,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="757" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>756</v>
       </c>
@@ -39948,7 +40000,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="758" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>757</v>
       </c>
@@ -39993,7 +40045,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="759" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>758</v>
       </c>
@@ -40038,7 +40090,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="760" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>759</v>
       </c>
@@ -40083,7 +40135,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="761" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>760</v>
       </c>
@@ -40128,7 +40180,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="762" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>761</v>
       </c>
@@ -40173,7 +40225,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="763" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>762</v>
       </c>
@@ -40218,7 +40270,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="764" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>763</v>
       </c>
@@ -40263,7 +40315,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="765" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>764</v>
       </c>
@@ -40308,7 +40360,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="766" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>765</v>
       </c>
@@ -40353,7 +40405,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="767" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>766</v>
       </c>
@@ -40398,7 +40450,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="768" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>767</v>
       </c>
@@ -40443,7 +40495,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="769" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>768</v>
       </c>
@@ -40488,7 +40540,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>769</v>
       </c>
@@ -40533,7 +40585,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>770</v>
       </c>
@@ -40578,7 +40630,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>771</v>
       </c>
@@ -40623,7 +40675,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>772</v>
       </c>
@@ -40668,7 +40720,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="774" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>773</v>
       </c>
@@ -40713,7 +40765,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>774</v>
       </c>
@@ -40758,7 +40810,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>775</v>
       </c>
@@ -40803,7 +40855,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>776</v>
       </c>
@@ -40848,7 +40900,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>777</v>
       </c>
@@ -40893,7 +40945,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>778</v>
       </c>
@@ -40938,7 +40990,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>779</v>
       </c>
@@ -40983,7 +41035,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="781" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>780</v>
       </c>
@@ -41028,7 +41080,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="782" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>781</v>
       </c>
@@ -41073,7 +41125,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="783" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>782</v>
       </c>
@@ -41118,7 +41170,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="784" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>783</v>
       </c>
@@ -41163,7 +41215,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>784</v>
       </c>
@@ -41208,7 +41260,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="786" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>785</v>
       </c>
@@ -41253,7 +41305,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="787" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>786</v>
       </c>
@@ -41298,7 +41350,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="788" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>787</v>
       </c>
@@ -41343,7 +41395,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="789" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>788</v>
       </c>
@@ -41388,7 +41440,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="790" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>789</v>
       </c>
@@ -41433,7 +41485,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="791" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>790</v>
       </c>
@@ -41478,7 +41530,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="792" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>791</v>
       </c>
@@ -41523,7 +41575,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="793" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>792</v>
       </c>
@@ -41568,7 +41620,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="794" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>793</v>
       </c>
@@ -41613,7 +41665,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="795" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>794</v>
       </c>
@@ -41658,7 +41710,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>795</v>
       </c>
@@ -41703,7 +41755,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>796</v>
       </c>
@@ -41748,7 +41800,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="798" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>797</v>
       </c>
@@ -41793,7 +41845,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="799" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>798</v>
       </c>
@@ -41838,7 +41890,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="800" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>799</v>
       </c>
@@ -41883,7 +41935,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="801" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>800</v>
       </c>
@@ -41927,7 +41979,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="802" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>801</v>
       </c>
@@ -41971,7 +42023,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="803" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>802</v>
       </c>
@@ -42015,7 +42067,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="804" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>803</v>
       </c>
@@ -42059,7 +42111,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="805" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>804</v>
       </c>
@@ -42103,7 +42155,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="806" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>805</v>
       </c>
@@ -42147,7 +42199,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="807" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>806</v>
       </c>
@@ -42191,7 +42243,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="808" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>807</v>
       </c>
@@ -42235,7 +42287,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="809" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>808</v>
       </c>
@@ -42279,7 +42331,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="810" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>809</v>
       </c>
@@ -42323,7 +42375,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="811" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>810</v>
       </c>
@@ -42367,7 +42419,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="812" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>811</v>
       </c>
@@ -42411,7 +42463,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="813" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>812</v>
       </c>
@@ -42455,7 +42507,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="814" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>813</v>
       </c>
@@ -42499,7 +42551,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="815" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>814</v>
       </c>
@@ -42543,7 +42595,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="816" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>815</v>
       </c>
@@ -42587,7 +42639,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="817" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>816</v>
       </c>
@@ -42631,7 +42683,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="818" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>817</v>
       </c>
@@ -42675,7 +42727,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="819" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>818</v>
       </c>
@@ -42719,7 +42771,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="820" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>819</v>
       </c>
@@ -42763,7 +42815,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="821" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>820</v>
       </c>
@@ -42807,7 +42859,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="822" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>821</v>
       </c>
@@ -42851,7 +42903,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="823" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>822</v>
       </c>
@@ -42895,7 +42947,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="824" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>823</v>
       </c>
@@ -42939,7 +42991,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="825" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>824</v>
       </c>
@@ -42983,7 +43035,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="826" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>825</v>
       </c>
@@ -43027,7 +43079,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="827" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>826</v>
       </c>
@@ -43071,7 +43123,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="828" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>827</v>
       </c>
@@ -43115,7 +43167,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="829" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>828</v>
       </c>
@@ -43159,7 +43211,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="830" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>829</v>
       </c>
@@ -43203,7 +43255,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="831" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>830</v>
       </c>
@@ -43247,7 +43299,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="832" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>831</v>
       </c>
@@ -43291,7 +43343,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="833" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>832</v>
       </c>
@@ -43335,7 +43387,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="834" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>833</v>
       </c>
@@ -43379,7 +43431,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="835" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>834</v>
       </c>
@@ -43423,7 +43475,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="836" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>835</v>
       </c>
@@ -43467,7 +43519,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="837" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>836</v>
       </c>
@@ -43511,7 +43563,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="838" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>837</v>
       </c>
@@ -43555,7 +43607,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="839" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>838</v>
       </c>
@@ -43599,7 +43651,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="840" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>839</v>
       </c>
@@ -43643,7 +43695,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="841" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>840</v>
       </c>
@@ -43687,7 +43739,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="842" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>841</v>
       </c>
@@ -43731,7 +43783,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="843" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>842</v>
       </c>
@@ -43775,7 +43827,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="844" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>843</v>
       </c>
@@ -43819,7 +43871,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="845" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
         <v>844</v>
       </c>
@@ -43863,7 +43915,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="846" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
         <v>845</v>
       </c>
@@ -43907,7 +43959,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="847" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
         <v>846</v>
       </c>
@@ -43951,7 +44003,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="848" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
         <v>847</v>
       </c>
@@ -43995,7 +44047,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="849" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
         <v>848</v>
       </c>
@@ -44039,7 +44091,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="850" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
         <v>849</v>
       </c>
@@ -44083,7 +44135,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="851" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>850</v>
       </c>
@@ -44127,7 +44179,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="852" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>851</v>
       </c>
@@ -44171,7 +44223,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="853" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
         <v>852</v>
       </c>
@@ -44216,7 +44268,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="854" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
         <v>853</v>
       </c>
@@ -44261,7 +44313,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="855" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
         <v>854</v>
       </c>
@@ -44306,7 +44358,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="856" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>855</v>
       </c>
@@ -44351,7 +44403,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="857" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
         <v>856</v>
       </c>
@@ -44396,7 +44448,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="858" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
         <v>857</v>
       </c>
@@ -44441,7 +44493,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="859" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>858</v>
       </c>
@@ -44486,7 +44538,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="860" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>859</v>
       </c>
@@ -44531,7 +44583,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="861" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>860</v>
       </c>
@@ -44576,7 +44628,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="862" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
         <v>861</v>
       </c>
@@ -44621,7 +44673,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="863" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>862</v>
       </c>
@@ -44666,7 +44718,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="864" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>863</v>
       </c>
@@ -44711,7 +44763,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="865" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>864</v>
       </c>
@@ -44756,7 +44808,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="866" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
         <v>865</v>
       </c>
@@ -44801,7 +44853,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="867" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>866</v>
       </c>
@@ -44846,7 +44898,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="868" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>867</v>
       </c>
@@ -44891,7 +44943,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="869" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>868</v>
       </c>
@@ -44936,7 +44988,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="870" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>869</v>
       </c>
@@ -44981,7 +45033,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="871" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>870</v>
       </c>
@@ -45026,7 +45078,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="872" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
         <v>871</v>
       </c>
@@ -45071,7 +45123,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="873" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>872</v>
       </c>
@@ -45116,7 +45168,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="874" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>873</v>
       </c>
@@ -45161,7 +45213,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="875" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
         <v>874</v>
       </c>
@@ -45206,7 +45258,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="876" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>875</v>
       </c>
@@ -45251,7 +45303,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="877" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
         <v>876</v>
       </c>
@@ -45296,7 +45348,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="878" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
         <v>877</v>
       </c>
@@ -45341,7 +45393,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="879" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
         <v>878</v>
       </c>
@@ -45386,7 +45438,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="880" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
         <v>879</v>
       </c>
@@ -45431,7 +45483,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="881" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
         <v>880</v>
       </c>
@@ -45476,7 +45528,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="882" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>881</v>
       </c>
@@ -45521,7 +45573,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="883" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
         <v>882</v>
       </c>
@@ -45566,7 +45618,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="884" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>883</v>
       </c>
@@ -45611,7 +45663,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="885" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
         <v>884</v>
       </c>
@@ -45656,7 +45708,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="886" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>885</v>
       </c>
@@ -45701,7 +45753,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="887" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
         <v>886</v>
       </c>
@@ -45746,7 +45798,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="888" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
         <v>887</v>
       </c>
@@ -45791,7 +45843,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="889" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
         <v>888</v>
       </c>
@@ -45836,7 +45888,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="890" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
         <v>889</v>
       </c>
@@ -45881,7 +45933,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="891" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
         <v>890</v>
       </c>
@@ -45926,7 +45978,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="892" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
         <v>891</v>
       </c>
@@ -45971,7 +46023,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="893" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
         <v>892</v>
       </c>
@@ -46016,7 +46068,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="894" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
         <v>893</v>
       </c>
@@ -46061,7 +46113,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="895" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
         <v>894</v>
       </c>
@@ -46106,7 +46158,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="896" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
         <v>895</v>
       </c>
@@ -46151,7 +46203,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="897" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
         <v>896</v>
       </c>
@@ -46196,7 +46248,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="898" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
         <v>897</v>
       </c>
@@ -46241,7 +46293,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="899" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
         <v>898</v>
       </c>
@@ -46286,7 +46338,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="900" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
         <v>899</v>
       </c>
@@ -46331,7 +46383,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="901" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
         <v>900</v>
       </c>
@@ -46376,7 +46428,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="902" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
         <v>901</v>
       </c>
@@ -46421,7 +46473,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="903" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
         <v>902</v>
       </c>
@@ -46466,7 +46518,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="904" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
         <v>903</v>
       </c>
@@ -46511,7 +46563,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="905" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
         <v>904</v>
       </c>
@@ -46556,7 +46608,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="906" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
         <v>905</v>
       </c>
@@ -46601,7 +46653,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="907" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
         <v>906</v>
       </c>
@@ -46646,7 +46698,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="908" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
         <v>907</v>
       </c>
@@ -46691,7 +46743,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="909" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
         <v>908</v>
       </c>
@@ -46736,7 +46788,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="910" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
         <v>909</v>
       </c>
@@ -46781,7 +46833,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="911" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
         <v>910</v>
       </c>
@@ -46826,7 +46878,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="912" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
         <v>911</v>
       </c>
@@ -46871,7 +46923,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="913" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
         <v>912</v>
       </c>
@@ -46916,7 +46968,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="914" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
         <v>913</v>
       </c>
@@ -46961,7 +47013,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="915" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
         <v>914</v>
       </c>
@@ -47006,7 +47058,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="916" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
         <v>915</v>
       </c>
@@ -47051,7 +47103,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="917" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
         <v>916</v>
       </c>
@@ -47096,7 +47148,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="918" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
         <v>917</v>
       </c>
@@ -47141,7 +47193,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="919" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
         <v>918</v>
       </c>
@@ -47186,7 +47238,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="920" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
         <v>919</v>
       </c>
@@ -47231,7 +47283,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="921" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
         <v>920</v>
       </c>
@@ -47276,7 +47328,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="922" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
         <v>921</v>
       </c>
@@ -47321,7 +47373,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="923" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
         <v>922</v>
       </c>
@@ -47366,7 +47418,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="924" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
         <v>923</v>
       </c>
@@ -47411,7 +47463,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="925" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
         <v>924</v>
       </c>
@@ -47456,7 +47508,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="926" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
         <v>925</v>
       </c>
@@ -47501,7 +47553,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="927" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
         <v>926</v>
       </c>
@@ -47546,7 +47598,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="928" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
         <v>927</v>
       </c>
@@ -47591,7 +47643,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="929" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
         <v>928</v>
       </c>
@@ -47636,7 +47688,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="930" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
         <v>929</v>
       </c>
@@ -47681,7 +47733,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="931" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
         <v>930</v>
       </c>
@@ -47726,7 +47778,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="932" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
         <v>931</v>
       </c>
@@ -47771,7 +47823,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="933" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
         <v>932</v>
       </c>
@@ -47816,7 +47868,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="934" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
         <v>933</v>
       </c>
@@ -47861,7 +47913,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="935" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
         <v>934</v>
       </c>
@@ -47906,7 +47958,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="936" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
         <v>935</v>
       </c>
@@ -47951,7 +48003,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="937" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
         <v>936</v>
       </c>
@@ -47996,7 +48048,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="938" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
         <v>937</v>
       </c>
@@ -48041,7 +48093,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="939" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
         <v>938</v>
       </c>
@@ -48086,7 +48138,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="940" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
         <v>939</v>
       </c>
@@ -48131,7 +48183,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="941" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
         <v>940</v>
       </c>
@@ -48176,7 +48228,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="942" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
         <v>941</v>
       </c>
@@ -48221,7 +48273,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="943" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
         <v>942</v>
       </c>
@@ -48266,7 +48318,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="944" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
         <v>943</v>
       </c>
@@ -48311,7 +48363,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="945" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A945" s="1">
         <v>944</v>
       </c>
@@ -48356,7 +48408,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="946" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A946" s="1">
         <v>945</v>
       </c>
@@ -48401,7 +48453,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="947" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
         <v>946</v>
       </c>
@@ -48446,7 +48498,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="948" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
         <v>947</v>
       </c>
@@ -48491,7 +48543,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="949" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
         <v>948</v>
       </c>
@@ -48536,7 +48588,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="950" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
         <v>949</v>
       </c>
@@ -48581,7 +48633,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="951" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
         <v>950</v>
       </c>
@@ -48626,7 +48678,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="952" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
         <v>951</v>
       </c>
@@ -48671,7 +48723,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="953" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
         <v>952</v>
       </c>
@@ -48716,7 +48768,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="954" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
         <v>953</v>
       </c>
@@ -48761,7 +48813,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="955" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
         <v>954</v>
       </c>
@@ -48806,7 +48858,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="956" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
         <v>955</v>
       </c>
@@ -48851,7 +48903,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="957" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
         <v>956</v>
       </c>
@@ -48896,7 +48948,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="958" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
         <v>957</v>
       </c>
@@ -48940,7 +48992,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="959" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
         <v>958</v>
       </c>
@@ -48984,7 +49036,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="960" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
         <v>959</v>
       </c>
@@ -49028,7 +49080,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="961" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
         <v>960</v>
       </c>
@@ -49072,7 +49124,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="962" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
         <v>961</v>
       </c>
@@ -49116,7 +49168,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="963" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
         <v>962</v>
       </c>
@@ -49160,7 +49212,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="964" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
         <v>963</v>
       </c>
@@ -49204,7 +49256,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="965" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
         <v>964</v>
       </c>
@@ -49248,7 +49300,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="966" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
         <v>965</v>
       </c>
@@ -49292,7 +49344,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="967" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
         <v>966</v>
       </c>
@@ -49336,7 +49388,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="968" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
         <v>967</v>
       </c>
@@ -49380,7 +49432,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="969" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
         <v>968</v>
       </c>
@@ -49424,7 +49476,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="970" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A970" s="1">
         <v>969</v>
       </c>
@@ -49468,7 +49520,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="971" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
         <v>970</v>
       </c>
@@ -49512,7 +49564,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="972" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
         <v>971</v>
       </c>
@@ -49556,7 +49608,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="973" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
         <v>972</v>
       </c>
@@ -49600,7 +49652,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="974" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
         <v>973</v>
       </c>
@@ -49644,7 +49696,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="975" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A975" s="1">
         <v>974</v>
       </c>
@@ -49688,7 +49740,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="976" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
         <v>975</v>
       </c>
@@ -49732,7 +49784,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="977" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
         <v>976</v>
       </c>
@@ -49776,7 +49828,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="978" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
         <v>977</v>
       </c>
@@ -49820,7 +49872,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="979" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
         <v>978</v>
       </c>
@@ -49864,7 +49916,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="980" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
         <v>979</v>
       </c>
@@ -49908,7 +49960,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="981" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
         <v>980</v>
       </c>
@@ -49952,7 +50004,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="982" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
         <v>981</v>
       </c>
@@ -49996,7 +50048,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="983" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
         <v>982</v>
       </c>
@@ -50040,7 +50092,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="984" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A984" s="1">
         <v>983</v>
       </c>
@@ -50084,7 +50136,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="985" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A985" s="1">
         <v>984</v>
       </c>
@@ -50128,7 +50180,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="986" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A986" s="1">
         <v>985</v>
       </c>
@@ -50172,7 +50224,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="987" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
         <v>986</v>
       </c>
@@ -50216,7 +50268,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="988" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A988" s="1">
         <v>987</v>
       </c>
@@ -50260,7 +50312,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="989" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A989" s="1">
         <v>988</v>
       </c>
@@ -50304,7 +50356,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="990" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A990" s="1">
         <v>989</v>
       </c>
@@ -50348,7 +50400,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="991" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
         <v>990</v>
       </c>
@@ -50392,7 +50444,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="992" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="992" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A992" s="1">
         <v>991</v>
       </c>
@@ -50436,7 +50488,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="993" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="993" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A993" s="1">
         <v>992</v>
       </c>
@@ -50480,7 +50532,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="994" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="994" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A994" s="1">
         <v>993</v>
       </c>
@@ -50524,7 +50576,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="995" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="995" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A995" s="1">
         <v>994</v>
       </c>
@@ -50568,7 +50620,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="996" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
         <v>995</v>
       </c>
@@ -50612,7 +50664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="997" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="997" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A997" s="1">
         <v>996</v>
       </c>
@@ -50656,7 +50708,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="998" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="998" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A998" s="1">
         <v>997</v>
       </c>
@@ -50700,7 +50752,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="999" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="999" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A999" s="1">
         <v>998</v>
       </c>
@@ -50744,7 +50796,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="1000" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1000" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1000" s="1">
         <v>999</v>
       </c>
@@ -50788,7 +50840,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="1001" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1001" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1001" s="1">
         <v>1000</v>
       </c>
@@ -50832,7 +50884,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="1002" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1002" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1002" s="1">
         <v>1001</v>
       </c>
@@ -50876,7 +50928,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="1003" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1003" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1003" s="1">
         <v>1002</v>
       </c>
@@ -50920,7 +50972,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="1004" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1004" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1004" s="1">
         <v>1003</v>
       </c>
@@ -50964,7 +51016,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="1005" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1005" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1005" s="1">
         <v>1004</v>
       </c>
@@ -51008,7 +51060,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="1006" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1006" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1006" s="1">
         <v>1005</v>
       </c>
@@ -51052,7 +51104,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="1007" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1007" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1007" s="1">
         <v>1006</v>
       </c>
@@ -51096,7 +51148,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="1008" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1008" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1008" s="1">
         <v>1007</v>
       </c>
@@ -51140,7 +51192,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="1009" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1009" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1009" s="1">
         <v>1008</v>
       </c>
@@ -51184,7 +51236,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="1010" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1010" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1010" s="1">
         <v>1009</v>
       </c>
@@ -51228,7 +51280,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="1011" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1011" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1011" s="1">
         <v>1010</v>
       </c>
@@ -51272,7 +51324,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="1012" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1012" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1012" s="1">
         <v>1011</v>
       </c>
@@ -51316,7 +51368,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="1013" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1013" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1013" s="1">
         <v>1012</v>
       </c>
@@ -51360,7 +51412,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="1014" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1014" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1014" s="1">
         <v>1013</v>
       </c>
@@ -51404,7 +51456,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="1015" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1015" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1015" s="1">
         <v>1014</v>
       </c>
@@ -51448,7 +51500,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="1016" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1016" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1016" s="1">
         <v>1015</v>
       </c>
@@ -51492,7 +51544,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="1017" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1017" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1017" s="1">
         <v>1016</v>
       </c>
@@ -51536,7 +51588,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="1018" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1018" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1018" s="1">
         <v>1017</v>
       </c>
@@ -51580,7 +51632,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="1019" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1019" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1019" s="1">
         <v>1018</v>
       </c>
@@ -51624,7 +51676,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="1020" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1020" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1020" s="1">
         <v>1019</v>
       </c>
@@ -51668,7 +51720,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="1021" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1021" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1021" s="1">
         <v>1020</v>
       </c>
@@ -51712,7 +51764,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="1022" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1022" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
         <v>1021</v>
       </c>
@@ -51756,7 +51808,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="1023" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1023" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
         <v>1022</v>
       </c>
@@ -51798,6 +51850,50 @@
       </c>
       <c r="N1023" s="6" t="s">
         <v>1406</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1024" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B1024" s="41" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C1024" s="38">
+        <v>42698</v>
+      </c>
+      <c r="D1024" s="6" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E1024" s="44">
+        <v>0</v>
+      </c>
+      <c r="F1024" s="6" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G1024" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1024" s="44">
+        <v>10</v>
+      </c>
+      <c r="I1024" s="44">
+        <v>150</v>
+      </c>
+      <c r="J1024" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1024" s="44">
+        <v>160</v>
+      </c>
+      <c r="L1024" s="6" t="s">
+        <v>1410</v>
+      </c>
+      <c r="M1024" s="6" t="s">
+        <v>1411</v>
+      </c>
+      <c r="N1024" s="6" t="s">
+        <v>1412</v>
       </c>
     </row>
   </sheetData>
@@ -51811,7 +51907,7 @@
   </sortState>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51822,26 +51918,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B557 B555">
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+  <conditionalFormatting sqref="B555 B557">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51853,25 +51949,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B611:B666">
-    <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+      <formula>$B$101</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B369:B376">
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+      <formula>$B$431</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+      <formula>$B$174</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+      <formula>$B$11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+      <formula>$B$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -51885,26 +52011,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B369:B376">
-    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
+  <conditionalFormatting sqref="B804:B817">
+    <cfRule type="cellIs" dxfId="35" priority="23" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="24" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="27" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51915,23 +52041,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B804:B817">
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+  <conditionalFormatting sqref="B934">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -51945,23 +52071,53 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B934">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+  <conditionalFormatting sqref="B818:B933 B1:B368 B556 B377:B554 B558:B610 B667:B803 B935:B978 B987:B1023 B1025:B1048576">
+    <cfRule type="cellIs" dxfId="23" priority="70" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="71" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="72" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="73" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="74" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="75" operator="equal">
+      <formula>$B$101</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B979:B986">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>$B$431</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+      <formula>$B$174</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>$B$11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+      <formula>$B$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -51975,56 +52131,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B818:B933 B1:B368 B556 B377:B554 B558:B610 B667:B803 B935:B978 B987:B1048576">
-    <cfRule type="cellIs" dxfId="19" priority="63" operator="equal">
+  <conditionalFormatting sqref="B1024">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B979:B986">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
-      <formula>$B$431</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
-      <formula>$B$174</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>$B$11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>$B$10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>$B$101</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52117,12 +52243,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -52130,7 +52256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -52138,7 +52264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -52146,7 +52272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>293</v>
       </c>

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5715" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5708" uniqueCount="1440">
   <si>
     <t>编号</t>
   </si>
@@ -5765,6 +5765,38 @@
     <t>辆</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电四轮组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/C/D车 底盘加固 舵机配件 摄像头支架底座</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C扩展芯片PCA9564PW,118规格包装</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5773,7 +5805,7 @@
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5966,14 +5998,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6028,7 +6052,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -6137,7 +6161,6 @@
     <xf numFmtId="7" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6871,11 +6894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1031"/>
+  <dimension ref="A1:S1032"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1006" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1031" sqref="A1031:B1031"/>
+      <pane ySplit="1" topLeftCell="A1024" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1032" sqref="P1032"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6997,7 +7020,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>93690.604000000007</v>
+        <v>94385.964000000007</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -52208,7 +52231,92 @@
       </c>
     </row>
     <row r="1031" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="K1031" s="60"/>
+      <c r="A1031" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B1031" s="41" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C1031" s="38">
+        <v>42717</v>
+      </c>
+      <c r="D1031" s="6" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E1031" s="44">
+        <v>496.1</v>
+      </c>
+      <c r="F1031" s="6" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G1031" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1031" s="44">
+        <v>9</v>
+      </c>
+      <c r="I1031" s="44">
+        <v>20.77</v>
+      </c>
+      <c r="J1031" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1031" s="49">
+        <v>525.87</v>
+      </c>
+      <c r="L1031" s="6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="M1031" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="N1031" s="6" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1032" s="1">
+        <v>1031</v>
+      </c>
+      <c r="B1032" s="41" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C1032" s="38">
+        <v>42721</v>
+      </c>
+      <c r="D1032" s="6" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E1032" s="44">
+        <v>24.21</v>
+      </c>
+      <c r="F1032" s="6" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G1032" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1032" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1032" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1032" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1032" s="44">
+        <v>169.49</v>
+      </c>
+      <c r="L1032" s="6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="M1032" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="N1032" s="6" t="s">
+        <v>1435</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R948">
@@ -52232,7 +52340,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B557 B555">
+  <conditionalFormatting sqref="B555 B557">
     <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
       <formula>$B$431</formula>
     </cfRule>

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soda\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5708" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5810" uniqueCount="1457">
   <si>
     <t>编号</t>
   </si>
@@ -5796,6 +5796,57 @@
   <si>
     <t>片</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵杰</t>
+  </si>
+  <si>
+    <t>电轨组</t>
+  </si>
+  <si>
+    <t>40M无源芯片</t>
+  </si>
+  <si>
+    <t>NGD8201AG</t>
+  </si>
+  <si>
+    <t>螃蟹王国车模轮胎等配件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未上报 </t>
+  </si>
+  <si>
+    <t>法拉电容 2.7V 30F</t>
+  </si>
+  <si>
+    <t>扭子开关双掷、三掷</t>
+  </si>
+  <si>
+    <t>BW6101电容均压芯片</t>
+  </si>
+  <si>
+    <t>FAULHABER微型直流电机</t>
+  </si>
+  <si>
+    <t>螃蟹王国 D字齿轮+塑料条</t>
+  </si>
+  <si>
+    <t>IRLR7843、LM2731、TLV2462、74LS244、MBR0520、IR2104</t>
+  </si>
+  <si>
+    <t>尼龙柱、连接件</t>
+  </si>
+  <si>
+    <t>PH2.0排针排座、鳄鱼夹</t>
+  </si>
+  <si>
+    <t>PH2.0排母、端子</t>
+  </si>
+  <si>
+    <t>碳纤维加工车模板</t>
+  </si>
+  <si>
+    <t>轴承</t>
   </si>
 </sst>
 </file>
@@ -6894,11 +6945,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1032"/>
+  <dimension ref="A1:S1049"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1024" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1032" sqref="P1032"/>
+      <selection pane="bottomLeft" activeCell="D1050" sqref="D1050"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7020,7 +7071,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>94385.964000000007</v>
+        <v>96636.414000000004</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -52316,6 +52367,754 @@
       </c>
       <c r="N1032" s="6" t="s">
         <v>1435</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1033">
+        <v>1032</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1033" s="38">
+        <v>42709</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1033" s="44">
+        <v>12</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1033">
+        <v>10</v>
+      </c>
+      <c r="H1033" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1033" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1033" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1033" s="44">
+        <v>120</v>
+      </c>
+      <c r="L1033" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1033" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1033" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1034">
+        <v>1033</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1034" s="38">
+        <v>42712</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E1034" s="44">
+        <v>0.79</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1034">
+        <v>30</v>
+      </c>
+      <c r="H1034" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1034" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1034" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1034" s="44">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="L1034" t="s">
+        <v>1323</v>
+      </c>
+      <c r="M1034" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1034" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1035">
+        <v>1034</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1035" s="38">
+        <v>42712</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E1035" s="44">
+        <v>3.36</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1035">
+        <v>30</v>
+      </c>
+      <c r="H1035" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1035" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1035" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1035" s="44">
+        <v>130</v>
+      </c>
+      <c r="L1035" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1035" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1035" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1036">
+        <v>1035</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1036" s="38">
+        <v>42713</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E1036" s="44">
+        <v>3.92</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1036">
+        <v>14</v>
+      </c>
+      <c r="H1036" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1036" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1036" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1036" s="44">
+        <v>54.88</v>
+      </c>
+      <c r="L1036" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1036" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N1036" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1037">
+        <v>1036</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1037" s="38">
+        <v>42722</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1037" s="44">
+        <v>10</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1037">
+        <v>10</v>
+      </c>
+      <c r="H1037" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1037" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1037" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1037" s="44">
+        <v>100</v>
+      </c>
+      <c r="L1037" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1037" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1037" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1038">
+        <v>1037</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1038" s="38">
+        <v>42724</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E1038" s="44">
+        <v>8</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1038">
+        <v>15</v>
+      </c>
+      <c r="H1038" s="44">
+        <v>10</v>
+      </c>
+      <c r="I1038" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1038" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1038" s="44">
+        <v>130</v>
+      </c>
+      <c r="L1038" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1038" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1038" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1039">
+        <v>1038</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1039" s="38">
+        <v>42724</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E1039" s="44">
+        <v>1.37</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1039">
+        <v>20</v>
+      </c>
+      <c r="H1039" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1039" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1039" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1039" s="44">
+        <v>27.4</v>
+      </c>
+      <c r="L1039" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1039" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1039" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1040">
+        <v>1039</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1040" s="38">
+        <v>42724</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E1040" s="44">
+        <v>3.36</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1040">
+        <v>50</v>
+      </c>
+      <c r="H1040" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1040" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1040" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1040" s="44">
+        <v>168</v>
+      </c>
+      <c r="L1040" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1040" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1040" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1041">
+        <v>1040</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1041" s="38">
+        <v>42724</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E1041" s="44">
+        <v>50</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1041">
+        <v>2</v>
+      </c>
+      <c r="H1041" s="44">
+        <v>15</v>
+      </c>
+      <c r="I1041" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1041" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1041" s="44">
+        <v>115</v>
+      </c>
+      <c r="L1041" t="s">
+        <v>1323</v>
+      </c>
+      <c r="M1041" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1041" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1042">
+        <v>1041</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1042" s="38">
+        <v>42726</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E1042" s="44">
+        <v>3.27</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1042">
+        <v>13</v>
+      </c>
+      <c r="H1042" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1042" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1042" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1042" s="44">
+        <v>42.5</v>
+      </c>
+      <c r="L1042" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1042" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1042" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1043">
+        <v>1042</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1043" s="38">
+        <v>42774</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1043" s="44">
+        <v>13</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1043">
+        <v>30</v>
+      </c>
+      <c r="H1043" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1043" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1043" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1043" s="44">
+        <v>390</v>
+      </c>
+      <c r="L1043" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1043" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1043" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1044">
+        <v>1043</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1044" s="38">
+        <v>42781</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E1044" s="44">
+        <v>1.52</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1044">
+        <v>300</v>
+      </c>
+      <c r="H1044" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1044" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1044" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1044" s="44">
+        <v>456</v>
+      </c>
+      <c r="L1044" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1044" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1044" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1045">
+        <v>1044</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1045" s="38">
+        <v>42781</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E1045" s="44">
+        <v>5.36</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1045">
+        <v>28</v>
+      </c>
+      <c r="H1045" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1045" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1045" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1045" s="44">
+        <v>150</v>
+      </c>
+      <c r="L1045" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1045" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1045" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1046">
+        <v>1045</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1046" s="38">
+        <v>42781</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E1046" s="44">
+        <v>1.06</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1046">
+        <v>25</v>
+      </c>
+      <c r="H1046" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1046" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1046" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1046" s="44">
+        <v>26.4</v>
+      </c>
+      <c r="L1046" t="s">
+        <v>1323</v>
+      </c>
+      <c r="M1046" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1046" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1047">
+        <v>1046</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1047" s="38">
+        <v>42781</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E1047" s="44">
+        <v>0.09</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1047">
+        <v>300</v>
+      </c>
+      <c r="H1047" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1047" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1047" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1047" s="44">
+        <v>26.47</v>
+      </c>
+      <c r="L1047" t="s">
+        <v>1323</v>
+      </c>
+      <c r="M1047" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1047" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1048">
+        <v>1047</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1048" s="38">
+        <v>42781</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E1048" s="44">
+        <v>10</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1048">
+        <v>21</v>
+      </c>
+      <c r="H1048" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1048" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1048" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1048" s="44">
+        <v>210</v>
+      </c>
+      <c r="L1048" t="s">
+        <v>1323</v>
+      </c>
+      <c r="M1048" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1048" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1049">
+        <v>1048</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C1049" s="38">
+        <v>42786</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E1049" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1049">
+        <v>20</v>
+      </c>
+      <c r="H1049" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1049" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1049" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1049" s="44">
+        <v>70</v>
+      </c>
+      <c r="L1049" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1049" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1049" t="s">
+        <v>1441</v>
       </c>
     </row>
   </sheetData>
@@ -52340,7 +53139,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B555 B557">
+  <conditionalFormatting sqref="B557 B555">
     <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
       <formula>$B$431</formula>
     </cfRule>

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soda\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5810" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5876" uniqueCount="1491">
   <si>
     <t>编号</t>
   </si>
@@ -5847,6 +5847,142 @@
   </si>
   <si>
     <t>轴承</t>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电容1uF0805一百个、2.2uF1206十个、MOS管IRLR7843 20个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电四轮组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖特基二极管MBR0520LT1G SOD123(1206)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电感CDH53NP-101JC 100uH 0.37A SMD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电容4.7uF 1812</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电四轮组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>C车光编齿轮4个、M3尼龙柱塑料包1包、T74LS244 10片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电四轮组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS244 SSOP-20</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电四轮组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>排</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电容0603 1uF 18pF 0.1uF 1nF 各100个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电阻0603 0R 4.7KR 510R 1MR 10KR 各100个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电容0603 22uF 20个、贴片磁珠0603 0欧 100个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5634核心板 龙丘</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">有 </t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6945,11 +7081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1049"/>
+  <dimension ref="A1:S1060"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1024" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1050" sqref="D1050"/>
+      <pane ySplit="1" topLeftCell="A1033" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1060" sqref="N1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7071,7 +7207,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>96636.414000000004</v>
+        <v>97882.114000000001</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -53115,6 +53251,490 @@
       </c>
       <c r="N1049" t="s">
         <v>1441</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1050" s="1">
+        <v>1049</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C1050" s="38">
+        <v>42728</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E1050" s="44">
+        <v>56</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G1050">
+        <v>1</v>
+      </c>
+      <c r="H1050" s="44">
+        <v>5</v>
+      </c>
+      <c r="I1050" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1050" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1050" s="44">
+        <v>61</v>
+      </c>
+      <c r="L1050" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="M1050" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="N1050" s="6" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1051" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B1051" s="41" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C1051" s="38">
+        <v>42728</v>
+      </c>
+      <c r="D1051" s="6" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1051" s="44">
+        <v>0.3</v>
+      </c>
+      <c r="F1051" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G1051">
+        <v>50</v>
+      </c>
+      <c r="H1051" s="44">
+        <v>7</v>
+      </c>
+      <c r="I1051" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1051" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1051" s="44">
+        <v>22</v>
+      </c>
+      <c r="L1051" s="6" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M1051" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="N1051" s="6" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1052" s="1">
+        <v>1051</v>
+      </c>
+      <c r="B1052" s="41" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C1052" s="38">
+        <v>42728</v>
+      </c>
+      <c r="D1052" s="6" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E1052" s="44">
+        <v>3.27</v>
+      </c>
+      <c r="F1052" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G1052">
+        <v>10</v>
+      </c>
+      <c r="H1052" s="44">
+        <v>8</v>
+      </c>
+      <c r="I1052" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1052" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1052" s="44">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="L1052" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="M1052" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="N1052" s="6" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1053" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B1053" s="41" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C1053" s="38">
+        <v>42728</v>
+      </c>
+      <c r="D1053" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E1053" s="44">
+        <v>0.85</v>
+      </c>
+      <c r="F1053" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G1053">
+        <v>20</v>
+      </c>
+      <c r="H1053" s="44">
+        <v>10</v>
+      </c>
+      <c r="I1053" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1053" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1053" s="44">
+        <v>27</v>
+      </c>
+      <c r="L1053" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="M1053" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="N1053" s="6" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1054" s="1">
+        <v>1053</v>
+      </c>
+      <c r="B1054" s="41" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C1054" s="38">
+        <v>42728</v>
+      </c>
+      <c r="D1054" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E1054" s="44">
+        <v>96</v>
+      </c>
+      <c r="F1054" s="6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G1054">
+        <v>1</v>
+      </c>
+      <c r="H1054" s="44">
+        <v>9</v>
+      </c>
+      <c r="I1054" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1054" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1054" s="44">
+        <v>105</v>
+      </c>
+      <c r="L1054" s="6" t="s">
+        <v>1475</v>
+      </c>
+      <c r="M1054" s="6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N1054" s="6" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1055" s="1">
+        <v>1054</v>
+      </c>
+      <c r="B1055" s="41" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C1055" s="38">
+        <v>42729</v>
+      </c>
+      <c r="D1055" s="6" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E1055" s="44">
+        <v>1.3</v>
+      </c>
+      <c r="F1055" s="6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G1055">
+        <v>10</v>
+      </c>
+      <c r="H1055" s="44">
+        <v>8</v>
+      </c>
+      <c r="I1055" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1055" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1055" s="44">
+        <v>21</v>
+      </c>
+      <c r="L1055" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M1055" s="6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N1055" s="6" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1056" s="1">
+        <v>1055</v>
+      </c>
+      <c r="B1056" s="41" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C1056" s="38">
+        <v>42751</v>
+      </c>
+      <c r="D1056" s="6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E1056" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="F1056" s="6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G1056">
+        <v>4</v>
+      </c>
+      <c r="H1056" s="44">
+        <v>8</v>
+      </c>
+      <c r="I1056" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1056" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1056" s="44">
+        <v>18</v>
+      </c>
+      <c r="L1056" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M1056" s="6" t="s">
+        <v>1484</v>
+      </c>
+      <c r="N1056" s="6" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1057" s="1">
+        <v>1056</v>
+      </c>
+      <c r="B1057" s="41" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C1057" s="38">
+        <v>42751</v>
+      </c>
+      <c r="D1057" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E1057" s="49">
+        <v>1.6</v>
+      </c>
+      <c r="F1057" s="6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G1057">
+        <v>5</v>
+      </c>
+      <c r="H1057" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1057" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1057" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1057" s="44">
+        <v>8</v>
+      </c>
+      <c r="L1057" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M1057" s="6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N1057" s="6" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1058" s="6">
+        <v>1057</v>
+      </c>
+      <c r="B1058" s="41" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C1058" s="38">
+        <v>42751</v>
+      </c>
+      <c r="D1058" s="6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E1058" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="F1058" s="6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G1058">
+        <v>2</v>
+      </c>
+      <c r="H1058" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1058" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1058" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1058" s="44">
+        <v>7</v>
+      </c>
+      <c r="L1058" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M1058" s="6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N1058" s="6" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1059" s="6">
+        <v>1058</v>
+      </c>
+      <c r="B1059" s="41" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C1059" s="38">
+        <v>42778</v>
+      </c>
+      <c r="D1059" s="6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E1059" s="44">
+        <v>174</v>
+      </c>
+      <c r="F1059" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G1059">
+        <v>1</v>
+      </c>
+      <c r="H1059" s="44">
+        <v>10</v>
+      </c>
+      <c r="I1059" s="44">
+        <v>12</v>
+      </c>
+      <c r="J1059" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1059" s="44">
+        <v>196</v>
+      </c>
+      <c r="L1059" s="6" t="s">
+        <v>1475</v>
+      </c>
+      <c r="M1059" s="6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N1059" s="6" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1060" s="6">
+        <v>1059</v>
+      </c>
+      <c r="B1060" s="41" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C1060" s="38">
+        <v>42778</v>
+      </c>
+      <c r="D1060" s="6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E1060" s="44">
+        <v>174</v>
+      </c>
+      <c r="F1060" s="6" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G1060">
+        <v>4</v>
+      </c>
+      <c r="H1060" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1060" s="44">
+        <v>34</v>
+      </c>
+      <c r="J1060" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1060" s="44">
+        <v>740</v>
+      </c>
+      <c r="L1060" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="M1060" s="6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N1060" s="6" t="s">
+        <v>1481</v>
       </c>
     </row>
   </sheetData>

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Freescale\2017\行政\票据\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,11 +20,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5876" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5912" uniqueCount="1513">
   <si>
     <t>编号</t>
   </si>
@@ -5982,6 +5983,94 @@
   </si>
   <si>
     <t xml:space="preserve">有 </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵杰</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRLR7843、LM2940、LM2941、MAX771ESA</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电轨组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB板子</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电轨组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵杰</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机224V009SR</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵杰</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纤维板加工车模</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料齿轮、扎带、尼龙柱、车轴、蓝丁胶</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -6360,7 +6449,59 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="58">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6732,8 +6873,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="50"/>
-      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="57"/>
+      <tableStyleElement type="headerRow" dxfId="56"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -7081,11 +7222,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1060"/>
+  <dimension ref="A1:S1066"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1033" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1060" sqref="N1060"/>
+      <pane ySplit="1" topLeftCell="A1048" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1066" sqref="F1066"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7207,7 +7348,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>97882.114000000001</v>
+        <v>99417.554000000004</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -53735,6 +53876,272 @@
       </c>
       <c r="N1060" s="6" t="s">
         <v>1481</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1061" s="6">
+        <v>1060</v>
+      </c>
+      <c r="B1061" s="41" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C1061" s="38">
+        <v>42790</v>
+      </c>
+      <c r="D1061" s="6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E1061" s="44">
+        <v>347</v>
+      </c>
+      <c r="F1061" s="6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G1061">
+        <v>1</v>
+      </c>
+      <c r="H1061" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1061" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1061" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1061" s="44">
+        <v>347</v>
+      </c>
+      <c r="L1061" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M1061" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N1061" s="6" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1062" s="6">
+        <v>1061</v>
+      </c>
+      <c r="B1062" s="41" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C1062" s="38">
+        <v>42791</v>
+      </c>
+      <c r="D1062" s="6" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E1062" s="44">
+        <f>275/20</f>
+        <v>13.75</v>
+      </c>
+      <c r="F1062" s="6" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G1062">
+        <v>20</v>
+      </c>
+      <c r="H1062" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1062" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1062" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1062" s="44">
+        <v>275</v>
+      </c>
+      <c r="L1062" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M1062" s="6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="N1062" s="6" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1063" s="6">
+        <v>1062</v>
+      </c>
+      <c r="B1063" s="41" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C1063" s="38">
+        <v>42791</v>
+      </c>
+      <c r="D1063" s="6" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E1063" s="44">
+        <f>275/20</f>
+        <v>13.75</v>
+      </c>
+      <c r="F1063" s="6" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G1063" s="1">
+        <v>20</v>
+      </c>
+      <c r="H1063" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1063" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1063" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1063" s="44">
+        <v>275</v>
+      </c>
+      <c r="L1063" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M1063" s="6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="N1063" s="6" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1064" s="6">
+        <v>1063</v>
+      </c>
+      <c r="B1064" s="41" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C1064" s="38">
+        <v>42799</v>
+      </c>
+      <c r="D1064" s="6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E1064" s="44">
+        <v>51.44</v>
+      </c>
+      <c r="F1064" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1064" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1064" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1064" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1064" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1064" s="44">
+        <v>51.44</v>
+      </c>
+      <c r="L1064" s="6" t="s">
+        <v>1501</v>
+      </c>
+      <c r="M1064" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N1064" s="6" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1065" s="6">
+        <v>1064</v>
+      </c>
+      <c r="B1065" s="41" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C1065" s="38">
+        <v>42803</v>
+      </c>
+      <c r="D1065" s="6" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E1065" s="44">
+        <v>50</v>
+      </c>
+      <c r="F1065" s="6" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G1065" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1065" s="44">
+        <v>14</v>
+      </c>
+      <c r="I1065" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1065" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1065" s="44">
+        <v>164</v>
+      </c>
+      <c r="L1065" s="6" t="s">
+        <v>1505</v>
+      </c>
+      <c r="M1065" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="N1065" s="6" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1066" s="6">
+        <v>1065</v>
+      </c>
+      <c r="B1066" s="41" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1066" s="38">
+        <v>42803</v>
+      </c>
+      <c r="D1066" s="6" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E1066" s="44">
+        <v>200</v>
+      </c>
+      <c r="F1066" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G1066" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1066" s="44">
+        <v>23</v>
+      </c>
+      <c r="I1066" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1066" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1066" s="44">
+        <v>423</v>
+      </c>
+      <c r="L1066" s="6" t="s">
+        <v>1510</v>
+      </c>
+      <c r="M1066" s="6" t="s">
+        <v>1511</v>
+      </c>
+      <c r="N1066" s="6" t="s">
+        <v>1326</v>
       </c>
     </row>
   </sheetData>
@@ -53748,7 +54155,7 @@
   </sortState>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53760,6 +54167,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B557 B555">
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
+      <formula>$B$431</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
+      <formula>$B$174</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
+      <formula>$B$11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
+      <formula>$B$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="67" operator="equal">
+      <formula>$B$101</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1062 A1064:A1048576">
+    <cfRule type="duplicateValues" dxfId="49" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B611:B666">
     <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
@@ -53789,59 +54229,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="42" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B611:B666">
-    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
+  <conditionalFormatting sqref="B369:B376">
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="51" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="52" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B369:B376">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
-      <formula>$B$431</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
-      <formula>$B$174</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
-      <formula>$B$11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="42" operator="equal">
-      <formula>$B$10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
-      <formula>$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
-      <formula>$B$101</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53853,25 +54260,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B804:B817">
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53883,25 +54290,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B934">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53912,26 +54319,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B818:B933 B1:B368 B556 B377:B554 B558:B610 B667:B803 B935:B978 B987:B1023 B1025:B1048576">
-    <cfRule type="cellIs" dxfId="17" priority="70" operator="equal">
+  <conditionalFormatting sqref="B818:B933 B1:B368 B556 B377:B554 B558:B610 B667:B803 B935:B978 B987:B1023 B1025:B1062 B1064:B1048576">
+    <cfRule type="cellIs" dxfId="24" priority="78" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="79" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="80" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="81" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="82" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="83" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53943,22 +54350,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B979:B986">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+      <formula>$B$101</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1024">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>$B$431</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>$B$174</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>$B$11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>$B$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -53972,26 +54409,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1024">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1063">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1063">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Freescale\2017\行政\票据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,13 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$948</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5912" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5960" uniqueCount="1531">
   <si>
     <t>编号</t>
   </si>
@@ -6073,11 +6072,83 @@
     <t>塑料齿轮、扎带、尼龙柱、车轴、蓝丁胶</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>李秋键</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>创意组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>国创项目 推杆电机</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>根</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>国创项目 货柜</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>国创项目 橡皮球</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>c车电池</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB板子</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAG3110电子罗盘</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机驱动板以及杜邦线 龙邱</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
@@ -7222,11 +7293,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1066"/>
+  <dimension ref="A1:S1074"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1048" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1066" sqref="F1066"/>
+      <pane ySplit="1" topLeftCell="A1057" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1073" sqref="C1073"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7348,7 +7419,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>99417.554000000004</v>
+        <v>100840.704</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -54142,6 +54213,358 @@
       </c>
       <c r="N1066" s="6" t="s">
         <v>1326</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1067" s="6">
+        <v>1066</v>
+      </c>
+      <c r="B1067" s="41" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C1067" s="38">
+        <v>42794</v>
+      </c>
+      <c r="D1067" s="6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E1067" s="44">
+        <v>174</v>
+      </c>
+      <c r="F1067" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1067" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1067" s="44">
+        <v>10</v>
+      </c>
+      <c r="I1067" s="44">
+        <v>12</v>
+      </c>
+      <c r="J1067" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1067" s="44">
+        <v>196</v>
+      </c>
+      <c r="L1067" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M1067" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N1067" s="6" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1068" s="6">
+        <v>1067</v>
+      </c>
+      <c r="B1068" s="41" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C1068" s="38">
+        <v>42805</v>
+      </c>
+      <c r="D1068" s="6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E1068" s="44">
+        <v>160</v>
+      </c>
+      <c r="F1068" s="6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G1068" s="1">
+        <v>4</v>
+      </c>
+      <c r="H1068" s="44">
+        <v>10</v>
+      </c>
+      <c r="I1068" s="44">
+        <v>30</v>
+      </c>
+      <c r="J1068" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1068" s="44">
+        <v>680</v>
+      </c>
+      <c r="L1068" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M1068" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N1068" s="6" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1069" s="6">
+        <v>1068</v>
+      </c>
+      <c r="B1069" s="41" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C1069" s="38">
+        <v>42807</v>
+      </c>
+      <c r="D1069" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E1069" s="44">
+        <v>25</v>
+      </c>
+      <c r="F1069" s="6" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G1069" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1069" s="44">
+        <v>10</v>
+      </c>
+      <c r="I1069" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1069" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1069" s="44">
+        <v>35</v>
+      </c>
+      <c r="L1069" s="6" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M1069" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N1069" s="6" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1070" s="6">
+        <v>1069</v>
+      </c>
+      <c r="B1070" s="41" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C1070" s="38">
+        <v>42806</v>
+      </c>
+      <c r="D1070" s="6" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E1070" s="44">
+        <v>44</v>
+      </c>
+      <c r="F1070" s="6" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G1070" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1070" s="44">
+        <v>8</v>
+      </c>
+      <c r="I1070" s="44">
+        <v>2.9</v>
+      </c>
+      <c r="J1070" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1070" s="44">
+        <v>59.9</v>
+      </c>
+      <c r="L1070" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M1070" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N1070" s="6" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1071" s="6">
+        <v>1070</v>
+      </c>
+      <c r="B1071" s="41" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C1071" s="38">
+        <v>42832</v>
+      </c>
+      <c r="D1071" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E1071" s="44">
+        <v>75</v>
+      </c>
+      <c r="F1071" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G1071" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1071" s="44">
+        <v>10</v>
+      </c>
+      <c r="I1071" s="44">
+        <v>15</v>
+      </c>
+      <c r="J1071" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1071" s="44">
+        <v>85</v>
+      </c>
+      <c r="L1071" s="6" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M1071" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N1071" s="6" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1072" s="6">
+        <v>1071</v>
+      </c>
+      <c r="B1072" s="41" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C1072" s="38">
+        <v>42813</v>
+      </c>
+      <c r="D1072" s="6" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E1072" s="44">
+        <v>4</v>
+      </c>
+      <c r="F1072" s="6" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G1072" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1072" s="44">
+        <v>10</v>
+      </c>
+      <c r="I1072" s="44">
+        <v>6</v>
+      </c>
+      <c r="J1072" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1072" s="44">
+        <v>56</v>
+      </c>
+      <c r="L1072" s="6" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M1072" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N1072" s="6" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1073" s="6">
+        <v>1072</v>
+      </c>
+      <c r="B1073" s="41" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C1073" s="38">
+        <v>42713</v>
+      </c>
+      <c r="D1073" s="6" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E1073" s="44">
+        <v>25</v>
+      </c>
+      <c r="F1073" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G1073" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1073" s="44">
+        <v>10</v>
+      </c>
+      <c r="I1073" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1073" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1073" s="44">
+        <v>35</v>
+      </c>
+      <c r="L1073" s="6" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M1073" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N1073" s="6" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1074" s="6">
+        <v>1073</v>
+      </c>
+      <c r="B1074" s="41" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C1074" s="38">
+        <v>42691</v>
+      </c>
+      <c r="D1074" s="6" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E1074" s="44">
+        <v>75</v>
+      </c>
+      <c r="F1074" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G1074" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1074" s="44">
+        <v>10</v>
+      </c>
+      <c r="I1074" s="49">
+        <v>41.25</v>
+      </c>
+      <c r="J1074" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1074" s="44">
+        <v>276.25</v>
+      </c>
+      <c r="L1074" s="6" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M1074" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N1074" s="6" t="s">
+        <v>1514</v>
       </c>
     </row>
   </sheetData>
@@ -54166,7 +54589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B557 B555">
+  <conditionalFormatting sqref="B555 B557">
     <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
       <formula>$B$431</formula>
     </cfRule>

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soda\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="930" yWindow="600" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6148" uniqueCount="1565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6092" uniqueCount="1558">
   <si>
     <t>编号</t>
   </si>
@@ -5827,9 +5827,6 @@
     <t>螃蟹王国 D字齿轮+塑料条</t>
   </si>
   <si>
-    <t>IRLR7843、LM2731、TLV2462、74LS244、MBR0520、IR2104</t>
-  </si>
-  <si>
     <t>尼龙柱、连接件</t>
   </si>
   <si>
@@ -5965,15 +5962,154 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>赵杰</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>电机224V009SR</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵杰</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纤维板加工车模</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料齿轮、扎带、尼龙柱、车轴、蓝丁胶</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>李秋键</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>创意组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>国创项目 推杆电机</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>根</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>国创项目 货柜</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>套</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>IRLR7843、LM2940、LM2941、MAX771ESA</t>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>国创项目 橡皮球</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>c车电池</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB板子</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAG3110电子罗盘</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机驱动板以及杜邦线 龙邱</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子元件</t>
+  </si>
+  <si>
+    <t>碳素杆固定三通连接件</t>
+  </si>
+  <si>
+    <t>电池</t>
+  </si>
+  <si>
+    <t>光编</t>
+  </si>
+  <si>
+    <t>电容 舵机支架</t>
+  </si>
+  <si>
+    <t>杨秉文</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>B车模套装</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -5981,299 +6117,132 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>电轨组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <t>电磁组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>B车套装加舵机</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路板</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>信标组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>C车模</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>辆</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>信标组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>除胶剂</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>信标组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制碳纤维板摄像头支架</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖鞋*5+白醋*2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>除胶剂</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池*2+光编*4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>OV7620摄像头</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸳鸯超声波测距模块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>信标组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭子开关 多路并联开关</t>
   </si>
   <si>
     <t>PCB板子</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>片</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>未上报</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>电轨组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵杰</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机224V009SR</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>未上报</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵杰</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳纤维板加工车模</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>未上报</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>塑料齿轮、扎带、尼龙柱、车轴、蓝丁胶</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>李秋键</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>创意组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>国创项目 推杆电机</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>根</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>国创项目 货柜</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>套</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>国创项目 橡皮球</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>箱</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>c车电池</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>块</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCB板子</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>片</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAG3110电子罗盘</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>块</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机驱动板以及杜邦线 龙邱</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子元件</t>
-  </si>
-  <si>
-    <t>碳素杆固定三通连接件</t>
-  </si>
-  <si>
-    <t>电池</t>
-  </si>
-  <si>
-    <t>光编</t>
-  </si>
-  <si>
-    <t>电容 舵机支架</t>
-  </si>
-  <si>
-    <t>杨秉文</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>B车模套装</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>套</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>未上报</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>B车套装加舵机</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟硕</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>电路板</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>片</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>未上报</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>信标组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟硕</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟硕</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>C车模</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>辆</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>信标组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟硕</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>除胶剂</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>信标组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>定制碳纤维板摄像头支架</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟硕</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖鞋*5+白醋*2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>套</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>除胶剂</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>电池*2+光编*4</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OV7620摄像头</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸳鸯超声波测距模块</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>信标组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>BW6101 LM2940 LM2941</t>
+  </si>
+  <si>
+    <t>碳素杆 舵机连杆</t>
   </si>
 </sst>
 </file>
@@ -6651,7 +6620,17 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7009,48 +6988,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -7075,8 +7012,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="57"/>
-      <tableStyleElement type="headerRow" dxfId="56"/>
+      <tableStyleElement type="wholeTable" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="51"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -7424,11 +7361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1095"/>
+  <dimension ref="A1:S1096"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1073" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1096" sqref="A1096"/>
+      <pane ySplit="1" topLeftCell="A1038" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1060" sqref="F1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7550,7 +7487,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>106404.71400000001</v>
+        <v>106240.96400000001</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -52801,7 +52738,7 @@
         <v>1434</v>
       </c>
       <c r="N1031" s="6" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1032" spans="1:14" x14ac:dyDescent="0.15">
@@ -52845,7 +52782,7 @@
         <v>1434</v>
       </c>
       <c r="N1032" s="6" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1033" spans="1:14" x14ac:dyDescent="0.15">
@@ -53289,26 +53226,26 @@
       </c>
     </row>
     <row r="1043" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1043">
+      <c r="A1043" s="1">
         <v>1042</v>
       </c>
       <c r="B1043" t="s">
         <v>1439</v>
       </c>
       <c r="C1043" s="38">
-        <v>42774</v>
+        <v>42781</v>
       </c>
       <c r="D1043" t="s">
-        <v>98</v>
+        <v>1450</v>
       </c>
       <c r="E1043" s="44">
-        <v>13</v>
+        <v>5.36</v>
       </c>
       <c r="F1043" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G1043">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H1043" s="44">
         <v>0</v>
@@ -53320,7 +53257,7 @@
         <v>0</v>
       </c>
       <c r="K1043" s="44">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="L1043" t="s">
         <v>376</v>
@@ -53333,7 +53270,7 @@
       </c>
     </row>
     <row r="1044" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1044">
+      <c r="A1044" s="1">
         <v>1043</v>
       </c>
       <c r="B1044" t="s">
@@ -53343,16 +53280,16 @@
         <v>42781</v>
       </c>
       <c r="D1044" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E1044" s="44">
-        <v>1.52</v>
+        <v>1.06</v>
       </c>
       <c r="F1044" t="s">
         <v>14</v>
       </c>
       <c r="G1044">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="H1044" s="44">
         <v>0</v>
@@ -53364,10 +53301,10 @@
         <v>0</v>
       </c>
       <c r="K1044" s="44">
-        <v>456</v>
+        <v>26.4</v>
       </c>
       <c r="L1044" t="s">
-        <v>376</v>
+        <v>1323</v>
       </c>
       <c r="M1044" t="s">
         <v>116</v>
@@ -53377,7 +53314,7 @@
       </c>
     </row>
     <row r="1045" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1045">
+      <c r="A1045" s="1">
         <v>1044</v>
       </c>
       <c r="B1045" t="s">
@@ -53387,16 +53324,16 @@
         <v>42781</v>
       </c>
       <c r="D1045" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="E1045" s="44">
-        <v>5.36</v>
+        <v>0.09</v>
       </c>
       <c r="F1045" t="s">
         <v>14</v>
       </c>
       <c r="G1045">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="H1045" s="44">
         <v>0</v>
@@ -53408,10 +53345,10 @@
         <v>0</v>
       </c>
       <c r="K1045" s="44">
-        <v>150</v>
+        <v>26.47</v>
       </c>
       <c r="L1045" t="s">
-        <v>376</v>
+        <v>1323</v>
       </c>
       <c r="M1045" t="s">
         <v>116</v>
@@ -53421,7 +53358,7 @@
       </c>
     </row>
     <row r="1046" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1046">
+      <c r="A1046" s="1">
         <v>1045</v>
       </c>
       <c r="B1046" t="s">
@@ -53431,16 +53368,16 @@
         <v>42781</v>
       </c>
       <c r="D1046" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="E1046" s="44">
-        <v>1.06</v>
+        <v>10</v>
       </c>
       <c r="F1046" t="s">
         <v>14</v>
       </c>
       <c r="G1046">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1046" s="44">
         <v>0</v>
@@ -53452,7 +53389,7 @@
         <v>0</v>
       </c>
       <c r="K1046" s="44">
-        <v>26.4</v>
+        <v>210</v>
       </c>
       <c r="L1046" t="s">
         <v>1323</v>
@@ -53465,26 +53402,26 @@
       </c>
     </row>
     <row r="1047" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1047">
+      <c r="A1047" s="1">
         <v>1046</v>
       </c>
       <c r="B1047" t="s">
         <v>1439</v>
       </c>
       <c r="C1047" s="38">
-        <v>42781</v>
+        <v>42786</v>
       </c>
       <c r="D1047" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E1047" s="44">
-        <v>0.09</v>
+        <v>3.5</v>
       </c>
       <c r="F1047" t="s">
         <v>14</v>
       </c>
       <c r="G1047">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H1047" s="44">
         <v>0</v>
@@ -53496,10 +53433,10 @@
         <v>0</v>
       </c>
       <c r="K1047" s="44">
-        <v>26.47</v>
+        <v>70</v>
       </c>
       <c r="L1047" t="s">
-        <v>1323</v>
+        <v>376</v>
       </c>
       <c r="M1047" t="s">
         <v>116</v>
@@ -53509,29 +53446,29 @@
       </c>
     </row>
     <row r="1048" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1048">
+      <c r="A1048" s="1">
         <v>1047</v>
       </c>
-      <c r="B1048" t="s">
-        <v>1439</v>
+      <c r="B1048" s="1" t="s">
+        <v>1455</v>
       </c>
       <c r="C1048" s="38">
-        <v>42781</v>
+        <v>42728</v>
       </c>
       <c r="D1048" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="E1048" s="44">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F1048" t="s">
-        <v>14</v>
+        <v>1456</v>
       </c>
       <c r="G1048">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H1048" s="44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I1048" s="44">
         <v>0</v>
@@ -53540,42 +53477,42 @@
         <v>0</v>
       </c>
       <c r="K1048" s="44">
-        <v>210</v>
-      </c>
-      <c r="L1048" t="s">
-        <v>1323</v>
-      </c>
-      <c r="M1048" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1048" t="s">
-        <v>1440</v>
+        <v>61</v>
+      </c>
+      <c r="L1048" s="6" t="s">
+        <v>1459</v>
+      </c>
+      <c r="M1048" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="N1048" s="6" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="1049" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1049">
+      <c r="A1049" s="1">
         <v>1048</v>
       </c>
-      <c r="B1049" t="s">
-        <v>1439</v>
+      <c r="B1049" s="41" t="s">
+        <v>1461</v>
       </c>
       <c r="C1049" s="38">
-        <v>42786</v>
-      </c>
-      <c r="D1049" t="s">
-        <v>1455</v>
+        <v>42728</v>
+      </c>
+      <c r="D1049" s="6" t="s">
+        <v>1462</v>
       </c>
       <c r="E1049" s="44">
-        <v>3.5</v>
-      </c>
-      <c r="F1049" t="s">
-        <v>14</v>
+        <v>0.3</v>
+      </c>
+      <c r="F1049" s="6" t="s">
+        <v>1463</v>
       </c>
       <c r="G1049">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H1049" s="44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I1049" s="44">
         <v>0</v>
@@ -53584,42 +53521,42 @@
         <v>0</v>
       </c>
       <c r="K1049" s="44">
-        <v>70</v>
-      </c>
-      <c r="L1049" t="s">
-        <v>376</v>
-      </c>
-      <c r="M1049" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1049" t="s">
-        <v>1440</v>
+        <v>22</v>
+      </c>
+      <c r="L1049" s="6" t="s">
+        <v>1464</v>
+      </c>
+      <c r="M1049" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="N1049" s="6" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="1050" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1050" s="1">
         <v>1049</v>
       </c>
-      <c r="B1050" s="1" t="s">
-        <v>1456</v>
+      <c r="B1050" s="41" t="s">
+        <v>1455</v>
       </c>
       <c r="C1050" s="38">
         <v>42728</v>
       </c>
-      <c r="D1050" t="s">
+      <c r="D1050" s="6" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1050" s="44">
+        <v>3.27</v>
+      </c>
+      <c r="F1050" s="6" t="s">
         <v>1458</v>
       </c>
-      <c r="E1050" s="44">
-        <v>56</v>
-      </c>
-      <c r="F1050" t="s">
-        <v>1457</v>
-      </c>
       <c r="G1050">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1050" s="44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I1050" s="44">
         <v>0</v>
@@ -53628,16 +53565,16 @@
         <v>0</v>
       </c>
       <c r="K1050" s="44">
-        <v>61</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="L1050" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="M1050" s="6" t="s">
         <v>1460</v>
       </c>
-      <c r="M1050" s="6" t="s">
-        <v>1461</v>
-      </c>
       <c r="N1050" s="6" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1051" spans="1:14" x14ac:dyDescent="0.15">
@@ -53645,25 +53582,25 @@
         <v>1050</v>
       </c>
       <c r="B1051" s="41" t="s">
-        <v>1462</v>
+        <v>1455</v>
       </c>
       <c r="C1051" s="38">
         <v>42728</v>
       </c>
       <c r="D1051" s="6" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E1051" s="44">
+        <v>0.85</v>
+      </c>
+      <c r="F1051" s="6" t="s">
         <v>1463</v>
       </c>
-      <c r="E1051" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="F1051" s="6" t="s">
-        <v>1464</v>
-      </c>
       <c r="G1051">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H1051" s="44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I1051" s="44">
         <v>0</v>
@@ -53672,16 +53609,16 @@
         <v>0</v>
       </c>
       <c r="K1051" s="44">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L1051" s="6" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="M1051" s="6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="N1051" s="6" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1052" spans="1:14" x14ac:dyDescent="0.15">
@@ -53689,25 +53626,25 @@
         <v>1051</v>
       </c>
       <c r="B1052" s="41" t="s">
-        <v>1456</v>
+        <v>1468</v>
       </c>
       <c r="C1052" s="38">
         <v>42728</v>
       </c>
       <c r="D1052" s="6" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="E1052" s="44">
-        <v>3.27</v>
+        <v>96</v>
       </c>
       <c r="F1052" s="6" t="s">
-        <v>1459</v>
+        <v>1470</v>
       </c>
       <c r="G1052">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1052" s="44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1052" s="44">
         <v>0</v>
@@ -53716,16 +53653,16 @@
         <v>0</v>
       </c>
       <c r="K1052" s="44">
-        <v>40.700000000000003</v>
+        <v>105</v>
       </c>
       <c r="L1052" s="6" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="M1052" s="6" t="s">
-        <v>1461</v>
+        <v>1472</v>
       </c>
       <c r="N1052" s="6" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1053" spans="1:14" x14ac:dyDescent="0.15">
@@ -53733,25 +53670,25 @@
         <v>1052</v>
       </c>
       <c r="B1053" s="41" t="s">
-        <v>1456</v>
+        <v>1468</v>
       </c>
       <c r="C1053" s="38">
-        <v>42728</v>
+        <v>42729</v>
       </c>
       <c r="D1053" s="6" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
       <c r="E1053" s="44">
-        <v>0.85</v>
+        <v>1.3</v>
       </c>
       <c r="F1053" s="6" t="s">
-        <v>1464</v>
+        <v>1474</v>
       </c>
       <c r="G1053">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H1053" s="44">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1053" s="44">
         <v>0</v>
@@ -53760,16 +53697,16 @@
         <v>0</v>
       </c>
       <c r="K1053" s="44">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L1053" s="6" t="s">
-        <v>1467</v>
+        <v>1475</v>
       </c>
       <c r="M1053" s="6" t="s">
-        <v>1461</v>
+        <v>1472</v>
       </c>
       <c r="N1053" s="6" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1054" spans="1:14" x14ac:dyDescent="0.15">
@@ -53777,25 +53714,25 @@
         <v>1053</v>
       </c>
       <c r="B1054" s="41" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C1054" s="38">
-        <v>42728</v>
+        <v>42751</v>
       </c>
       <c r="D1054" s="6" t="s">
-        <v>1470</v>
+        <v>1477</v>
       </c>
       <c r="E1054" s="44">
-        <v>96</v>
+        <v>2.5</v>
       </c>
       <c r="F1054" s="6" t="s">
-        <v>1471</v>
+        <v>1476</v>
       </c>
       <c r="G1054">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1054" s="44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1054" s="44">
         <v>0</v>
@@ -53804,16 +53741,16 @@
         <v>0</v>
       </c>
       <c r="K1054" s="44">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="L1054" s="6" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="M1054" s="6" t="s">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="N1054" s="6" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1055" spans="1:14" x14ac:dyDescent="0.15">
@@ -53821,43 +53758,43 @@
         <v>1054</v>
       </c>
       <c r="B1055" s="41" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C1055" s="38">
-        <v>42729</v>
+        <v>42751</v>
       </c>
       <c r="D1055" s="6" t="s">
-        <v>1474</v>
-      </c>
-      <c r="E1055" s="44">
-        <v>1.3</v>
+        <v>1479</v>
+      </c>
+      <c r="E1055" s="49">
+        <v>1.6</v>
       </c>
       <c r="F1055" s="6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G1055">
+        <v>5</v>
+      </c>
+      <c r="H1055" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1055" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1055" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1055" s="44">
+        <v>8</v>
+      </c>
+      <c r="L1055" s="6" t="s">
         <v>1475</v>
       </c>
-      <c r="G1055">
-        <v>10</v>
-      </c>
-      <c r="H1055" s="44">
-        <v>8</v>
-      </c>
-      <c r="I1055" s="44">
-        <v>0</v>
-      </c>
-      <c r="J1055" s="44">
-        <v>0</v>
-      </c>
-      <c r="K1055" s="44">
-        <v>21</v>
-      </c>
-      <c r="L1055" s="6" t="s">
-        <v>1476</v>
-      </c>
       <c r="M1055" s="6" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="N1055" s="6" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1056" spans="1:14" x14ac:dyDescent="0.15">
@@ -53865,25 +53802,25 @@
         <v>1055</v>
       </c>
       <c r="B1056" s="41" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C1056" s="38">
         <v>42751</v>
       </c>
       <c r="D1056" s="6" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="E1056" s="44">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F1056" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G1056">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1056" s="44">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I1056" s="44">
         <v>0</v>
@@ -53892,16 +53829,16 @@
         <v>0</v>
       </c>
       <c r="K1056" s="44">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="L1056" s="6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="M1056" s="6" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="N1056" s="6" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1057" spans="1:14" x14ac:dyDescent="0.15">
@@ -53909,335 +53846,333 @@
         <v>1056</v>
       </c>
       <c r="B1057" s="41" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C1057" s="38">
-        <v>42751</v>
+        <v>42778</v>
       </c>
       <c r="D1057" s="6" t="s">
-        <v>1480</v>
-      </c>
-      <c r="E1057" s="49">
-        <v>1.6</v>
+        <v>1481</v>
+      </c>
+      <c r="E1057" s="44">
+        <v>174</v>
       </c>
       <c r="F1057" s="6" t="s">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="G1057">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1057" s="44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I1057" s="44">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J1057" s="44">
         <v>0</v>
       </c>
       <c r="K1057" s="44">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="L1057" s="6" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="M1057" s="6" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="N1057" s="6" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1058" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1058" s="6">
+      <c r="A1058" s="1">
         <v>1057</v>
       </c>
       <c r="B1058" s="41" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C1058" s="38">
-        <v>42751</v>
+        <v>42778</v>
       </c>
       <c r="D1058" s="6" t="s">
         <v>1481</v>
       </c>
       <c r="E1058" s="44">
-        <v>3.5</v>
+        <v>174</v>
       </c>
       <c r="F1058" s="6" t="s">
-        <v>1477</v>
+        <v>1483</v>
       </c>
       <c r="G1058">
+        <v>4</v>
+      </c>
+      <c r="H1058" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1058" s="44">
+        <v>34</v>
+      </c>
+      <c r="J1058" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1058" s="44">
+        <v>740</v>
+      </c>
+      <c r="L1058" s="6" t="s">
+        <v>1484</v>
+      </c>
+      <c r="M1058" s="6" t="s">
+        <v>1472</v>
+      </c>
+      <c r="N1058" s="6" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1059" s="1">
+        <v>1058</v>
+      </c>
+      <c r="B1059" s="41" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C1059" s="38">
+        <v>42799</v>
+      </c>
+      <c r="D1059" s="6" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E1059" s="44">
+        <v>51.44</v>
+      </c>
+      <c r="F1059" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1059" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1059" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1059" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1059" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1059" s="44">
+        <v>51.44</v>
+      </c>
+      <c r="L1059" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="M1059" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N1059" s="6" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1060" s="1">
+        <v>1059</v>
+      </c>
+      <c r="B1060" s="41" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C1060" s="38">
+        <v>42803</v>
+      </c>
+      <c r="D1060" s="6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E1060" s="44">
+        <v>50</v>
+      </c>
+      <c r="F1060" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G1060" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1060" s="44">
+        <v>14</v>
+      </c>
+      <c r="I1060" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1060" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1060" s="44">
+        <v>164</v>
+      </c>
+      <c r="L1060" s="6" t="s">
+        <v>1489</v>
+      </c>
+      <c r="M1060" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="N1060" s="6" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1061" s="1">
+        <v>1060</v>
+      </c>
+      <c r="B1061" s="41" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C1061" s="38">
+        <v>42803</v>
+      </c>
+      <c r="D1061" s="6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E1061" s="44">
+        <v>200</v>
+      </c>
+      <c r="F1061" s="6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G1061" s="1">
         <v>2</v>
       </c>
-      <c r="H1058" s="44">
-        <v>0</v>
-      </c>
-      <c r="I1058" s="44">
-        <v>0</v>
-      </c>
-      <c r="J1058" s="44">
-        <v>0</v>
-      </c>
-      <c r="K1058" s="44">
-        <v>7</v>
-      </c>
-      <c r="L1058" s="6" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M1058" s="6" t="s">
-        <v>1473</v>
-      </c>
-      <c r="N1058" s="6" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1059" s="6">
-        <v>1058</v>
-      </c>
-      <c r="B1059" s="41" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C1059" s="38">
-        <v>42778</v>
-      </c>
-      <c r="D1059" s="6" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E1059" s="44">
+      <c r="H1061" s="44">
+        <v>23</v>
+      </c>
+      <c r="I1061" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1061" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1061" s="44">
+        <v>423</v>
+      </c>
+      <c r="L1061" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M1061" s="6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="N1061" s="6" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1062" s="1">
+        <v>1061</v>
+      </c>
+      <c r="B1062" s="41" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C1062" s="38">
+        <v>42794</v>
+      </c>
+      <c r="D1062" s="6" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E1062" s="44">
         <v>174</v>
       </c>
-      <c r="F1059" s="6" t="s">
-        <v>1483</v>
-      </c>
-      <c r="G1059">
+      <c r="F1062" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1062" s="1">
         <v>1</v>
       </c>
-      <c r="H1059" s="44">
+      <c r="H1062" s="44">
         <v>10</v>
       </c>
-      <c r="I1059" s="44">
+      <c r="I1062" s="44">
         <v>12</v>
       </c>
-      <c r="J1059" s="44">
-        <v>0</v>
-      </c>
-      <c r="K1059" s="44">
+      <c r="J1062" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1062" s="44">
         <v>196</v>
       </c>
-      <c r="L1059" s="6" t="s">
-        <v>1472</v>
-      </c>
-      <c r="M1059" s="6" t="s">
-        <v>1473</v>
-      </c>
-      <c r="N1059" s="6" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1060" s="6">
-        <v>1059</v>
-      </c>
-      <c r="B1060" s="41" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C1060" s="38">
-        <v>42778</v>
-      </c>
-      <c r="D1060" s="6" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E1060" s="44">
-        <v>174</v>
-      </c>
-      <c r="F1060" s="6" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G1060">
+      <c r="L1062" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M1062" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N1062" s="6" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1063" s="1">
+        <v>1062</v>
+      </c>
+      <c r="B1063" s="41" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C1063" s="38">
+        <v>42805</v>
+      </c>
+      <c r="D1063" s="6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E1063" s="44">
+        <v>160</v>
+      </c>
+      <c r="F1063" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G1063" s="1">
         <v>4</v>
       </c>
-      <c r="H1060" s="44">
-        <v>0</v>
-      </c>
-      <c r="I1060" s="44">
-        <v>34</v>
-      </c>
-      <c r="J1060" s="44">
-        <v>0</v>
-      </c>
-      <c r="K1060" s="44">
-        <v>740</v>
-      </c>
-      <c r="L1060" s="6" t="s">
-        <v>1485</v>
-      </c>
-      <c r="M1060" s="6" t="s">
-        <v>1473</v>
-      </c>
-      <c r="N1060" s="6" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1061" s="6">
-        <v>1060</v>
-      </c>
-      <c r="B1061" s="41" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C1061" s="38">
-        <v>42790</v>
-      </c>
-      <c r="D1061" s="6" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E1061" s="44">
-        <v>347</v>
-      </c>
-      <c r="F1061" s="6" t="s">
-        <v>1487</v>
-      </c>
-      <c r="G1061">
-        <v>1</v>
-      </c>
-      <c r="H1061" s="44">
-        <v>0</v>
-      </c>
-      <c r="I1061" s="44">
-        <v>0</v>
-      </c>
-      <c r="J1061" s="44">
-        <v>0</v>
-      </c>
-      <c r="K1061" s="44">
-        <v>347</v>
-      </c>
-      <c r="L1061" s="6" t="s">
+      <c r="H1063" s="44">
+        <v>10</v>
+      </c>
+      <c r="I1063" s="44">
+        <v>30</v>
+      </c>
+      <c r="J1063" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1063" s="44">
+        <v>680</v>
+      </c>
+      <c r="L1063" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="M1061" s="6" t="s">
-        <v>1489</v>
-      </c>
-      <c r="N1061" s="6" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1062" s="6">
-        <v>1061</v>
-      </c>
-      <c r="B1062" s="41" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C1062" s="38">
-        <v>42791</v>
-      </c>
-      <c r="D1062" s="6" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E1062" s="44">
-        <f>275/20</f>
-        <v>13.75</v>
-      </c>
-      <c r="F1062" s="6" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G1062">
-        <v>20</v>
-      </c>
-      <c r="H1062" s="44">
-        <v>0</v>
-      </c>
-      <c r="I1062" s="44">
-        <v>0</v>
-      </c>
-      <c r="J1062" s="44">
-        <v>0</v>
-      </c>
-      <c r="K1062" s="44">
-        <v>275</v>
-      </c>
-      <c r="L1062" s="6" t="s">
-        <v>1493</v>
-      </c>
-      <c r="M1062" s="6" t="s">
-        <v>1494</v>
-      </c>
-      <c r="N1062" s="6" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1063" s="6">
-        <v>1062</v>
-      </c>
-      <c r="B1063" s="41" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C1063" s="38">
-        <v>42791</v>
-      </c>
-      <c r="D1063" s="6" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E1063" s="44">
-        <f>275/20</f>
-        <v>13.75</v>
-      </c>
-      <c r="F1063" s="6" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G1063" s="1">
-        <v>20</v>
-      </c>
-      <c r="H1063" s="44">
-        <v>0</v>
-      </c>
-      <c r="I1063" s="44">
-        <v>0</v>
-      </c>
-      <c r="J1063" s="44">
-        <v>0</v>
-      </c>
-      <c r="K1063" s="44">
-        <v>275</v>
-      </c>
-      <c r="L1063" s="6" t="s">
-        <v>1493</v>
-      </c>
       <c r="M1063" s="6" t="s">
-        <v>1494</v>
+        <v>520</v>
       </c>
       <c r="N1063" s="6" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1064" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1064" s="6">
+      <c r="A1064" s="1">
         <v>1063</v>
       </c>
       <c r="B1064" s="41" t="s">
-        <v>1324</v>
+        <v>1497</v>
       </c>
       <c r="C1064" s="38">
-        <v>42799</v>
+        <v>42807</v>
       </c>
       <c r="D1064" s="6" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="E1064" s="44">
-        <v>51.44</v>
+        <v>25</v>
       </c>
       <c r="F1064" s="6" t="s">
-        <v>414</v>
+        <v>1502</v>
       </c>
       <c r="G1064" s="1">
         <v>1</v>
       </c>
       <c r="H1064" s="44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I1064" s="44">
         <v>0</v>
@@ -54246,227 +54181,227 @@
         <v>0</v>
       </c>
       <c r="K1064" s="44">
-        <v>51.44</v>
+        <v>35</v>
       </c>
       <c r="L1064" s="6" t="s">
-        <v>1496</v>
+        <v>1503</v>
       </c>
       <c r="M1064" s="6" t="s">
         <v>520</v>
       </c>
       <c r="N1064" s="6" t="s">
-        <v>1326</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1065" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1065" s="6">
+      <c r="A1065" s="1">
         <v>1064</v>
       </c>
       <c r="B1065" s="41" t="s">
         <v>1497</v>
       </c>
       <c r="C1065" s="38">
-        <v>42803</v>
+        <v>42806</v>
       </c>
       <c r="D1065" s="6" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E1065" s="44">
+        <v>44</v>
+      </c>
+      <c r="F1065" s="6" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G1065" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1065" s="44">
+        <v>8</v>
+      </c>
+      <c r="I1065" s="44">
+        <v>2.9</v>
+      </c>
+      <c r="J1065" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1065" s="44">
+        <v>59.9</v>
+      </c>
+      <c r="L1065" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M1065" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N1065" s="6" t="s">
         <v>1498</v>
       </c>
-      <c r="E1065" s="44">
-        <v>50</v>
-      </c>
-      <c r="F1065" s="6" t="s">
-        <v>1499</v>
-      </c>
-      <c r="G1065" s="1">
-        <v>3</v>
-      </c>
-      <c r="H1065" s="44">
-        <v>14</v>
-      </c>
-      <c r="I1065" s="44">
-        <v>0</v>
-      </c>
-      <c r="J1065" s="44">
-        <v>0</v>
-      </c>
-      <c r="K1065" s="44">
-        <v>164</v>
-      </c>
-      <c r="L1065" s="6" t="s">
-        <v>1500</v>
-      </c>
-      <c r="M1065" s="6" t="s">
-        <v>1501</v>
-      </c>
-      <c r="N1065" s="6" t="s">
-        <v>1326</v>
-      </c>
     </row>
     <row r="1066" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1066" s="6">
+      <c r="A1066" s="1">
         <v>1065</v>
       </c>
       <c r="B1066" s="41" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="C1066" s="38">
-        <v>42803</v>
+        <v>42832</v>
       </c>
       <c r="D1066" s="6" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="E1066" s="44">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="F1066" s="6" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="G1066" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1066" s="44">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I1066" s="44">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J1066" s="44">
         <v>0</v>
       </c>
       <c r="K1066" s="44">
-        <v>423</v>
+        <v>85</v>
       </c>
       <c r="L1066" s="6" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="M1066" s="6" t="s">
-        <v>1506</v>
+        <v>520</v>
       </c>
       <c r="N1066" s="6" t="s">
-        <v>1326</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1067" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1067" s="6">
+      <c r="A1067" s="1">
         <v>1066</v>
       </c>
       <c r="B1067" s="41" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="C1067" s="38">
-        <v>42794</v>
+        <v>42813</v>
       </c>
       <c r="D1067" s="6" t="s">
-        <v>1482</v>
+        <v>1509</v>
       </c>
       <c r="E1067" s="44">
-        <v>174</v>
+        <v>4</v>
       </c>
       <c r="F1067" s="6" t="s">
-        <v>416</v>
+        <v>1510</v>
       </c>
       <c r="G1067" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1067" s="44">
         <v>10</v>
       </c>
       <c r="I1067" s="44">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J1067" s="44">
         <v>0</v>
       </c>
       <c r="K1067" s="44">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="L1067" s="6" t="s">
-        <v>477</v>
+        <v>1508</v>
       </c>
       <c r="M1067" s="6" t="s">
         <v>520</v>
       </c>
       <c r="N1067" s="6" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1068" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1068" s="6">
+      <c r="A1068" s="1">
         <v>1067</v>
       </c>
       <c r="B1068" s="41" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="C1068" s="38">
-        <v>42805</v>
+        <v>42713</v>
       </c>
       <c r="D1068" s="6" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="E1068" s="44">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="F1068" s="6" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="G1068" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1068" s="44">
         <v>10</v>
       </c>
       <c r="I1068" s="44">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J1068" s="44">
         <v>0</v>
       </c>
       <c r="K1068" s="44">
-        <v>680</v>
+        <v>35</v>
       </c>
       <c r="L1068" s="6" t="s">
-        <v>477</v>
+        <v>1503</v>
       </c>
       <c r="M1068" s="6" t="s">
         <v>520</v>
       </c>
       <c r="N1068" s="6" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1069" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1069" s="6">
+      <c r="A1069" s="1">
         <v>1068</v>
       </c>
       <c r="B1069" s="41" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="C1069" s="38">
-        <v>42807</v>
+        <v>42691</v>
       </c>
       <c r="D1069" s="6" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E1069" s="44">
+        <v>75</v>
+      </c>
+      <c r="F1069" s="6" t="s">
         <v>1512</v>
       </c>
-      <c r="E1069" s="44">
-        <v>25</v>
-      </c>
-      <c r="F1069" s="6" t="s">
-        <v>1513</v>
-      </c>
       <c r="G1069" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1069" s="44">
         <v>10</v>
       </c>
-      <c r="I1069" s="44">
-        <v>0</v>
+      <c r="I1069" s="49">
+        <v>41.25</v>
       </c>
       <c r="J1069" s="44">
         <v>0</v>
       </c>
       <c r="K1069" s="44">
-        <v>35</v>
+        <v>276.25</v>
       </c>
       <c r="L1069" s="6" t="s">
         <v>1514</v>
@@ -54475,244 +54410,244 @@
         <v>520</v>
       </c>
       <c r="N1069" s="6" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1070" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1070" s="6">
+      <c r="A1070" s="1">
         <v>1069</v>
       </c>
-      <c r="B1070" s="41" t="s">
-        <v>1508</v>
+      <c r="B1070" t="s">
+        <v>1319</v>
       </c>
       <c r="C1070" s="38">
-        <v>42806</v>
-      </c>
-      <c r="D1070" s="6" t="s">
+        <v>42699</v>
+      </c>
+      <c r="D1070" t="s">
         <v>1515</v>
       </c>
       <c r="E1070" s="44">
-        <v>44</v>
-      </c>
-      <c r="F1070" s="6" t="s">
+        <v>79.3</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1070">
+        <v>1</v>
+      </c>
+      <c r="H1070" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1070" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1070" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1070" s="44">
+        <v>79.3</v>
+      </c>
+      <c r="L1070" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1070" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1070" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1071" s="1">
+        <v>1070</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C1071" s="38">
+        <v>42741</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1071" s="44">
+        <v>212</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1071">
+        <v>1</v>
+      </c>
+      <c r="H1071" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1071" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1071" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1071" s="44">
+        <v>212</v>
+      </c>
+      <c r="L1071" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1071" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1071" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1072" s="1">
+        <v>1071</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C1072" s="38">
+        <v>42800</v>
+      </c>
+      <c r="D1072" t="s">
         <v>1516</v>
       </c>
-      <c r="G1070" s="1">
+      <c r="E1072" s="44">
+        <v>174.9</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1072">
         <v>1</v>
       </c>
-      <c r="H1070" s="44">
-        <v>8</v>
-      </c>
-      <c r="I1070" s="44">
-        <v>2.9</v>
-      </c>
-      <c r="J1070" s="44">
-        <v>0</v>
-      </c>
-      <c r="K1070" s="44">
-        <v>59.9</v>
-      </c>
-      <c r="L1070" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="M1070" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="N1070" s="6" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1071" s="6">
-        <v>1070</v>
-      </c>
-      <c r="B1071" s="41" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C1071" s="38">
-        <v>42832</v>
-      </c>
-      <c r="D1071" s="6" t="s">
+      <c r="H1072" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1072" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1072" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1072" s="44">
+        <v>174.9</v>
+      </c>
+      <c r="L1072" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1072" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1072" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1073" s="1">
+        <v>1072</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C1073" s="38">
+        <v>42785</v>
+      </c>
+      <c r="D1073" t="s">
         <v>1517</v>
       </c>
-      <c r="E1071" s="44">
-        <v>75</v>
-      </c>
-      <c r="F1071" s="6" t="s">
+      <c r="E1073" s="44">
+        <v>193.6</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1073">
+        <v>1</v>
+      </c>
+      <c r="H1073" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1073" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1073" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1073" s="44">
+        <v>193.6</v>
+      </c>
+      <c r="L1073" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1073" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1073" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1074" s="1">
+        <v>1073</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C1074" s="38">
+        <v>42775</v>
+      </c>
+      <c r="D1074" t="s">
         <v>1518</v>
       </c>
-      <c r="G1071" s="1">
-        <v>1</v>
-      </c>
-      <c r="H1071" s="44">
-        <v>10</v>
-      </c>
-      <c r="I1071" s="44">
-        <v>15</v>
-      </c>
-      <c r="J1071" s="44">
-        <v>0</v>
-      </c>
-      <c r="K1071" s="44">
-        <v>85</v>
-      </c>
-      <c r="L1071" s="6" t="s">
-        <v>1519</v>
-      </c>
-      <c r="M1071" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="N1071" s="6" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1072" s="6">
-        <v>1071</v>
-      </c>
-      <c r="B1072" s="41" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C1072" s="38">
-        <v>42813</v>
-      </c>
-      <c r="D1072" s="6" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E1072" s="44">
-        <v>4</v>
-      </c>
-      <c r="F1072" s="6" t="s">
-        <v>1521</v>
-      </c>
-      <c r="G1072" s="1">
-        <v>10</v>
-      </c>
-      <c r="H1072" s="44">
-        <v>10</v>
-      </c>
-      <c r="I1072" s="44">
-        <v>6</v>
-      </c>
-      <c r="J1072" s="44">
-        <v>0</v>
-      </c>
-      <c r="K1072" s="44">
-        <v>56</v>
-      </c>
-      <c r="L1072" s="6" t="s">
-        <v>1519</v>
-      </c>
-      <c r="M1072" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="N1072" s="6" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1073" s="6">
-        <v>1072</v>
-      </c>
-      <c r="B1073" s="41" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C1073" s="38">
-        <v>42713</v>
-      </c>
-      <c r="D1073" s="6" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E1073" s="44">
-        <v>25</v>
-      </c>
-      <c r="F1073" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G1073" s="1">
-        <v>1</v>
-      </c>
-      <c r="H1073" s="44">
-        <v>10</v>
-      </c>
-      <c r="I1073" s="44">
-        <v>0</v>
-      </c>
-      <c r="J1073" s="44">
-        <v>0</v>
-      </c>
-      <c r="K1073" s="44">
-        <v>35</v>
-      </c>
-      <c r="L1073" s="6" t="s">
-        <v>1514</v>
-      </c>
-      <c r="M1073" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="N1073" s="6" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1074" s="6">
-        <v>1073</v>
-      </c>
-      <c r="B1074" s="41" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C1074" s="38">
-        <v>42691</v>
-      </c>
-      <c r="D1074" s="6" t="s">
-        <v>1524</v>
-      </c>
       <c r="E1074" s="44">
-        <v>75</v>
-      </c>
-      <c r="F1074" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G1074" s="1">
-        <v>3</v>
+        <v>254</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1074">
+        <v>2</v>
       </c>
       <c r="H1074" s="44">
-        <v>10</v>
-      </c>
-      <c r="I1074" s="49">
-        <v>41.25</v>
+        <v>0</v>
+      </c>
+      <c r="I1074" s="44">
+        <v>0</v>
       </c>
       <c r="J1074" s="44">
         <v>0</v>
       </c>
       <c r="K1074" s="44">
-        <v>276.25</v>
-      </c>
-      <c r="L1074" s="6" t="s">
-        <v>1525</v>
-      </c>
-      <c r="M1074" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="N1074" s="6" t="s">
-        <v>1509</v>
+        <v>508</v>
+      </c>
+      <c r="L1074" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1074" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1074" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="1075" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1075" s="6">
+      <c r="A1075" s="1">
         <v>1074</v>
       </c>
       <c r="B1075" t="s">
         <v>1319</v>
       </c>
       <c r="C1075" s="38">
-        <v>42699</v>
+        <v>42735</v>
       </c>
       <c r="D1075" t="s">
-        <v>1526</v>
+        <v>327</v>
       </c>
       <c r="E1075" s="44">
-        <v>79.3</v>
+        <v>207</v>
       </c>
       <c r="F1075" t="s">
         <v>85</v>
@@ -54730,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="K1075" s="44">
-        <v>79.3</v>
+        <v>207</v>
       </c>
       <c r="L1075" t="s">
         <v>376</v>
@@ -54743,23 +54678,23 @@
       </c>
     </row>
     <row r="1076" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1076" s="6">
+      <c r="A1076" s="1">
         <v>1075</v>
       </c>
       <c r="B1076" t="s">
         <v>1319</v>
       </c>
       <c r="C1076" s="38">
-        <v>42741</v>
+        <v>42819</v>
       </c>
       <c r="D1076" t="s">
-        <v>98</v>
+        <v>1519</v>
       </c>
       <c r="E1076" s="44">
-        <v>212</v>
+        <v>199.71</v>
       </c>
       <c r="F1076" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G1076">
         <v>1</v>
@@ -54774,7 +54709,7 @@
         <v>0</v>
       </c>
       <c r="K1076" s="44">
-        <v>212</v>
+        <v>199.71</v>
       </c>
       <c r="L1076" t="s">
         <v>376</v>
@@ -54787,23 +54722,23 @@
       </c>
     </row>
     <row r="1077" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1077" s="6">
+      <c r="A1077" s="1">
         <v>1076</v>
       </c>
       <c r="B1077" t="s">
         <v>1319</v>
       </c>
       <c r="C1077" s="38">
-        <v>42800</v>
+        <v>42793</v>
       </c>
       <c r="D1077" t="s">
-        <v>1527</v>
+        <v>98</v>
       </c>
       <c r="E1077" s="44">
-        <v>174.9</v>
+        <v>106</v>
       </c>
       <c r="F1077" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G1077">
         <v>1</v>
@@ -54818,7 +54753,7 @@
         <v>0</v>
       </c>
       <c r="K1077" s="44">
-        <v>174.9</v>
+        <v>106</v>
       </c>
       <c r="L1077" t="s">
         <v>376</v>
@@ -54831,23 +54766,23 @@
       </c>
     </row>
     <row r="1078" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1078" s="6">
+      <c r="A1078" s="1">
         <v>1077</v>
       </c>
       <c r="B1078" t="s">
         <v>1319</v>
       </c>
       <c r="C1078" s="38">
-        <v>42785</v>
+        <v>42779</v>
       </c>
       <c r="D1078" t="s">
-        <v>1528</v>
+        <v>98</v>
       </c>
       <c r="E1078" s="44">
-        <v>193.6</v>
+        <v>100</v>
       </c>
       <c r="F1078" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G1078">
         <v>1</v>
@@ -54862,7 +54797,7 @@
         <v>0</v>
       </c>
       <c r="K1078" s="44">
-        <v>193.6</v>
+        <v>100</v>
       </c>
       <c r="L1078" t="s">
         <v>376</v>
@@ -54875,26 +54810,26 @@
       </c>
     </row>
     <row r="1079" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1079" s="6">
+      <c r="A1079" s="1">
         <v>1078</v>
       </c>
       <c r="B1079" t="s">
         <v>1319</v>
       </c>
       <c r="C1079" s="38">
-        <v>42775</v>
+        <v>42793</v>
       </c>
       <c r="D1079" t="s">
-        <v>1529</v>
+        <v>98</v>
       </c>
       <c r="E1079" s="44">
-        <v>254</v>
+        <v>106</v>
       </c>
       <c r="F1079" t="s">
         <v>14</v>
       </c>
       <c r="G1079">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1079" s="44">
         <v>0</v>
@@ -54906,7 +54841,7 @@
         <v>0</v>
       </c>
       <c r="K1079" s="44">
-        <v>508</v>
+        <v>106</v>
       </c>
       <c r="L1079" t="s">
         <v>376</v>
@@ -54919,23 +54854,23 @@
       </c>
     </row>
     <row r="1080" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1080" s="6">
+      <c r="A1080" s="1">
         <v>1079</v>
       </c>
-      <c r="B1080" t="s">
-        <v>1319</v>
+      <c r="B1080" s="1" t="s">
+        <v>1520</v>
       </c>
       <c r="C1080" s="38">
-        <v>42735</v>
-      </c>
-      <c r="D1080" t="s">
-        <v>327</v>
+        <v>42715</v>
+      </c>
+      <c r="D1080" s="1" t="s">
+        <v>1521</v>
       </c>
       <c r="E1080" s="44">
-        <v>207</v>
-      </c>
-      <c r="F1080" t="s">
-        <v>85</v>
+        <v>595</v>
+      </c>
+      <c r="F1080" s="1" t="s">
+        <v>1522</v>
       </c>
       <c r="G1080">
         <v>1</v>
@@ -54950,36 +54885,36 @@
         <v>0</v>
       </c>
       <c r="K1080" s="44">
-        <v>207</v>
-      </c>
-      <c r="L1080" t="s">
-        <v>376</v>
-      </c>
-      <c r="M1080" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1080" t="s">
-        <v>53</v>
+        <v>595</v>
+      </c>
+      <c r="L1080" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M1080" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="N1080" s="1" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="1081" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1081" s="6">
+      <c r="A1081" s="1">
         <v>1080</v>
       </c>
-      <c r="B1081" t="s">
-        <v>1319</v>
+      <c r="B1081" s="1" t="s">
+        <v>1520</v>
       </c>
       <c r="C1081" s="38">
-        <v>42819</v>
-      </c>
-      <c r="D1081" t="s">
-        <v>1530</v>
+        <v>42789</v>
+      </c>
+      <c r="D1081" s="1" t="s">
+        <v>1526</v>
       </c>
       <c r="E1081" s="44">
-        <v>199.71</v>
-      </c>
-      <c r="F1081" t="s">
-        <v>85</v>
+        <v>707</v>
+      </c>
+      <c r="F1081" s="1" t="s">
+        <v>1522</v>
       </c>
       <c r="G1081">
         <v>1</v>
@@ -54994,80 +54929,80 @@
         <v>0</v>
       </c>
       <c r="K1081" s="44">
-        <v>199.71</v>
-      </c>
-      <c r="L1081" t="s">
-        <v>376</v>
-      </c>
-      <c r="M1081" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1081" t="s">
-        <v>53</v>
+        <v>707</v>
+      </c>
+      <c r="L1081" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M1081" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="N1081" s="1" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="1082" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1082" s="6">
+      <c r="A1082" s="1">
         <v>1081</v>
       </c>
-      <c r="B1082" t="s">
-        <v>1319</v>
+      <c r="B1082" s="41" t="s">
+        <v>1527</v>
       </c>
       <c r="C1082" s="38">
-        <v>42793</v>
-      </c>
-      <c r="D1082" t="s">
-        <v>98</v>
+        <v>42822</v>
+      </c>
+      <c r="D1082" s="41" t="s">
+        <v>1528</v>
       </c>
       <c r="E1082" s="44">
-        <v>106</v>
-      </c>
-      <c r="F1082" t="s">
-        <v>14</v>
+        <v>58.25</v>
+      </c>
+      <c r="F1082" s="41" t="s">
+        <v>1529</v>
       </c>
       <c r="G1082">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1082" s="44">
         <v>0</v>
       </c>
       <c r="I1082" s="44">
-        <v>0</v>
+        <v>8.74</v>
       </c>
       <c r="J1082" s="44">
         <v>0</v>
       </c>
       <c r="K1082" s="44">
-        <v>106</v>
-      </c>
-      <c r="L1082" t="s">
-        <v>376</v>
-      </c>
-      <c r="M1082" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1082" t="s">
-        <v>53</v>
+        <v>300</v>
+      </c>
+      <c r="L1082" s="41" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M1082" s="41" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N1082" s="6" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="1083" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1083" s="6">
+      <c r="A1083" s="1">
         <v>1082</v>
       </c>
-      <c r="B1083" t="s">
-        <v>1319</v>
+      <c r="B1083" s="41" t="s">
+        <v>1534</v>
       </c>
       <c r="C1083" s="38">
-        <v>42779</v>
-      </c>
-      <c r="D1083" t="s">
-        <v>98</v>
+        <v>42838</v>
+      </c>
+      <c r="D1083" s="41" t="s">
+        <v>1535</v>
       </c>
       <c r="E1083" s="44">
-        <v>100</v>
-      </c>
-      <c r="F1083" t="s">
-        <v>14</v>
+        <v>320.51</v>
+      </c>
+      <c r="F1083" s="41" t="s">
+        <v>1536</v>
       </c>
       <c r="G1083">
         <v>1</v>
@@ -55076,45 +55011,45 @@
         <v>0</v>
       </c>
       <c r="I1083" s="44">
-        <v>0</v>
+        <v>54.49</v>
       </c>
       <c r="J1083" s="44">
         <v>0</v>
       </c>
       <c r="K1083" s="44">
-        <v>100</v>
-      </c>
-      <c r="L1083" t="s">
-        <v>376</v>
-      </c>
-      <c r="M1083" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1083" t="s">
-        <v>53</v>
+        <v>375</v>
+      </c>
+      <c r="L1083" s="41" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M1083" s="41" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N1083" s="6" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="1084" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1084" s="6">
+      <c r="A1084" s="1">
         <v>1083</v>
       </c>
-      <c r="B1084" t="s">
-        <v>1319</v>
+      <c r="B1084" s="41" t="s">
+        <v>1538</v>
       </c>
       <c r="C1084" s="38">
-        <v>42793</v>
-      </c>
-      <c r="D1084" t="s">
-        <v>98</v>
+        <v>42835</v>
+      </c>
+      <c r="D1084" s="41" t="s">
+        <v>1539</v>
       </c>
       <c r="E1084" s="44">
-        <v>106</v>
+        <v>9.9</v>
       </c>
       <c r="F1084" t="s">
-        <v>14</v>
+        <v>1540</v>
       </c>
       <c r="G1084">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1084" s="44">
         <v>0</v>
@@ -55126,80 +55061,80 @@
         <v>0</v>
       </c>
       <c r="K1084" s="44">
-        <v>106</v>
-      </c>
-      <c r="L1084" t="s">
-        <v>376</v>
-      </c>
-      <c r="M1084" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1084" t="s">
-        <v>53</v>
+        <v>49.5</v>
+      </c>
+      <c r="L1084" s="41" t="s">
+        <v>1541</v>
+      </c>
+      <c r="M1084" s="41" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N1084" s="6" t="s">
+        <v>1542</v>
       </c>
     </row>
     <row r="1085" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1085" s="6">
+      <c r="A1085" s="1">
         <v>1084</v>
       </c>
-      <c r="B1085" s="1" t="s">
+      <c r="B1085" s="41" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C1085" s="38">
+        <v>42838</v>
+      </c>
+      <c r="D1085" s="6" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E1085" s="44">
+        <v>35</v>
+      </c>
+      <c r="F1085" s="6" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G1085">
+        <v>2</v>
+      </c>
+      <c r="H1085" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1085" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1085" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1085" s="44">
+        <v>70</v>
+      </c>
+      <c r="L1085" s="41" t="s">
+        <v>1541</v>
+      </c>
+      <c r="M1085" s="41" t="s">
         <v>1531</v>
       </c>
-      <c r="C1085" s="38">
-        <v>42715</v>
-      </c>
-      <c r="D1085" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E1085" s="44">
-        <v>595</v>
-      </c>
-      <c r="F1085" s="1" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G1085">
-        <v>1</v>
-      </c>
-      <c r="H1085" s="44">
-        <v>0</v>
-      </c>
-      <c r="I1085" s="44">
-        <v>0</v>
-      </c>
-      <c r="J1085" s="44">
-        <v>0</v>
-      </c>
-      <c r="K1085" s="44">
-        <v>595</v>
-      </c>
-      <c r="L1085" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="M1085" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="N1085" s="1" t="s">
-        <v>1536</v>
+      <c r="N1085" s="6" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="1086" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1086" s="6">
+      <c r="A1086" s="1">
         <v>1085</v>
       </c>
-      <c r="B1086" s="1" t="s">
-        <v>1531</v>
+      <c r="B1086" s="41" t="s">
+        <v>1544</v>
       </c>
       <c r="C1086" s="38">
-        <v>42789</v>
-      </c>
-      <c r="D1086" s="1" t="s">
-        <v>1537</v>
+        <v>42838</v>
+      </c>
+      <c r="D1086" s="6" t="s">
+        <v>1545</v>
       </c>
       <c r="E1086" s="44">
-        <v>707</v>
-      </c>
-      <c r="F1086" s="1" t="s">
-        <v>1533</v>
+        <v>97</v>
+      </c>
+      <c r="F1086" s="6" t="s">
+        <v>1546</v>
       </c>
       <c r="G1086">
         <v>1</v>
@@ -55214,35 +55149,35 @@
         <v>0</v>
       </c>
       <c r="K1086" s="44">
-        <v>707</v>
-      </c>
-      <c r="L1086" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="M1086" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="N1086" s="1" t="s">
-        <v>1536</v>
+        <v>97</v>
+      </c>
+      <c r="L1086" s="41" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M1086" s="41" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N1086" s="6" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="1087" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1087" s="6">
+      <c r="A1087" s="1">
         <v>1086</v>
       </c>
       <c r="B1087" s="41" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="C1087" s="38">
-        <v>42822</v>
-      </c>
-      <c r="D1087" s="41" t="s">
-        <v>1539</v>
+        <v>42849</v>
+      </c>
+      <c r="D1087" s="6" t="s">
+        <v>1548</v>
       </c>
       <c r="E1087" s="44">
-        <v>58.25</v>
-      </c>
-      <c r="F1087" s="41" t="s">
+        <v>9.9</v>
+      </c>
+      <c r="F1087" s="6" t="s">
         <v>1540</v>
       </c>
       <c r="G1087">
@@ -55252,42 +55187,42 @@
         <v>0</v>
       </c>
       <c r="I1087" s="44">
-        <v>8.74</v>
+        <v>0</v>
       </c>
       <c r="J1087" s="44">
         <v>0</v>
       </c>
       <c r="K1087" s="44">
-        <v>300</v>
+        <v>49.5</v>
       </c>
       <c r="L1087" s="41" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
       <c r="M1087" s="41" t="s">
-        <v>1542</v>
+        <v>1531</v>
       </c>
       <c r="N1087" s="6" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1088" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1088" s="6">
+      <c r="A1088" s="1">
         <v>1087</v>
       </c>
       <c r="B1088" s="41" t="s">
-        <v>1545</v>
+        <v>1533</v>
       </c>
       <c r="C1088" s="38">
-        <v>42838</v>
-      </c>
-      <c r="D1088" s="41" t="s">
+        <v>42862</v>
+      </c>
+      <c r="D1088" s="6" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E1088" s="44">
+        <v>815.05</v>
+      </c>
+      <c r="F1088" s="6" t="s">
         <v>1546</v>
-      </c>
-      <c r="E1088" s="44">
-        <v>320.51</v>
-      </c>
-      <c r="F1088" s="41" t="s">
-        <v>1547</v>
       </c>
       <c r="G1088">
         <v>1</v>
@@ -55296,92 +55231,92 @@
         <v>0</v>
       </c>
       <c r="I1088" s="44">
-        <v>54.49</v>
+        <v>24.45</v>
       </c>
       <c r="J1088" s="44">
         <v>0</v>
       </c>
       <c r="K1088" s="44">
-        <v>375</v>
+        <v>839.5</v>
       </c>
       <c r="L1088" s="41" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
       <c r="M1088" s="41" t="s">
-        <v>1542</v>
+        <v>1531</v>
       </c>
       <c r="N1088" s="6" t="s">
-        <v>1548</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1089" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1089" s="6">
+      <c r="A1089" s="1">
         <v>1088</v>
       </c>
       <c r="B1089" s="41" t="s">
-        <v>1549</v>
+        <v>1533</v>
       </c>
       <c r="C1089" s="38">
-        <v>42835</v>
-      </c>
-      <c r="D1089" s="41" t="s">
+        <v>42862</v>
+      </c>
+      <c r="D1089" s="6" t="s">
         <v>1550</v>
       </c>
       <c r="E1089" s="44">
-        <v>9.9</v>
-      </c>
-      <c r="F1089" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1089" s="6" t="s">
         <v>1551</v>
       </c>
       <c r="G1089">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1089" s="44">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I1089" s="44">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J1089" s="44">
         <v>0</v>
       </c>
       <c r="K1089" s="44">
-        <v>49.5</v>
+        <v>417</v>
       </c>
       <c r="L1089" s="41" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M1089" s="41" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N1089" s="6" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1090" s="1">
+        <v>1089</v>
+      </c>
+      <c r="B1090" s="41" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C1090" s="38">
+        <v>42864</v>
+      </c>
+      <c r="D1090" s="6" t="s">
         <v>1552</v>
       </c>
-      <c r="M1089" s="41" t="s">
-        <v>1542</v>
-      </c>
-      <c r="N1089" s="6" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1090" s="6">
-        <v>1089</v>
-      </c>
-      <c r="B1090" s="41" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C1090" s="38">
-        <v>42838</v>
-      </c>
-      <c r="D1090" s="6" t="s">
-        <v>1554</v>
-      </c>
       <c r="E1090" s="44">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F1090" s="6" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="G1090">
         <v>2</v>
       </c>
       <c r="H1090" s="44">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I1090" s="44">
         <v>0</v>
@@ -55390,36 +55325,36 @@
         <v>0</v>
       </c>
       <c r="K1090" s="44">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="L1090" s="41" t="s">
-        <v>1552</v>
+        <v>1530</v>
       </c>
       <c r="M1090" s="41" t="s">
-        <v>1542</v>
+        <v>1531</v>
       </c>
       <c r="N1090" s="6" t="s">
-        <v>1548</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1091" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1091" s="6">
+      <c r="A1091" s="1">
         <v>1090</v>
       </c>
-      <c r="B1091" s="41" t="s">
-        <v>1555</v>
+      <c r="B1091" t="s">
+        <v>1439</v>
       </c>
       <c r="C1091" s="38">
-        <v>42838</v>
-      </c>
-      <c r="D1091" s="6" t="s">
-        <v>1556</v>
+        <v>42830</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>1554</v>
       </c>
       <c r="E1091" s="44">
-        <v>97</v>
-      </c>
-      <c r="F1091" s="6" t="s">
-        <v>1557</v>
+        <v>110.75</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>85</v>
       </c>
       <c r="G1091">
         <v>1</v>
@@ -55434,39 +55369,39 @@
         <v>0</v>
       </c>
       <c r="K1091" s="44">
-        <v>97</v>
-      </c>
-      <c r="L1091" s="41" t="s">
-        <v>1558</v>
-      </c>
-      <c r="M1091" s="41" t="s">
-        <v>1542</v>
-      </c>
-      <c r="N1091" s="6" t="s">
-        <v>1548</v>
+        <v>110.75</v>
+      </c>
+      <c r="L1091" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1091" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1091" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="1092" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1092" s="6">
+      <c r="A1092" s="1">
         <v>1091</v>
       </c>
-      <c r="B1092" s="41" t="s">
-        <v>1544</v>
+      <c r="B1092" t="s">
+        <v>1439</v>
       </c>
       <c r="C1092" s="38">
-        <v>42849</v>
-      </c>
-      <c r="D1092" s="6" t="s">
-        <v>1559</v>
+        <v>42833</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>1555</v>
       </c>
       <c r="E1092" s="44">
-        <v>9.9</v>
-      </c>
-      <c r="F1092" s="6" t="s">
-        <v>1551</v>
+        <v>30</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>70</v>
       </c>
       <c r="G1092">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H1092" s="44">
         <v>0</v>
@@ -55478,36 +55413,36 @@
         <v>0</v>
       </c>
       <c r="K1092" s="44">
-        <v>49.5</v>
-      </c>
-      <c r="L1092" s="41" t="s">
-        <v>1541</v>
-      </c>
-      <c r="M1092" s="41" t="s">
-        <v>1542</v>
-      </c>
-      <c r="N1092" s="6" t="s">
-        <v>1548</v>
+        <v>300</v>
+      </c>
+      <c r="L1092" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1092" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1092" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="1093" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1093" s="6">
+      <c r="A1093" s="1">
         <v>1092</v>
       </c>
-      <c r="B1093" s="41" t="s">
-        <v>1544</v>
+      <c r="B1093" t="s">
+        <v>1439</v>
       </c>
       <c r="C1093" s="38">
-        <v>42862</v>
-      </c>
-      <c r="D1093" s="6" t="s">
-        <v>1560</v>
+        <v>42844</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>1556</v>
       </c>
       <c r="E1093" s="44">
-        <v>815.05</v>
-      </c>
-      <c r="F1093" s="6" t="s">
-        <v>1557</v>
+        <v>350</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>85</v>
       </c>
       <c r="G1093">
         <v>1</v>
@@ -55516,92 +55451,92 @@
         <v>0</v>
       </c>
       <c r="I1093" s="44">
-        <v>24.45</v>
+        <v>0</v>
       </c>
       <c r="J1093" s="44">
         <v>0</v>
       </c>
       <c r="K1093" s="44">
-        <v>839.5</v>
-      </c>
-      <c r="L1093" s="41" t="s">
-        <v>1541</v>
-      </c>
-      <c r="M1093" s="41" t="s">
-        <v>1542</v>
-      </c>
-      <c r="N1093" s="6" t="s">
-        <v>1548</v>
+        <v>350</v>
+      </c>
+      <c r="L1093" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1093" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1093" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="1094" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1094" s="6">
+      <c r="A1094" s="1">
         <v>1093</v>
       </c>
-      <c r="B1094" s="41" t="s">
-        <v>1544</v>
+      <c r="B1094" t="s">
+        <v>1439</v>
       </c>
       <c r="C1094" s="38">
-        <v>42862</v>
-      </c>
-      <c r="D1094" s="6" t="s">
-        <v>1561</v>
+        <v>42855</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>1557</v>
       </c>
       <c r="E1094" s="44">
-        <v>128</v>
-      </c>
-      <c r="F1094" s="6" t="s">
-        <v>1562</v>
+        <v>118.5</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>85</v>
       </c>
       <c r="G1094">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1094" s="44">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I1094" s="44">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J1094" s="44">
         <v>0</v>
       </c>
       <c r="K1094" s="44">
-        <v>417</v>
-      </c>
-      <c r="L1094" s="41" t="s">
-        <v>1541</v>
-      </c>
-      <c r="M1094" s="41" t="s">
-        <v>1542</v>
-      </c>
-      <c r="N1094" s="6" t="s">
-        <v>1548</v>
+        <v>118.5</v>
+      </c>
+      <c r="L1094" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1094" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1094" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="1095" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1095" s="6">
+      <c r="A1095" s="1">
         <v>1094</v>
       </c>
-      <c r="B1095" s="41" t="s">
-        <v>1544</v>
+      <c r="B1095" t="s">
+        <v>1439</v>
       </c>
       <c r="C1095" s="38">
-        <v>42864</v>
-      </c>
-      <c r="D1095" s="6" t="s">
-        <v>1563</v>
+        <v>42856</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>1555</v>
       </c>
       <c r="E1095" s="44">
-        <v>80</v>
-      </c>
-      <c r="F1095" s="6" t="s">
-        <v>1557</v>
+        <v>35</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>70</v>
       </c>
       <c r="G1095">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H1095" s="44">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I1095" s="44">
         <v>0</v>
@@ -55610,16 +55545,60 @@
         <v>0</v>
       </c>
       <c r="K1095" s="44">
-        <v>178</v>
-      </c>
-      <c r="L1095" s="41" t="s">
-        <v>1541</v>
-      </c>
-      <c r="M1095" s="41" t="s">
-        <v>1542</v>
-      </c>
-      <c r="N1095" s="6" t="s">
-        <v>1564</v>
+        <v>350</v>
+      </c>
+      <c r="L1095" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1095" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1095" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1096" s="1">
+        <v>1095</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C1096" s="38">
+        <v>42856</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E1096" s="44">
+        <v>35</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1096">
+        <v>10</v>
+      </c>
+      <c r="H1096" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1096" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1096" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1096" s="44">
+        <v>350</v>
+      </c>
+      <c r="L1096" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1096" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1096" t="s">
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -55645,22 +55624,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B555 B557">
-    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="65" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="66" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="67" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -55674,26 +55653,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1062 A1064:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B611:B666">
-    <cfRule type="cellIs" dxfId="49" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="57" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="58" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="59" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -55708,22 +55687,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B369:B376">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="53">
@@ -55738,22 +55717,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B804:B817">
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="37">
@@ -55768,22 +55747,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B934">
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -55797,53 +55776,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B818:B933 B1:B368 B556 B377:B554 B558:B610 B667:B803 B935:B978 B987:B1023 B1025:B1062 B1064:B1048576">
-    <cfRule type="cellIs" dxfId="25" priority="78" operator="equal">
+  <conditionalFormatting sqref="B979:B986">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="83" operator="equal">
-      <formula>$B$101</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B979:B986">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
-      <formula>$B$431</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>$B$174</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>$B$11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
-      <formula>$B$10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
-      <formula>$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="23">
@@ -55858,22 +55807,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1024">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -55887,29 +55836,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1063">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1063">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+  <conditionalFormatting sqref="B818:B933 B1:B368 B556 B377:B554 B558:B610 B667:B803 B935:B978 B987:B1023 B1102:B1048576 B1025:B1096">
+    <cfRule type="cellIs" dxfId="7" priority="96" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="97" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="98" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="99" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="100" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="101" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soda\Documents\GitHub\AboutMoney2017\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\170615整理发票\github_repo\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="600" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="930" yWindow="1200" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1095</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6092" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6127" uniqueCount="1578">
   <si>
     <t>编号</t>
   </si>
@@ -6244,11 +6244,91 @@
   <si>
     <t>碳素杆 舵机连杆</t>
   </si>
+  <si>
+    <t>黄禹尧</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件 IRF7843</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>一批芯片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>批</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路板</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄禹尧</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED*6，HMI*2, 十字激光模组*6，WIFI*6等</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>批</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄禹尧</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>舵机固定支架等器件</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路板</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
@@ -6620,79 +6700,7 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <fill>
         <patternFill>
@@ -6989,6 +6997,58 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -7012,8 +7072,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="52"/>
-      <tableStyleElement type="headerRow" dxfId="51"/>
+      <tableStyleElement type="wholeTable" dxfId="50"/>
+      <tableStyleElement type="headerRow" dxfId="49"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -7361,11 +7421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1096"/>
+  <dimension ref="A1:S1102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1038" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1060" sqref="F1060"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1092" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1103" sqref="L1103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7487,7 +7547,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>106240.96400000001</v>
+        <v>107436.76400000001</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -55599,6 +55659,265 @@
       </c>
       <c r="N1096" t="s">
         <v>1440</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1097" s="1">
+        <v>1096</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C1097" s="38">
+        <v>42871</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E1097" s="44">
+        <f>106/60</f>
+        <v>1.7666666666666666</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G1097">
+        <v>60</v>
+      </c>
+      <c r="H1097" s="44">
+        <v>10</v>
+      </c>
+      <c r="I1097" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1097" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1097" s="44">
+        <v>116</v>
+      </c>
+      <c r="L1097" s="6" t="s">
+        <v>1561</v>
+      </c>
+      <c r="M1097" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N1097" s="6" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1098" s="1">
+        <v>1097</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C1098" s="38">
+        <v>42872</v>
+      </c>
+      <c r="D1098" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E1098" s="44">
+        <v>233</v>
+      </c>
+      <c r="F1098" s="6" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G1098" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1098" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1098" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1098" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1098" s="44">
+        <v>233</v>
+      </c>
+      <c r="L1098" s="6" t="s">
+        <v>1561</v>
+      </c>
+      <c r="M1098" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N1098" s="6" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1099" s="1">
+        <v>1098</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C1099" s="38">
+        <v>42788</v>
+      </c>
+      <c r="D1099" s="6" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E1099" s="44">
+        <v>20</v>
+      </c>
+      <c r="F1099" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G1099" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1099" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1099" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1099" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1099" s="44">
+        <v>100</v>
+      </c>
+      <c r="L1099" s="6" t="s">
+        <v>1561</v>
+      </c>
+      <c r="M1099" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N1099" s="6" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1100" s="1">
+        <v>1099</v>
+      </c>
+      <c r="B1100" s="41" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C1100" s="38">
+        <v>42696</v>
+      </c>
+      <c r="D1100" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E1100" s="44">
+        <v>463</v>
+      </c>
+      <c r="F1100" s="6" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G1100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1100" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1100" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1100" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1100" s="44">
+        <v>463</v>
+      </c>
+      <c r="L1100" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M1100" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N1100" s="6" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1101" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B1101" s="41" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C1101" s="38">
+        <v>42843</v>
+      </c>
+      <c r="D1101" s="6" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E1101" s="44">
+        <v>110.8</v>
+      </c>
+      <c r="F1101" s="6" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G1101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1101" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1101" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1101" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1101" s="44">
+        <v>110.8</v>
+      </c>
+      <c r="L1101" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M1101" s="6" t="s">
+        <v>1574</v>
+      </c>
+      <c r="N1101" s="6" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C1102" s="38">
+        <v>42814</v>
+      </c>
+      <c r="D1102" s="6" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E1102" s="44">
+        <v>34.6</v>
+      </c>
+      <c r="F1102" s="6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G1102" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1102" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1102" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1102" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1102" s="44">
+        <v>173</v>
+      </c>
+      <c r="L1102" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M1102" s="6" t="s">
+        <v>1574</v>
+      </c>
+      <c r="N1102" s="6" t="s">
+        <v>1577</v>
       </c>
     </row>
   </sheetData>
@@ -55623,23 +55942,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B555 B557">
-    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
+  <conditionalFormatting sqref="B557 B555">
+    <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="63" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="64" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="65" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="66" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="67" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -55654,25 +55973,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B611:B666">
-    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="54" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="55" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="56" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="57" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="58" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="59" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -55687,22 +56006,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B369:B376">
-    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="49" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="50" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="51" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="52" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="53">
@@ -55717,22 +56036,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B804:B817">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="37">
@@ -55747,22 +56066,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B934">
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -55777,22 +56096,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B979:B986">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="23">
@@ -55807,22 +56126,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1024">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -55836,23 +56155,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B818:B933 B1:B368 B556 B377:B554 B558:B610 B667:B803 B935:B978 B987:B1023 B1102:B1048576 B1025:B1096">
-    <cfRule type="cellIs" dxfId="7" priority="96" operator="equal">
+  <conditionalFormatting sqref="B818:B933 B1:B368 B556 B377:B554 B558:B610 B667:B803 B935:B978 B987:B1023 B1025:B1048576">
+    <cfRule type="cellIs" dxfId="5" priority="96" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="97" operator="equal">
       <formula>$B$174</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="98" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="99" operator="equal">
       <formula>$B$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="100" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="101" operator="equal">
       <formula>$B$101</formula>
     </cfRule>
     <cfRule type="colorScale" priority="102">

--- a/采购单规范v0.2/采购详单.xlsx
+++ b/采购单规范v0.2/采购详单.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\170615整理发票\github_repo\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Documents\TU_smart\AboutMoney2017\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1095</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6127" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6146" uniqueCount="1594">
   <si>
     <t>编号</t>
   </si>
@@ -6324,11 +6324,75 @@
     <t>摄像头组</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>电路板</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>信标组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄禹尧</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟硕</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜腾龙</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5746芯片采购</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXP电子发票</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>信标组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜腾龙</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路板</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
@@ -7421,11 +7485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1102"/>
+  <dimension ref="A1:S1105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1092" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1103" sqref="L1103"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1070" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1105" sqref="N1105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7433,7 +7497,7 @@
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="38" customWidth="1"/>
     <col min="4" max="4" width="49.625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="44" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9.125" style="44" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="44" bestFit="1" customWidth="1"/>
@@ -7547,7 +7611,7 @@
       </c>
       <c r="Q2">
         <f>SUM(K:K)</f>
-        <v>107436.76400000001</v>
+        <v>108089.06400000001</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -55883,6 +55947,12 @@
       </c>
     </row>
     <row r="1102" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1102" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B1102" s="41" t="s">
+        <v>1583</v>
+      </c>
       <c r="C1102" s="38">
         <v>42814</v>
       </c>
@@ -55918,6 +55988,138 @@
       </c>
       <c r="N1102" s="6" t="s">
         <v>1577</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1103" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B1103" s="41" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C1103" s="38">
+        <v>42891</v>
+      </c>
+      <c r="D1103" s="6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E1103" s="44">
+        <v>308</v>
+      </c>
+      <c r="F1103" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G1103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1103" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1103" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1103" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1103" s="44">
+        <v>308</v>
+      </c>
+      <c r="L1103" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="M1103" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="N1103" s="6" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1104" s="1">
+        <v>1103</v>
+      </c>
+      <c r="B1104" s="41" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C1104" s="38">
+        <v>42810</v>
+      </c>
+      <c r="D1104" s="6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E1104" s="44">
+        <v>227.3</v>
+      </c>
+      <c r="F1104" s="6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G1104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1104" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1104" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1104" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1104" s="44">
+        <v>227.3</v>
+      </c>
+      <c r="L1104" s="6" t="s">
+        <v>1588</v>
+      </c>
+      <c r="M1104" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="N1104" s="6" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1105" s="1">
+        <v>1104</v>
+      </c>
+      <c r="B1105" s="41" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C1105" s="38">
+        <v>42728</v>
+      </c>
+      <c r="D1105" s="6" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E1105" s="44">
+        <v>117</v>
+      </c>
+      <c r="F1105" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G1105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1105" s="44">
+        <v>0</v>
+      </c>
+      <c r="I1105" s="44">
+        <v>0</v>
+      </c>
+      <c r="J1105" s="44">
+        <v>0</v>
+      </c>
+      <c r="K1105" s="44">
+        <v>117</v>
+      </c>
+      <c r="L1105" s="6" t="s">
+        <v>1593</v>
+      </c>
+      <c r="M1105" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="N1105" s="6" t="s">
+        <v>1590</v>
       </c>
     </row>
   </sheetData>
@@ -55942,7 +56144,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B557 B555">
+  <conditionalFormatting sqref="B555 B557">
     <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
       <formula>$B$431</formula>
     </cfRule>
